--- a/Technology/Hardware/Texas Instruments.xlsx
+++ b/Technology/Hardware/Texas Instruments.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD62A2CD-14DB-A848-9B46-DA9468A1B4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8130F349-F2A8-BB41-96A5-2CA335A6FB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2521,11 +2521,9 @@
     <v>Powered by Refinitiv</v>
     <v>186.3</v>
     <v>144.4589</v>
-    <v>1.0274000000000001</v>
-    <v>0.4</v>
-    <v>2.2650000000000001E-3</v>
-    <v>-0.32</v>
-    <v>-1.8079999999999999E-3</v>
+    <v>1.0161</v>
+    <v>-1.1200000000000001</v>
+    <v>-6.5550000000000001E-3</v>
     <v>USD</v>
     <v>Texas Instruments Incorporated designs, makes and sells semiconductors to electronics designers and manufacturers across the world. The Company operates through two segments: Analog and Embedded Processing. The Company's Analog segment product lines include Power and Signal Chain. Power includes products that help customers manage power in electronic systems. Its broad portfolio is designed to manage power requirements across different voltage levels, including battery-management solutions, direct current (DC)/DC switching regulators, alternating current (AC)/DC and isolated controllers and converters, power switches, linear regulators, voltage references and lighting products. Signal Chain includes products that sense, condition, and measure signals to allow information to be transferred or converted for further processing and control. The Embedded Processing segment includes microcontrollers, digital signal processors (DSPs), and applications processors.</v>
     <v>33000</v>
@@ -2533,25 +2531,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>12500 T I Blvd, DALLAS, TX, 75243-0592 US</v>
-    <v>177.56</v>
+    <v>170.74</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45037.989113298434</v>
+    <v>45069.998688483596</v>
     <v>0</v>
-    <v>174.86</v>
-    <v>160617700000</v>
+    <v>169.22</v>
+    <v>154065172986</v>
     <v>TEXAS INSTRUMENTS INCORPORATED</v>
     <v>TEXAS INSTRUMENTS INCORPORATED</v>
-    <v>175.6</v>
-    <v>18.781600000000001</v>
-    <v>176.62</v>
-    <v>177.02</v>
-    <v>176.7</v>
-    <v>907342000</v>
+    <v>169.79</v>
+    <v>19.046700000000001</v>
+    <v>170.86</v>
+    <v>169.74</v>
+    <v>169</v>
+    <v>907653900</v>
     <v>TXN</v>
     <v>TEXAS INSTRUMENTS INCORPORATED (XNAS:TXN)</v>
-    <v>6791989</v>
-    <v>4588177</v>
+    <v>101</v>
+    <v>4874712</v>
     <v>1938</v>
   </rv>
   <rv s="2">
@@ -2583,8 +2581,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2622,7 +2618,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="43">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2640,9 +2636,7 @@
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2709,8 +2703,6 @@
       <v>9</v>
       <v>4</v>
       <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
       <v>at close</v>
@@ -2719,8 +2711,6 @@
       <v>Source: Nasdaq</v>
       <v>GMT</v>
       <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2766,8 +2756,6 @@
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
     <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2776,8 +2764,6 @@
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
     <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3139,10 +3125,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AL2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AO17" sqref="AO17"/>
+      <selection pane="bottomRight" activeCell="AN90" sqref="AN90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5357,15 +5343,15 @@
       </c>
       <c r="AT16" s="30">
         <f>AU101/AM3</f>
-        <v>8.019657479528659</v>
+        <v>7.692489164469742</v>
       </c>
       <c r="AU16" s="30">
         <f>AU101/AM28</f>
-        <v>18.358406675048577</v>
+        <v>17.609460851068693</v>
       </c>
       <c r="AV16" s="31">
         <f>AU101/AM106</f>
-        <v>27.1176262029377</v>
+        <v>26.011341041026508</v>
       </c>
     </row>
     <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -15035,7 +15021,7 @@
       </c>
       <c r="AU95" s="39" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>1.0274000000000001</v>
+        <v>1.0161</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15286,7 +15272,7 @@
       </c>
       <c r="AU97" s="36">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>8.517957000000001E-2</v>
+        <v>8.4693105000000005E-2</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15661,7 +15647,7 @@
       </c>
       <c r="AU100" s="34">
         <f>AU99/AU103</f>
-        <v>5.3501335028907457E-2</v>
+        <v>5.5650164108399396E-2</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15787,7 +15773,7 @@
       </c>
       <c r="AU101" s="40" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>160617700000</v>
+        <v>154065172986</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15913,7 +15899,7 @@
       </c>
       <c r="AU102" s="34">
         <f>AU101/AU103</f>
-        <v>0.94649866497109258</v>
+        <v>0.9443498358916006</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16039,7 +16025,7 @@
       </c>
       <c r="AU103" s="41">
         <f>AU99+AU101</f>
-        <v>169696700000</v>
+        <v>163144172986</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16329,7 +16315,7 @@
       </c>
       <c r="AU105" s="26">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>8.172214309396901E-2</v>
+        <v>8.1123885762487663E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16527,7 +16513,7 @@
       <c r="AQ107" s="43"/>
       <c r="AR107" s="46">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>139685443140.55746</v>
+        <v>141174431996.63403</v>
       </c>
       <c r="AS107" s="47" t="s">
         <v>148</v>
@@ -16558,7 +16544,7 @@
       </c>
       <c r="AR108" s="46">
         <f>AR107+AR106</f>
-        <v>147415450646.86301</v>
+        <v>148904439502.93958</v>
       </c>
       <c r="AS108" s="47" t="s">
         <v>144</v>
@@ -16568,7 +16554,7 @@
       </c>
       <c r="AU108" s="51">
         <f>AU105</f>
-        <v>8.172214309396901E-2</v>
+        <v>8.1123885762487663E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16583,7 +16569,7 @@
       </c>
       <c r="AO110" s="40">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>121781115198.14023</v>
+        <v>123095340354.98009</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16610,7 +16596,7 @@
       </c>
       <c r="AO113" s="40">
         <f>AO110+AO111-AO112</f>
-        <v>121769115198.14023</v>
+        <v>123083340354.98009</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16628,7 +16614,7 @@
       </c>
       <c r="AO115" s="55">
         <f>AO113/AO114</f>
-        <v>140.92768829635881</v>
+        <v>142.44868738510962</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16637,7 +16623,7 @@
       </c>
       <c r="AO116" s="56" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>177.02</v>
+        <v>169.74</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16646,7 +16632,7 @@
       </c>
       <c r="AO117" s="58">
         <f>AO115/AO116-1</f>
-        <v>-0.20388832732821827</v>
+        <v>-0.16078303649634962</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Texas Instruments.xlsx
+++ b/Technology/Hardware/Texas Instruments.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8130F349-F2A8-BB41-96A5-2CA335A6FB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1531D5-09BA-7948-831F-A2C8B7E7A096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2521,9 +2521,9 @@
     <v>Powered by Refinitiv</v>
     <v>186.3</v>
     <v>144.4589</v>
-    <v>1.0161</v>
-    <v>-1.1200000000000001</v>
-    <v>-6.5550000000000001E-3</v>
+    <v>1.0016</v>
+    <v>2.15</v>
+    <v>1.2611000000000001E-2</v>
     <v>USD</v>
     <v>Texas Instruments Incorporated designs, makes and sells semiconductors to electronics designers and manufacturers across the world. The Company operates through two segments: Analog and Embedded Processing. The Company's Analog segment product lines include Power and Signal Chain. Power includes products that help customers manage power in electronic systems. Its broad portfolio is designed to manage power requirements across different voltage levels, including battery-management solutions, direct current (DC)/DC switching regulators, alternating current (AC)/DC and isolated controllers and converters, power switches, linear regulators, voltage references and lighting products. Signal Chain includes products that sense, condition, and measure signals to allow information to be transferred or converted for further processing and control. The Embedded Processing segment includes microcontrollers, digital signal processors (DSPs), and applications processors.</v>
     <v>33000</v>
@@ -2531,25 +2531,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>12500 T I Blvd, DALLAS, TX, 75243-0592 US</v>
-    <v>170.74</v>
+    <v>172.66</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45069.998688483596</v>
+    <v>45099.994103750003</v>
     <v>0</v>
-    <v>169.22</v>
-    <v>154065172986</v>
+    <v>169.81</v>
+    <v>156688292757</v>
     <v>TEXAS INSTRUMENTS INCORPORATED</v>
     <v>TEXAS INSTRUMENTS INCORPORATED</v>
-    <v>169.79</v>
-    <v>19.046700000000001</v>
-    <v>170.86</v>
-    <v>169.74</v>
-    <v>169</v>
+    <v>170</v>
+    <v>19.370899999999999</v>
+    <v>170.48</v>
+    <v>172.63</v>
     <v>907653900</v>
     <v>TXN</v>
     <v>TEXAS INSTRUMENTS INCORPORATED (XNAS:TXN)</v>
-    <v>101</v>
-    <v>4874712</v>
+    <v>278</v>
+    <v>5314737</v>
     <v>1938</v>
   </rv>
   <rv s="2">
@@ -2601,7 +2600,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2618,7 +2616,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="43">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2629,7 +2627,6 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
@@ -2702,15 +2699,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2755,7 +2750,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2763,7 +2757,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3125,10 +3118,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AN90" sqref="AN90"/>
+      <selection pane="bottomRight" activeCell="AM122" sqref="AM122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5343,15 +5336,15 @@
       </c>
       <c r="AT16" s="30">
         <f>AU101/AM3</f>
-        <v>7.692489164469742</v>
+        <v>7.8234617913421207</v>
       </c>
       <c r="AU16" s="30">
         <f>AU101/AM28</f>
-        <v>17.609460851068693</v>
+        <v>17.90928023282661</v>
       </c>
       <c r="AV16" s="31">
         <f>AU101/AM106</f>
-        <v>26.011341041026508</v>
+        <v>26.454211169508696</v>
       </c>
     </row>
     <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -15021,7 +15014,7 @@
       </c>
       <c r="AU95" s="39" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>1.0161</v>
+        <v>1.0016</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15272,7 +15265,7 @@
       </c>
       <c r="AU97" s="36">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>8.4693105000000005E-2</v>
+        <v>8.4068880000000012E-2</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15647,7 +15640,7 @@
       </c>
       <c r="AU100" s="34">
         <f>AU99/AU103</f>
-        <v>5.5650164108399396E-2</v>
+        <v>5.4769549824940443E-2</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15773,7 +15766,7 @@
       </c>
       <c r="AU101" s="40" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>154065172986</v>
+        <v>156688292757</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15899,7 +15892,7 @@
       </c>
       <c r="AU102" s="34">
         <f>AU101/AU103</f>
-        <v>0.9443498358916006</v>
+        <v>0.94523045017505958</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16025,7 +16018,7 @@
       </c>
       <c r="AU103" s="41">
         <f>AU99+AU101</f>
-        <v>163144172986</v>
+        <v>165767292757</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16315,7 +16308,7 @@
       </c>
       <c r="AU105" s="26">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>8.1123885762487663E-2</v>
+        <v>8.059032900031661E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16513,7 +16506,7 @@
       <c r="AQ107" s="43"/>
       <c r="AR107" s="46">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>141174431996.63403</v>
+        <v>142529426187.02698</v>
       </c>
       <c r="AS107" s="47" t="s">
         <v>148</v>
@@ -16544,7 +16537,7 @@
       </c>
       <c r="AR108" s="46">
         <f>AR107+AR106</f>
-        <v>148904439502.93958</v>
+        <v>150259433693.33252</v>
       </c>
       <c r="AS108" s="47" t="s">
         <v>144</v>
@@ -16554,7 +16547,7 @@
       </c>
       <c r="AU108" s="51">
         <f>AU105</f>
-        <v>8.1123885762487663E-2</v>
+        <v>8.059032900031661E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16569,7 +16562,7 @@
       </c>
       <c r="AO110" s="40">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>123095340354.98009</v>
+        <v>124291328069.90004</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16596,7 +16589,7 @@
       </c>
       <c r="AO113" s="40">
         <f>AO110+AO111-AO112</f>
-        <v>123083340354.98009</v>
+        <v>124279328069.90004</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16614,7 +16607,7 @@
       </c>
       <c r="AO115" s="55">
         <f>AO113/AO114</f>
-        <v>142.44868738510962</v>
+        <v>143.832846115509</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16623,7 +16616,7 @@
       </c>
       <c r="AO116" s="56" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>169.74</v>
+        <v>172.63</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16632,7 +16625,7 @@
       </c>
       <c r="AO117" s="58">
         <f>AO115/AO116-1</f>
-        <v>-0.16078303649634962</v>
+        <v>-0.16681430738858249</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Texas Instruments.xlsx
+++ b/Technology/Hardware/Texas Instruments.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1531D5-09BA-7948-831F-A2C8B7E7A096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7BE433-21C6-8C41-8CA5-BDAE1A90007F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -510,9 +510,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -551,16 +548,45 @@
   <si>
     <t>Buy/Sell</t>
   </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -729,7 +755,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -835,22 +861,13 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -858,47 +875,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -940,20 +922,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -962,77 +936,88 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1085,9 +1070,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>TXN</a:t>
+              <a:t>Texas Instruments</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1124,10 +1108,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.6669983416252072E-2"/>
-          <c:y val="0.10777815824398833"/>
-          <c:w val="0.87291542288557211"/>
-          <c:h val="0.81816831170959647"/>
+          <c:x val="9.3917081260364826E-2"/>
+          <c:y val="0.14293597679588083"/>
+          <c:w val="0.84107462686567169"/>
+          <c:h val="0.68056458668575992"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1306,7 +1290,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FC70-C44B-A048-E0A1696396AB}"/>
+              <c16:uniqueId val="{00000000-3165-E049-AE3C-A840CC63ACE6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1315,11 +1299,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1359,130 +1343,130 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$AM$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$AM$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>400900000</c:v>
+                  <c:v>-118700000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>524900000</c:v>
+                  <c:v>39900000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>794800000</c:v>
+                  <c:v>256900000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>906200000</c:v>
+                  <c:v>366300000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>808500000</c:v>
+                  <c:v>291700000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>520000000</c:v>
+                  <c:v>-39000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>286000000</c:v>
+                  <c:v>-409000000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>979000000</c:v>
+                  <c:v>247000000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1309000000</c:v>
+                  <c:v>472000000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1707000000</c:v>
+                  <c:v>691000000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2375000000</c:v>
+                  <c:v>1088000000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>990000000</c:v>
+                  <c:v>63000000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3325000000</c:v>
+                  <c:v>1805000000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1761000000</c:v>
+                  <c:v>407000000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3074000000</c:v>
+                  <c:v>1406000000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5925000000</c:v>
+                  <c:v>3058000000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1402000000</c:v>
+                  <c:v>-201000000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1343000000</c:v>
+                  <c:v>-344000000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2778000000</c:v>
+                  <c:v>1198000000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3970000000</c:v>
+                  <c:v>1861000000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4546000000</c:v>
+                  <c:v>2324000000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6549000000</c:v>
+                  <c:v>4341000000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4778000000</c:v>
+                  <c:v>2657000000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3616000000</c:v>
+                  <c:v>1920000000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2966000000</c:v>
+                  <c:v>1470000000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5477000000</c:v>
+                  <c:v>3228000000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4012000000</c:v>
+                  <c:v>2236000000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3319000000</c:v>
+                  <c:v>1759000000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4146000000</c:v>
+                  <c:v>2162000000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5198000000</c:v>
+                  <c:v>2821000000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5439000000</c:v>
+                  <c:v>2986000000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5965000000</c:v>
+                  <c:v>3595000000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7062000000</c:v>
+                  <c:v>3682000000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7765000000</c:v>
+                  <c:v>5580000000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6948000000</c:v>
+                  <c:v>5017000000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>7199000000</c:v>
+                  <c:v>5595000000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>10057000000</c:v>
+                  <c:v>7769000000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>11225000000</c:v>
+                  <c:v>8749000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FC70-C44B-A048-E0A1696396AB}"/>
+              <c16:uniqueId val="{00000001-3165-E049-AE3C-A840CC63ACE6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1491,11 +1475,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1535,7 +1519,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$AM$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$AM$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="38"/>
@@ -1658,7 +1642,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FC70-C44B-A048-E0A1696396AB}"/>
+              <c16:uniqueId val="{00000002-3165-E049-AE3C-A840CC63ACE6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1672,11 +1656,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1879655552"/>
-        <c:axId val="1879657280"/>
+        <c:axId val="1726291391"/>
+        <c:axId val="1726429999"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1879655552"/>
+        <c:axId val="1726291391"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1716,7 +1700,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1879657280"/>
+        <c:crossAx val="1726429999"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1724,9 +1708,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1879657280"/>
+        <c:axId val="1726429999"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1760,7 +1745,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1772,7 +1757,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1879655552"/>
+        <c:crossAx val="1726291391"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1786,6 +1771,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.3465695146315666"/>
+          <c:y val="0.90866688645799287"/>
+          <c:w val="0.31482106527728809"/>
+          <c:h val="5.9437495547855754E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1799,7 +1794,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
@@ -2363,22 +2358,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
+      <xdr:colOff>15874</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>17462</xdr:rowOff>
+      <xdr:rowOff>17463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>1587500</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1571624</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9436D143-3BF5-38D2-4384-BBADDB593B56}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2D42E42-3409-5EB8-E3D6-CF3233A1C465}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2397,6 +2392,58 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>4.0480000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2520,10 +2567,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>186.3</v>
-    <v>144.4589</v>
-    <v>1.0016</v>
-    <v>2.15</v>
-    <v>1.2611000000000001E-2</v>
+    <v>145.97</v>
+    <v>1.0117</v>
+    <v>-1.1200000000000001</v>
+    <v>-6.4070000000000004E-3</v>
     <v>USD</v>
     <v>Texas Instruments Incorporated designs, makes and sells semiconductors to electronics designers and manufacturers across the world. The Company operates through two segments: Analog and Embedded Processing. The Company's Analog segment product lines include Power and Signal Chain. Power includes products that help customers manage power in electronic systems. Its broad portfolio is designed to manage power requirements across different voltage levels, including battery-management solutions, direct current (DC)/DC switching regulators, alternating current (AC)/DC and isolated controllers and converters, power switches, linear regulators, voltage references and lighting products. Signal Chain includes products that sense, condition, and measure signals to allow information to be transferred or converted for further processing and control. The Embedded Processing segment includes microcontrollers, digital signal processors (DSPs), and applications processors.</v>
     <v>33000</v>
@@ -2531,24 +2578,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>12500 T I Blvd, DALLAS, TX, 75243-0592 US</v>
-    <v>172.66</v>
+    <v>177.07</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45099.994103750003</v>
+    <v>45114.999581724216</v>
     <v>0</v>
-    <v>169.81</v>
-    <v>156688292757</v>
+    <v>173.58</v>
+    <v>157659500000</v>
     <v>TEXAS INSTRUMENTS INCORPORATED</v>
     <v>TEXAS INSTRUMENTS INCORPORATED</v>
-    <v>170</v>
-    <v>19.370899999999999</v>
-    <v>170.48</v>
-    <v>172.63</v>
+    <v>174.11</v>
+    <v>19.491</v>
+    <v>174.82</v>
+    <v>173.7</v>
     <v>907653900</v>
     <v>TXN</v>
     <v>TEXAS INSTRUMENTS INCORPORATED (XNAS:TXN)</v>
-    <v>278</v>
-    <v>5314737</v>
+    <v>477</v>
+    <v>4901046</v>
     <v>1938</v>
   </rv>
   <rv s="2">
@@ -3118,10 +3165,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AM122" sqref="AM122"/>
+      <selection pane="bottomRight" activeCell="AR8" sqref="AR8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3249,19 +3296,19 @@
       <c r="AM1" s="8">
         <v>2022</v>
       </c>
-      <c r="AN1" s="27">
+      <c r="AN1" s="23">
         <v>2023</v>
       </c>
-      <c r="AO1" s="27">
+      <c r="AO1" s="23">
         <v>2024</v>
       </c>
-      <c r="AP1" s="27">
+      <c r="AP1" s="23">
         <v>2025</v>
       </c>
-      <c r="AQ1" s="27">
+      <c r="AQ1" s="23">
         <v>2026</v>
       </c>
-      <c r="AR1" s="27">
+      <c r="AR1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3270,127 +3317,127 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AN2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AO2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AQ2" s="9"/>
       <c r="AR2" s="9"/>
@@ -3513,37 +3560,37 @@
       <c r="AM3" s="1">
         <v>20028000000</v>
       </c>
-      <c r="AN3" s="28">
-        <v>18218000000</v>
-      </c>
-      <c r="AO3" s="28">
-        <v>19427000000</v>
-      </c>
-      <c r="AP3" s="28">
-        <v>20610000000</v>
-      </c>
-      <c r="AQ3" s="28">
-        <v>23561000000</v>
-      </c>
-      <c r="AR3" s="28">
-        <v>25762000000</v>
+      <c r="AN3" s="24">
+        <v>17905000000</v>
+      </c>
+      <c r="AO3" s="24">
+        <v>19191000000</v>
+      </c>
+      <c r="AP3" s="24">
+        <v>20683000000</v>
+      </c>
+      <c r="AQ3" s="24">
+        <v>23439000000</v>
+      </c>
+      <c r="AR3" s="24">
+        <v>25764000000</v>
       </c>
       <c r="AS3" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AT3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AT3" s="19" t="s">
+      <c r="AU3" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AU3" s="19" t="s">
+      <c r="AV3" s="19" t="s">
         <v>111</v>
-      </c>
-      <c r="AV3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3555,164 +3602,164 @@
         <v>0.1247486932046642</v>
       </c>
       <c r="E4" s="15">
-        <f>(E3/D3)-1</f>
+        <f t="shared" ref="E4:AM4" si="0">(E3/D3)-1</f>
         <v>0.1251765126463491</v>
       </c>
       <c r="F4" s="15">
-        <f t="shared" ref="F4:AR4" si="0">(F3/E3)-1</f>
+        <f t="shared" si="0"/>
         <v>3.6077397216750295E-2</v>
       </c>
       <c r="G4" s="15">
         <f t="shared" si="0"/>
         <v>6.9151627593186937E-3</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <f t="shared" si="0"/>
         <v>3.3044007918379803E-2</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="15">
         <f t="shared" si="0"/>
         <v>9.6698113207547065E-2</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="15">
         <f t="shared" si="0"/>
         <v>0.14556451612903221</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="15">
         <f t="shared" si="0"/>
         <v>0.21025460518596728</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="15">
         <f t="shared" si="0"/>
         <v>0.27270964614638871</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="15">
         <f t="shared" si="0"/>
         <v>-0.24283973187081043</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="15">
         <f t="shared" si="0"/>
         <v>-1.9114688128772594E-2</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="15">
         <f t="shared" si="0"/>
         <v>-0.13230769230769235</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="15">
         <f t="shared" si="0"/>
         <v>0.11914893617021272</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="15">
         <f t="shared" si="0"/>
         <v>0.25422475707646819</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="15">
         <f t="shared" si="0"/>
         <v>-0.30938947368421055</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="15">
         <f t="shared" si="0"/>
         <v>2.2192415559078249E-2</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="15">
         <f t="shared" si="0"/>
         <v>0.17308839317666713</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="15">
         <f t="shared" si="0"/>
         <v>0.2792353060809436</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="15">
         <f t="shared" si="0"/>
         <v>6.4546899841017469E-2</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="15">
         <f t="shared" si="0"/>
         <v>6.4441457586618789E-2</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4" s="15">
         <f t="shared" si="0"/>
         <v>-2.9463346194317785E-2</v>
       </c>
-      <c r="Y4" s="16">
+      <c r="Y4" s="15">
         <f t="shared" si="0"/>
         <v>-9.6422117817130504E-2</v>
       </c>
-      <c r="Z4" s="16">
+      <c r="Z4" s="15">
         <f t="shared" si="0"/>
         <v>-0.16590672746180302</v>
       </c>
-      <c r="AA4" s="16">
+      <c r="AA4" s="15">
         <f t="shared" si="0"/>
         <v>0.3394073079505131</v>
       </c>
-      <c r="AB4" s="16">
+      <c r="AB4" s="15">
         <f t="shared" si="0"/>
         <v>-1.6540168981812986E-2</v>
       </c>
-      <c r="AC4" s="16">
+      <c r="AC4" s="15">
         <f t="shared" si="0"/>
         <v>-6.6254095376774624E-2</v>
       </c>
-      <c r="AD4" s="16">
+      <c r="AD4" s="15">
         <f t="shared" si="0"/>
         <v>-4.8343079922027243E-2</v>
       </c>
-      <c r="AE4" s="16">
+      <c r="AE4" s="15">
         <f t="shared" si="0"/>
         <v>6.8824252355591975E-2</v>
       </c>
-      <c r="AF4" s="16">
+      <c r="AF4" s="15">
         <f t="shared" si="0"/>
         <v>-3.4495975469528428E-3</v>
       </c>
-      <c r="AG4" s="16">
+      <c r="AG4" s="15">
         <f t="shared" si="0"/>
         <v>2.8461538461538538E-2</v>
       </c>
-      <c r="AH4" s="16">
+      <c r="AH4" s="15">
         <f t="shared" si="0"/>
         <v>0.1189977561705311</v>
       </c>
-      <c r="AI4" s="16">
+      <c r="AI4" s="15">
         <f t="shared" si="0"/>
         <v>5.5009691865516963E-2</v>
       </c>
-      <c r="AJ4" s="16">
+      <c r="AJ4" s="15">
         <f t="shared" si="0"/>
         <v>-8.876077040040542E-2</v>
       </c>
-      <c r="AK4" s="16">
+      <c r="AK4" s="15">
         <f t="shared" si="0"/>
         <v>5.4230689007856991E-3</v>
       </c>
-      <c r="AL4" s="16">
+      <c r="AL4" s="15">
         <f t="shared" si="0"/>
         <v>0.26851531705967768</v>
       </c>
-      <c r="AM4" s="16">
+      <c r="AM4" s="15">
         <f t="shared" si="0"/>
         <v>9.1801133885739183E-2</v>
       </c>
       <c r="AN4" s="16">
-        <f t="shared" si="0"/>
-        <v>-9.0373477132015156E-2</v>
+        <f t="shared" ref="AN4:AR4" si="1">(AN3/AM3)-1</f>
+        <v>-0.10600159776313156</v>
       </c>
       <c r="AO4" s="16">
-        <f t="shared" si="0"/>
-        <v>6.63629377538697E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.1823512985199622E-2</v>
       </c>
       <c r="AP4" s="16">
-        <f t="shared" si="0"/>
-        <v>6.0894631183404435E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.774477619717568E-2</v>
       </c>
       <c r="AQ4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.14318292091217866</v>
+        <f t="shared" si="1"/>
+        <v>0.13324952859836592</v>
       </c>
       <c r="AR4" s="16">
-        <f t="shared" si="0"/>
-        <v>9.3417087559950707E-2</v>
+        <f t="shared" si="1"/>
+        <v>9.9193651606297228E-2</v>
       </c>
       <c r="AS4" s="17">
         <f>(AM4+AL4+AK4)/3</f>
@@ -3727,7 +3774,7 @@
         <v>0.20997062261429936</v>
       </c>
       <c r="AV4" s="17">
-        <f>(AM105+AL105+AK105)/3</f>
+        <f>(AM106+AL106+AK106)/3</f>
         <v>1.1242833308487632E-2</v>
       </c>
     </row>
@@ -3969,16 +4016,16 @@
         <v>13771000000</v>
       </c>
       <c r="AS6" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AT6" s="19" t="s">
+      <c r="AU6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="AU6" s="19" t="s">
+      <c r="AV6" s="19" t="s">
         <v>115</v>
-      </c>
-      <c r="AV6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -4112,7 +4159,7 @@
         <v>0.43680000000000002</v>
       </c>
       <c r="AV7" s="20">
-        <f>AM106/AM3</f>
+        <f>AM107/AM3</f>
         <v>0.29573596964250048</v>
       </c>
     </row>
@@ -4121,37 +4168,37 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M8" s="1">
         <v>1181000000</v>
@@ -4237,171 +4284,171 @@
     </row>
     <row r="9" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15" t="e">
         <f>B8/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C9" s="15" t="e">
-        <f t="shared" ref="C9:AM9" si="1">C8/C3</f>
+        <f t="shared" ref="C9:AM9" si="2">C8/C3</f>
         <v>#VALUE!</v>
       </c>
       <c r="D9" s="15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="E9" s="15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="F9" s="15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="G9" s="15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H9" s="15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I9" s="15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="J9" s="15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="K9" s="15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="L9" s="15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="M9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11881287726358149</v>
       </c>
       <c r="N9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15753846153846154</v>
       </c>
       <c r="O9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.14255319148936171</v>
       </c>
       <c r="P9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.14079002957329953</v>
       </c>
       <c r="Q9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1471157894736842</v>
       </c>
       <c r="R9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1948542860626753</v>
       </c>
       <c r="S9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.19312895144936179</v>
       </c>
       <c r="T9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.17775066097213749</v>
       </c>
       <c r="U9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15723370429252781</v>
       </c>
       <c r="V9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15046296296296297</v>
       </c>
       <c r="W9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15398105927744651</v>
       </c>
       <c r="X9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15576436573906757</v>
       </c>
       <c r="Y9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15518758499320054</v>
       </c>
       <c r="Z9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1415555768677472</v>
       </c>
       <c r="AA9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11241586710582845</v>
       </c>
       <c r="AB9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.12486348744084456</v>
       </c>
       <c r="AC9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.14635477582846004</v>
       </c>
       <c r="AD9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.12470299057763212</v>
       </c>
       <c r="AE9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.10410118819471062</v>
       </c>
       <c r="AF9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.8461538461538461E-2</v>
       </c>
       <c r="AG9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.10246821241585639</v>
       </c>
       <c r="AH9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.10079540137691331</v>
       </c>
       <c r="AI9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.8770907247845915E-2</v>
       </c>
       <c r="AJ9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.10734895362580825</v>
       </c>
       <c r="AK9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.10580181176958717</v>
       </c>
       <c r="AL9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.471434801569995E-2</v>
       </c>
       <c r="AM9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.3383263431196328E-2</v>
       </c>
       <c r="AS9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AT9" s="19" t="s">
+      <c r="AU9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AU9" s="19" t="s">
+      <c r="AV9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="AV9" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -4409,118 +4456,118 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AS10" s="17">
         <f>AM9</f>
@@ -4536,7 +4583,7 @@
       </c>
       <c r="AV10" s="20">
         <f>AM89</f>
-        <v>0</v>
+        <v>0.13765727980826842</v>
       </c>
     </row>
     <row r="11" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -4544,118 +4591,118 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -4777,172 +4824,172 @@
         <v>1704000000</v>
       </c>
       <c r="AS12" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="AT12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="AT12" s="19" t="s">
+      <c r="AU12" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="AU12" s="19" t="s">
+      <c r="AV12" s="19" t="s">
         <v>119</v>
-      </c>
-      <c r="AV12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
         <v>0.19187734795410702</v>
       </c>
       <c r="C13" s="15">
-        <f t="shared" ref="C13:AM13" si="2">C12/C3</f>
+        <f t="shared" ref="C13:AM13" si="3">C12/C3</f>
         <v>0.16821471652593487</v>
       </c>
       <c r="D13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.17771025113951203</v>
       </c>
       <c r="E13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.17620893435851814</v>
       </c>
       <c r="F13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.17062512458026036</v>
       </c>
       <c r="G13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.19278209227957971</v>
       </c>
       <c r="H13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.2020931603773585</v>
       </c>
       <c r="I13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.17473118279569894</v>
       </c>
       <c r="J13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.17845828933474128</v>
       </c>
       <c r="K13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1707222491517208</v>
       </c>
       <c r="L13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1687995124923827</v>
       </c>
       <c r="M13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.16488933601609657</v>
       </c>
       <c r="N13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15712820512820513</v>
       </c>
       <c r="O13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.17269503546099291</v>
       </c>
       <c r="P13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15927334178284749</v>
       </c>
       <c r="Q13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.14054736842105264</v>
       </c>
       <c r="R13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1659553712961834</v>
       </c>
       <c r="S13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.13873315042347609</v>
       </c>
       <c r="T13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1270083384177344</v>
       </c>
       <c r="U13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.11454689984101749</v>
       </c>
       <c r="V13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.11626344086021505</v>
       </c>
       <c r="W13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.11904594878989828</v>
       </c>
       <c r="X13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.12150343332128659</v>
       </c>
       <c r="Y13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1291096712263019</v>
       </c>
       <c r="Z13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.12659441833700968</v>
       </c>
       <c r="AA13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.10876414148646714</v>
       </c>
       <c r="AB13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.11925737167819439</v>
       </c>
       <c r="AC13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.14066276803118907</v>
       </c>
       <c r="AD13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1522326915198689</v>
       </c>
       <c r="AE13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.14128018397853584</v>
       </c>
       <c r="AF13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.13446153846153847</v>
       </c>
       <c r="AG13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.13216155572176513</v>
       </c>
       <c r="AH13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.11322772541942383</v>
       </c>
       <c r="AI13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.10669031931069438</v>
       </c>
       <c r="AJ13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.11437113258708197</v>
       </c>
       <c r="AK13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.11223290228891501</v>
       </c>
       <c r="AL13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.0819886611426079E-2</v>
       </c>
       <c r="AM13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.5080886758538046E-2</v>
       </c>
       <c r="AS13" s="17">
@@ -4997,88 +5044,88 @@
         <v>-8149000000</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA14" s="1">
         <v>-144000000</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH14" s="1">
         <v>-119000000</v>
       </c>
       <c r="AI14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -5200,16 +5247,16 @@
         <v>3374000000</v>
       </c>
       <c r="AS15" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="AT15" s="19" t="s">
+      <c r="AU15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="AU15" s="19" t="s">
+      <c r="AV15" s="19" t="s">
         <v>123</v>
-      </c>
-      <c r="AV15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -5330,95 +5377,95 @@
       <c r="AM16" s="1">
         <v>9631000000</v>
       </c>
-      <c r="AS16" s="29">
+      <c r="AS16" s="25">
         <f>(AM35+AL35+AK35+AJ35+AI35)/5</f>
         <v>-1.5373103585659404E-2</v>
       </c>
-      <c r="AT16" s="30">
+      <c r="AT16" s="26">
         <f>AU101/AM3</f>
-        <v>7.8234617913421207</v>
-      </c>
-      <c r="AU16" s="30">
+        <v>7.8719542640303573</v>
+      </c>
+      <c r="AU16" s="26">
         <f>AU101/AM28</f>
-        <v>17.90928023282661</v>
-      </c>
-      <c r="AV16" s="31">
-        <f>AU101/AM106</f>
-        <v>26.454211169508696</v>
+        <v>18.020288032918049</v>
+      </c>
+      <c r="AV16" s="27">
+        <f>AU101/AM107</f>
+        <v>26.61818335303056</v>
       </c>
     </row>
-    <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y17" s="1">
         <v>76000000</v>
@@ -5466,7 +5513,7 @@
         <v>214000000</v>
       </c>
     </row>
-    <row r="18" spans="1:45" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -5585,10 +5632,19 @@
         <v>979000000</v>
       </c>
       <c r="AS18" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="AT18" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU18" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="AV18" s="19" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -5706,14 +5762,41 @@
       <c r="AM19" s="10">
         <v>11225000000</v>
       </c>
-      <c r="AS19" s="32">
+      <c r="AN19" s="36">
+        <v>9119000000</v>
+      </c>
+      <c r="AO19" s="36">
+        <v>10130000000</v>
+      </c>
+      <c r="AP19" s="36">
+        <v>11460000000</v>
+      </c>
+      <c r="AQ19" s="36">
+        <v>13976000000</v>
+      </c>
+      <c r="AR19" s="36">
+        <v>15198000000</v>
+      </c>
+      <c r="AS19" s="28">
         <f>AM40-AM56-AM61</f>
         <v>-12000000</v>
       </c>
+      <c r="AT19" s="32">
+        <f>AU101/AN3</f>
+        <v>8.8053337056688079</v>
+      </c>
+      <c r="AU19" s="32">
+        <f>AU101/AN28</f>
+        <v>23.049634502923976</v>
+      </c>
+      <c r="AV19" s="33">
+        <f>AU101/AN105</f>
+        <v>23.070460248095831</v>
+      </c>
     </row>
-    <row r="20" spans="1:45" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -5729,143 +5812,163 @@
         <v>0.14016104680422758</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:AM20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:AR20" si="4">(F19/E19)-1</f>
         <v>-0.10781284484661224</v>
       </c>
       <c r="G20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.35683364254792826</v>
       </c>
       <c r="H20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.44999999999999996</v>
       </c>
       <c r="I20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.4230769230769229</v>
       </c>
       <c r="J20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.33707865168539319</v>
       </c>
       <c r="K20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.30404889228418641</v>
       </c>
       <c r="L20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.39132981839484482</v>
       </c>
       <c r="M20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.5831578947368421</v>
       </c>
       <c r="N20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.3585858585858586</v>
       </c>
       <c r="O20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.47037593984962411</v>
       </c>
       <c r="P20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.74559909142532654</v>
       </c>
       <c r="Q20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.92745608327911522</v>
       </c>
       <c r="R20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.76337552742616033</v>
       </c>
       <c r="S20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-4.2082738944365206E-2</v>
       </c>
       <c r="T20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0685033507073713</v>
       </c>
       <c r="U20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.42908567314614832</v>
       </c>
       <c r="V20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.14508816120906798</v>
       </c>
       <c r="W20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.44060712714474271</v>
       </c>
       <c r="X20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.27042296533821952</v>
       </c>
       <c r="Y20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.24319799079112603</v>
       </c>
       <c r="Z20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.17975663716814161</v>
       </c>
       <c r="AA20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.84659474039109917</v>
       </c>
       <c r="AB20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.26748219828373199</v>
       </c>
       <c r="AC20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.17273180458624127</v>
       </c>
       <c r="AD20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.24917143717987345</v>
       </c>
       <c r="AE20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.25373854317414368</v>
       </c>
       <c r="AF20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.6363986148518554E-2</v>
       </c>
       <c r="AG20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.6708953851810886E-2</v>
       </c>
       <c r="AH20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.18390611902766141</v>
       </c>
       <c r="AI20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.9546870574907853E-2</v>
       </c>
       <c r="AJ20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.10521571152607856</v>
       </c>
       <c r="AK20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.6125503742084009E-2</v>
       </c>
       <c r="AL20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.39699958327545493</v>
       </c>
       <c r="AM20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.11613801332405282</v>
       </c>
+      <c r="AN20" s="16">
+        <f t="shared" si="4"/>
+        <v>-0.18761692650334072</v>
+      </c>
+      <c r="AO20" s="16">
+        <f t="shared" si="4"/>
+        <v>0.11086741967320979</v>
+      </c>
+      <c r="AP20" s="16">
+        <f t="shared" si="4"/>
+        <v>0.13129318854886485</v>
+      </c>
+      <c r="AQ20" s="16">
+        <f t="shared" si="4"/>
+        <v>0.21954624781849907</v>
+      </c>
+      <c r="AR20" s="16">
+        <f t="shared" si="4"/>
+        <v>8.7435603892386915E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -5983,8 +6086,34 @@
       <c r="AM21" s="2">
         <v>0.5605</v>
       </c>
+      <c r="AN21" s="37">
+        <f>AN19/AN3</f>
+        <v>0.50929907846970124</v>
+      </c>
+      <c r="AO21" s="37">
+        <f t="shared" ref="AO21:AR21" si="5">AO19/AO3</f>
+        <v>0.5278515971028086</v>
+      </c>
+      <c r="AP21" s="37">
+        <f t="shared" si="5"/>
+        <v>0.55407822849683319</v>
+      </c>
+      <c r="AQ21" s="37">
+        <f t="shared" si="5"/>
+        <v>0.59627117197832669</v>
+      </c>
+      <c r="AR21" s="37">
+        <f t="shared" si="5"/>
+        <v>0.58989287377736377</v>
+      </c>
+      <c r="AU21" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="AV21" s="19" t="s">
+        <v>162</v>
+      </c>
     </row>
-    <row r="22" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -6102,8 +6231,16 @@
       <c r="AM22" s="10">
         <v>10397000000</v>
       </c>
+      <c r="AU22" s="34">
+        <f>(-1*AM98)/AU101</f>
+        <v>2.725493864943121E-2</v>
+      </c>
+      <c r="AV22" s="35">
+        <f>AM107/AU101</f>
+        <v>3.7568303844677929E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -6222,7 +6359,7 @@
         <v>0.51910000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -6341,7 +6478,7 @@
         <v>-365000000</v>
       </c>
     </row>
-    <row r="25" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -6460,7 +6597,7 @@
         <v>10032000000</v>
       </c>
     </row>
-    <row r="26" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -6579,7 +6716,7 @@
         <v>0.50090000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -6698,7 +6835,7 @@
         <v>1283000000</v>
       </c>
     </row>
-    <row r="28" spans="1:45" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:48" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -6816,10 +6953,25 @@
       <c r="AM28" s="11">
         <v>8749000000</v>
       </c>
+      <c r="AN28" s="38">
+        <v>6840000000</v>
+      </c>
+      <c r="AO28" s="38">
+        <v>7397000000</v>
+      </c>
+      <c r="AP28" s="38">
+        <v>8059000000</v>
+      </c>
+      <c r="AQ28" s="38">
+        <v>9597000000</v>
+      </c>
+      <c r="AR28" s="38">
+        <v>10629000000</v>
+      </c>
     </row>
-    <row r="29" spans="1:45" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -6835,143 +6987,163 @@
         <v>0.4258466329311017</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:AM29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:AR29" si="6">(F28/E28)-1</f>
         <v>-0.20365820365820364</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1.1336990058279053</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9.4871794871794872</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1.6039119804400976</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.91093117408906887</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.46398305084745761</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.5745296671490594</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.94209558823529416</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>27.650793650793652</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.77451523545706369</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.4545454545454546</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.1749644381223328</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1.0657292347939831</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.71144278606965172</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-4.4825581395348841</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.55342237061769617</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.24879097259537875</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.86790017211703963</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.38792904860631194</v>
       </c>
       <c r="Y29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.27738050432818973</v>
       </c>
       <c r="Z29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.234375</v>
       </c>
       <c r="AA29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.1959183673469389</v>
       </c>
       <c r="AB29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.30731102850061953</v>
       </c>
       <c r="AC29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.21332737030411453</v>
       </c>
       <c r="AD29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.22910744741330302</v>
       </c>
       <c r="AE29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.30481036077705825</v>
       </c>
       <c r="AF29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.8489897199574648E-2</v>
       </c>
       <c r="AG29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.20395177494976546</v>
       </c>
       <c r="AH29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.4200278164116851E-2</v>
       </c>
       <c r="AI29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.51548071700162956</v>
       </c>
       <c r="AJ29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.10089605734767026</v>
       </c>
       <c r="AK29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.11520829180785319</v>
       </c>
       <c r="AL29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.38856121537086685</v>
       </c>
       <c r="AM29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.12614236066417805</v>
       </c>
+      <c r="AN29" s="16">
+        <f t="shared" si="6"/>
+        <v>-0.2181963652988913</v>
+      </c>
+      <c r="AO29" s="16">
+        <f t="shared" si="6"/>
+        <v>8.1432748538011746E-2</v>
+      </c>
+      <c r="AP29" s="16">
+        <f t="shared" si="6"/>
+        <v>8.9495741516831151E-2</v>
+      </c>
+      <c r="AQ29" s="16">
+        <f t="shared" si="6"/>
+        <v>0.19084253629482562</v>
+      </c>
+      <c r="AR29" s="16">
+        <f t="shared" si="6"/>
+        <v>0.10753360425132863</v>
+      </c>
     </row>
-    <row r="30" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -7089,8 +7261,28 @@
       <c r="AM30" s="2">
         <v>0.43680000000000002</v>
       </c>
+      <c r="AN30" s="39">
+        <f>AN28/AN3</f>
+        <v>0.38201619659313041</v>
+      </c>
+      <c r="AO30" s="39">
+        <f t="shared" ref="AO30:AR30" si="7">AO28/AO3</f>
+        <v>0.38544109217862538</v>
+      </c>
+      <c r="AP30" s="39">
+        <f t="shared" si="7"/>
+        <v>0.38964366871343614</v>
+      </c>
+      <c r="AQ30" s="39">
+        <f t="shared" si="7"/>
+        <v>0.40944579546908999</v>
+      </c>
+      <c r="AR30" s="39">
+        <f t="shared" si="7"/>
+        <v>0.41255239869585469</v>
+      </c>
     </row>
-    <row r="31" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -7208,8 +7400,23 @@
       <c r="AM31" s="12">
         <v>9.48</v>
       </c>
+      <c r="AN31" s="40">
+        <v>7.54</v>
+      </c>
+      <c r="AO31" s="40">
+        <v>8.15</v>
+      </c>
+      <c r="AP31" s="40">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="AQ31" s="40">
+        <v>10.57</v>
+      </c>
+      <c r="AR31" s="40">
+        <v>11.71</v>
+      </c>
     </row>
-    <row r="32" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -7568,7 +7775,7 @@
     </row>
     <row r="35" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -7576,147 +7783,147 @@
         <v>-0.20247121566975568</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:AM35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:AM35" si="8">(D34-C34)/C34</f>
         <v>0.34377316466768548</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.5578753249761533E-2</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.0695225362864231E-2</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-6.1264821874658253E-2</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.2352940800000002E-2</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>7.3363434789476632E-3</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.14110171428571427</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.0436724141614855E-2</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1960971115694261E-2</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-7.6452362109009275E-3</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.6193522114206782E-2</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.6282655042556306E-3</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.8701299065421678E-2</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.8403583775999588E-2</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-6.3358404412398553E-2</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.6865671641791045E-2</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.4281805813953488E-2</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.5392319864080645E-3</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-5.4864253393665158E-2</v>
       </c>
       <c r="W35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-6.6427289048473961E-2</v>
       </c>
       <c r="X35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-7.3076923076923081E-2</v>
       </c>
       <c r="Y35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-8.4370677731673588E-2</v>
       </c>
       <c r="Z35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-4.1540785498489427E-2</v>
       </c>
       <c r="AA35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-4.4129235618597322E-2</v>
       </c>
       <c r="AB35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-3.4624896949711458E-2</v>
       </c>
       <c r="AC35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-2.1349274124679761E-2</v>
       </c>
       <c r="AD35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-2.8795811518324606E-2</v>
       </c>
       <c r="AE35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-2.9649595687331536E-2</v>
       </c>
       <c r="AF35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-3.425925925925926E-2</v>
       </c>
       <c r="AG35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-2.109300095877277E-2</v>
       </c>
       <c r="AH35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-8.8148873653281102E-3</v>
       </c>
       <c r="AI35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-2.1739130434782608E-2</v>
       </c>
       <c r="AJ35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-3.8383838383838381E-2</v>
       </c>
       <c r="AK35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-1.9957983193277309E-2</v>
       </c>
       <c r="AL35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.2154340836012861E-3</v>
       </c>
       <c r="AM35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -7725,118 +7932,118 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AM36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:39" ht="21" x14ac:dyDescent="0.25">
@@ -7844,118 +8051,118 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -7963,31 +8170,31 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K38" s="1">
         <v>760000000</v>
@@ -8082,31 +8289,31 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K39" s="1">
         <v>530000000</v>
@@ -8201,31 +8408,31 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K40" s="1">
         <v>1290000000</v>
@@ -8320,31 +8527,31 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K41" s="1">
         <v>1442000000</v>
@@ -8439,31 +8646,31 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K42" s="1">
         <v>882000000</v>
@@ -8558,31 +8765,31 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K43" s="1">
         <v>403000000</v>
@@ -8677,31 +8884,31 @@
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K44" s="10">
         <v>4017000000</v>
@@ -8796,31 +9003,31 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K45" s="1">
         <v>2568000000</v>
@@ -8915,67 +9122,67 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P46" s="1">
         <v>503000000</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R46" s="1">
         <v>748000000</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W46" s="1">
         <v>792000000</v>
@@ -9034,55 +9241,55 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q47" s="1">
         <v>961000000</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S47" s="1">
         <v>823000000</v>
@@ -9153,46 +9360,46 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P48" s="1">
         <v>503000000</v>
@@ -9272,73 +9479,73 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y49" s="1">
         <v>653000000</v>
@@ -9380,10 +9587,10 @@
         <v>49000000</v>
       </c>
       <c r="AL49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -9391,31 +9598,31 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1">
         <v>243000000</v>
@@ -9510,31 +9717,31 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K51" s="1">
         <v>161000000</v>
@@ -9629,31 +9836,31 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K52" s="1">
         <v>2972000000</v>
@@ -9748,118 +9955,118 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:39" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -9867,31 +10074,31 @@
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K54" s="11">
         <v>6989000000</v>
@@ -9986,31 +10193,31 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K55" s="1">
         <v>1877000000</v>
@@ -10105,31 +10312,31 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K56" s="1">
         <v>12000000</v>
@@ -10171,16 +10378,16 @@
         <v>43000000</v>
       </c>
       <c r="X56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB56" s="1">
         <v>1381000000</v>
@@ -10224,73 +10431,73 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y57" s="1">
         <v>40000000</v>
@@ -10343,118 +10550,118 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -10462,31 +10669,31 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K59" s="1">
         <v>310000000</v>
@@ -10581,31 +10788,31 @@
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K60" s="10">
         <v>2199000000</v>
@@ -10700,31 +10907,31 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K61" s="1">
         <v>808000000</v>
@@ -10763,19 +10970,19 @@
         <v>360000000</v>
       </c>
       <c r="W61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB61" s="1">
         <v>4211000000</v>
@@ -10819,118 +11026,118 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y62" s="1">
         <v>366000000</v>
       </c>
       <c r="Z62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA62" s="1">
         <v>378000000</v>
       </c>
       <c r="AB62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -10938,43 +11145,43 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O63" s="1">
         <v>381000000</v>
@@ -11057,31 +11264,31 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K64" s="1">
         <v>943000000</v>
@@ -11176,31 +11383,31 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K65" s="1">
         <v>1751000000</v>
@@ -11295,118 +11502,118 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -11414,31 +11621,31 @@
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K67" s="10">
         <v>3950000000</v>
@@ -11533,31 +11740,31 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K68" s="1">
         <v>93000000</v>
@@ -11652,31 +11859,31 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K69" s="1">
         <v>1912000000</v>
@@ -11771,31 +11978,31 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K70" s="1">
         <v>-2327000000</v>
@@ -11890,31 +12097,31 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K71" s="1">
         <v>3361000000</v>
@@ -12009,31 +12216,31 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K72" s="10">
         <v>3039000000</v>
@@ -12128,31 +12335,31 @@
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K73" s="11">
         <v>6989000000</v>
@@ -12247,118 +12454,118 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AM74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:39" ht="21" x14ac:dyDescent="0.25">
@@ -12366,118 +12573,118 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -12485,16 +12692,16 @@
         <v>66</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F76" s="1">
         <v>291700000</v>
@@ -12563,7 +12770,7 @@
         <v>3228000000</v>
       </c>
       <c r="AB76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC76" s="1">
         <v>1759000000</v>
@@ -12604,16 +12811,16 @@
         <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F77" s="1">
         <v>453700000</v>
@@ -12723,25 +12930,25 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I78" s="1">
         <v>-93000000</v>
@@ -12842,73 +13049,73 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y79" s="1">
         <v>213000000</v>
@@ -12958,158 +13165,158 @@
     </row>
     <row r="80" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:AM80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:AM80" si="9">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="K80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="L80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="M80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="N80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="O80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="P80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="R80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="S80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="T80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="U80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="V80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="W80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="X80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.7038636909047278E-2</v>
       </c>
       <c r="Z80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.7838304402033184E-2</v>
       </c>
       <c r="AA80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.3604467993698983E-2</v>
       </c>
       <c r="AB80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.9585001820167456E-2</v>
       </c>
       <c r="AC80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.0506822612085768E-2</v>
       </c>
       <c r="AD80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.3514952888160589E-2</v>
       </c>
       <c r="AE80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.1234189344576465E-2</v>
       </c>
       <c r="AF80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="AG80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.8848167539267015E-2</v>
       </c>
       <c r="AH80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.6175389345631976E-2</v>
       </c>
       <c r="AI80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.4698428788646731E-2</v>
       </c>
       <c r="AJ80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.5087255788083153E-2</v>
       </c>
       <c r="AK80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.5489938455155245E-2</v>
       </c>
       <c r="AL80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.2538159616223288E-2</v>
       </c>
       <c r="AM80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.4429798282404633E-2</v>
       </c>
     </row>
@@ -13118,16 +13325,16 @@
         <v>69</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F81" s="1">
         <v>64500000</v>
@@ -13237,73 +13444,73 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y82" s="1">
         <v>865000000</v>
@@ -13356,16 +13563,16 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="1">
         <v>-36700000</v>
@@ -13469,95 +13676,95 @@
       <c r="AM83" s="1">
         <v>-847000000</v>
       </c>
-      <c r="AT83" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="AU83" s="63"/>
+      <c r="AT83" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU83" s="69"/>
     </row>
     <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC84" s="1">
         <v>99000000</v>
@@ -13592,71 +13799,71 @@
       <c r="AM84" s="1">
         <v>106000000</v>
       </c>
-      <c r="AT84" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU84" s="65"/>
+      <c r="AT84" s="70" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU84" s="70"/>
     </row>
     <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U85" s="1">
         <v>-248000000</v>
@@ -13665,16 +13872,16 @@
         <v>-7000000</v>
       </c>
       <c r="W85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y85" s="1">
         <v>-41000000</v>
       </c>
       <c r="Z85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA85" s="1">
         <v>12000000</v>
@@ -13715,10 +13922,10 @@
       <c r="AM85" s="1">
         <v>22000000</v>
       </c>
-      <c r="AT85" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AU85" s="24">
+      <c r="AT85" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU85" s="42">
         <f>AM17</f>
         <v>214000000</v>
       </c>
@@ -13728,16 +13935,16 @@
         <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F86" s="1">
         <v>-11400000</v>
@@ -13841,10 +14048,10 @@
       <c r="AM86" s="1">
         <v>-293000000</v>
       </c>
-      <c r="AT86" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU86" s="24">
+      <c r="AT86" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU86" s="42">
         <f>AM56</f>
         <v>500000000</v>
       </c>
@@ -13854,16 +14061,16 @@
         <v>73</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F87" s="10">
         <v>798500000</v>
@@ -13967,10 +14174,10 @@
       <c r="AM87" s="10">
         <v>8720000000</v>
       </c>
-      <c r="AT87" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU87" s="24">
+      <c r="AT87" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="AU87" s="42">
         <f>AM61</f>
         <v>8579000000</v>
       </c>
@@ -13980,16 +14187,16 @@
         <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F88" s="1">
         <v>-862500000</v>
@@ -14064,203 +14271,203 @@
         <v>-495000000</v>
       </c>
       <c r="AD88" s="1">
-        <v>0</v>
+        <v>-345000000</v>
       </c>
       <c r="AE88" s="1">
-        <v>0</v>
+        <v>-236000000</v>
       </c>
       <c r="AF88" s="1">
-        <v>0</v>
+        <v>-427000000</v>
       </c>
       <c r="AG88" s="1">
-        <v>0</v>
+        <v>-537000000</v>
       </c>
       <c r="AH88" s="1">
-        <v>0</v>
+        <v>-667000000</v>
       </c>
       <c r="AI88" s="1">
-        <v>0</v>
+        <v>-1145000000</v>
       </c>
       <c r="AJ88" s="1">
-        <v>0</v>
+        <v>-785000000</v>
       </c>
       <c r="AK88" s="1">
-        <v>0</v>
+        <v>-681000000</v>
       </c>
       <c r="AL88" s="1">
-        <v>0</v>
+        <v>-2449000000</v>
       </c>
       <c r="AM88" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT88" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="AU88" s="34">
+        <v>-2757000000</v>
+      </c>
+      <c r="AT88" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU88" s="44">
         <f>AU85/(AU86+AU87)</f>
         <v>2.357087784998348E-2</v>
       </c>
     </row>
     <row r="89" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15" t="e">
+        <f t="shared" ref="B89:AM89" si="10">(-1*B88)/B3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C89" s="15" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D89" s="15" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E89" s="15" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="10"/>
+        <v>0.13224673791379812</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="10"/>
+        <v>0.13841936957514847</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="10"/>
+        <v>7.4292452830188677E-2</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="10"/>
+        <v>5.7661290322580647E-2</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="10"/>
+        <v>8.5650592514372875E-2</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="10"/>
+        <v>0.10431410567135239</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="10"/>
+        <v>0.10961304082876296</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="10"/>
+        <v>0.20754527162977868</v>
+      </c>
+      <c r="N89" s="15">
+        <f t="shared" si="10"/>
+        <v>0.12697435897435896</v>
+      </c>
+      <c r="O89" s="15">
+        <f t="shared" si="10"/>
+        <v>0.1218676122931442</v>
+      </c>
+      <c r="P89" s="15">
+        <f t="shared" si="10"/>
+        <v>0.14501478664976764</v>
+      </c>
+      <c r="Q89" s="15">
+        <f t="shared" si="10"/>
+        <v>0.23258947368421051</v>
+      </c>
+      <c r="R89" s="15">
+        <f t="shared" si="10"/>
+        <v>0.21826606511401048</v>
+      </c>
+      <c r="S89" s="15">
+        <f t="shared" si="10"/>
+        <v>9.5669807944649882E-2</v>
+      </c>
+      <c r="T89" s="15">
+        <f t="shared" si="10"/>
+        <v>8.1350416920886723E-2</v>
+      </c>
+      <c r="U89" s="15">
+        <f t="shared" si="10"/>
+        <v>0.10317965023847377</v>
+      </c>
+      <c r="V89" s="15">
+        <f t="shared" si="10"/>
+        <v>9.9313022700119477E-2</v>
+      </c>
+      <c r="W89" s="15">
+        <f t="shared" si="10"/>
+        <v>8.9231848474219569E-2</v>
+      </c>
+      <c r="X89" s="15">
+        <f t="shared" si="10"/>
+        <v>4.9584387423202023E-2</v>
+      </c>
+      <c r="Y89" s="15">
+        <f t="shared" si="10"/>
+        <v>6.1035117190624752E-2</v>
+      </c>
+      <c r="Z89" s="15">
+        <f t="shared" si="10"/>
+        <v>7.2216361369521434E-2</v>
+      </c>
+      <c r="AA89" s="15">
+        <f t="shared" si="10"/>
+        <v>8.5851353286553064E-2</v>
+      </c>
+      <c r="AB89" s="15">
+        <f t="shared" si="10"/>
+        <v>5.9410265744448493E-2</v>
+      </c>
+      <c r="AC89" s="15">
+        <f t="shared" si="10"/>
+        <v>3.8596491228070177E-2</v>
+      </c>
+      <c r="AD89" s="15">
+        <f t="shared" si="10"/>
+        <v>2.8267103646046701E-2</v>
+      </c>
+      <c r="AE89" s="15">
+        <f t="shared" si="10"/>
+        <v>1.8091222690686085E-2</v>
+      </c>
+      <c r="AF89" s="15">
+        <f t="shared" si="10"/>
+        <v>3.2846153846153844E-2</v>
+      </c>
+      <c r="AG89" s="15">
+        <f t="shared" si="10"/>
+        <v>4.0164547494390426E-2</v>
+      </c>
+      <c r="AH89" s="15">
+        <f t="shared" si="10"/>
+        <v>4.4582581378250115E-2</v>
+      </c>
+      <c r="AI89" s="15">
+        <f t="shared" si="10"/>
+        <v>7.2541814495691845E-2</v>
+      </c>
+      <c r="AJ89" s="15">
+        <f t="shared" si="10"/>
+        <v>5.4578321629701734E-2</v>
+      </c>
+      <c r="AK89" s="15">
+        <f t="shared" si="10"/>
+        <v>4.7092178964110366E-2</v>
+      </c>
+      <c r="AL89" s="15">
+        <f t="shared" si="10"/>
+        <v>0.13350414304404709</v>
+      </c>
+      <c r="AM89" s="15">
+        <f t="shared" si="10"/>
+        <v>0.13765727980826842</v>
+      </c>
+      <c r="AT89" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:AM89" si="7">(-1*B88)/B3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C89" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D89" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E89" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.13224673791379812</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.13841936957514847</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" si="7"/>
-        <v>7.4292452830188677E-2</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.7661290322580647E-2</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="7"/>
-        <v>8.5650592514372875E-2</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.10431410567135239</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.10961304082876296</v>
-      </c>
-      <c r="M89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.20754527162977868</v>
-      </c>
-      <c r="N89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.12697435897435896</v>
-      </c>
-      <c r="O89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.1218676122931442</v>
-      </c>
-      <c r="P89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.14501478664976764</v>
-      </c>
-      <c r="Q89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.23258947368421051</v>
-      </c>
-      <c r="R89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.21826606511401048</v>
-      </c>
-      <c r="S89" s="15">
-        <f t="shared" si="7"/>
-        <v>9.5669807944649882E-2</v>
-      </c>
-      <c r="T89" s="15">
-        <f t="shared" si="7"/>
-        <v>8.1350416920886723E-2</v>
-      </c>
-      <c r="U89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.10317965023847377</v>
-      </c>
-      <c r="V89" s="15">
-        <f t="shared" si="7"/>
-        <v>9.9313022700119477E-2</v>
-      </c>
-      <c r="W89" s="15">
-        <f t="shared" si="7"/>
-        <v>8.9231848474219569E-2</v>
-      </c>
-      <c r="X89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.9584387423202023E-2</v>
-      </c>
-      <c r="Y89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.1035117190624752E-2</v>
-      </c>
-      <c r="Z89" s="15">
-        <f t="shared" si="7"/>
-        <v>7.2216361369521434E-2</v>
-      </c>
-      <c r="AA89" s="15">
-        <f t="shared" si="7"/>
-        <v>8.5851353286553064E-2</v>
-      </c>
-      <c r="AB89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.9410265744448493E-2</v>
-      </c>
-      <c r="AC89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.8596491228070177E-2</v>
-      </c>
-      <c r="AD89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AF89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AG89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AI89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AJ89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AK89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AL89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AM89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT89" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="AU89" s="24">
+      <c r="AU89" s="42">
         <f>AM27</f>
         <v>1283000000</v>
       </c>
@@ -14270,43 +14477,43 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M90" s="1">
         <v>-313000000</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O90" s="1">
         <v>-152000000</v>
@@ -14318,7 +14525,7 @@
         <v>-3000000</v>
       </c>
       <c r="R90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S90" s="1">
         <v>-69000000</v>
@@ -14351,42 +14558,42 @@
         <v>-5425000000</v>
       </c>
       <c r="AC90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT90" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT90" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="AU90" s="24">
+      <c r="AU90" s="42">
         <f>AM25</f>
         <v>10032000000</v>
       </c>
@@ -14396,16 +14603,16 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F91" s="1">
         <v>-44800000</v>
@@ -14420,7 +14627,7 @@
         <v>-354000000</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K91" s="1">
         <v>-779000000</v>
@@ -14509,10 +14716,10 @@
       <c r="AM91" s="1">
         <v>-14483000000</v>
       </c>
-      <c r="AT91" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="AU91" s="34">
+      <c r="AT91" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU91" s="44">
         <f>AU89/AU90</f>
         <v>0.12789074960127592</v>
       </c>
@@ -14522,16 +14729,16 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1">
         <v>75500000</v>
@@ -14543,7 +14750,7 @@
         <v>122000000</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J92" s="1">
         <v>19000000</v>
@@ -14635,10 +14842,10 @@
       <c r="AM92" s="1">
         <v>13657000000</v>
       </c>
-      <c r="AT92" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="AU92" s="36">
+      <c r="AT92" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU92" s="44">
         <f>AU88*(1-AU91)</f>
         <v>2.0556380612988982E-2</v>
       </c>
@@ -14648,37 +14855,37 @@
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I93" s="1">
         <v>48000000</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M93" s="1">
         <v>70000000</v>
@@ -14690,22 +14897,22 @@
         <v>-580000000</v>
       </c>
       <c r="P93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q93" s="1">
         <v>107000000</v>
       </c>
       <c r="R93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T93" s="1">
         <v>-22000000</v>
       </c>
       <c r="U93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V93" s="1">
         <v>47000000</v>
@@ -14717,10 +14924,10 @@
         <v>61000000</v>
       </c>
       <c r="Y93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA93" s="1">
         <v>148000000</v>
@@ -14729,7 +14936,7 @@
         <v>16000000</v>
       </c>
       <c r="AC93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD93" s="1">
         <v>-345000000</v>
@@ -14761,26 +14968,26 @@
       <c r="AM93" s="1">
         <v>-2757000000</v>
       </c>
-      <c r="AT93" s="64" t="s">
-        <v>134</v>
-      </c>
-      <c r="AU93" s="65"/>
+      <c r="AT93" s="70" t="s">
+        <v>133</v>
+      </c>
+      <c r="AU93" s="70"/>
     </row>
     <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F94" s="10">
         <v>-831800000</v>
@@ -14884,11 +15091,12 @@
       <c r="AM94" s="10">
         <v>-3583000000</v>
       </c>
-      <c r="AT94" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AU94" s="37">
-        <v>4.095E-2</v>
+      <c r="AT94" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU94" s="65">
+        <f>[1]Treasuries!$C$8</f>
+        <v>4.0480000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -14896,82 +15104,82 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB95" s="1">
         <v>-200000000</v>
@@ -15009,12 +15217,12 @@
       <c r="AM95" s="1">
         <v>-500000000</v>
       </c>
-      <c r="AT95" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="AU95" s="39" cm="1">
+      <c r="AT95" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU95" s="47" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>1.0016</v>
+        <v>1.0117</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15022,16 +15230,16 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F96" s="1">
         <v>46800000</v>
@@ -15135,10 +15343,10 @@
       <c r="AM96" s="1">
         <v>241000000</v>
       </c>
-      <c r="AT96" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="AU96" s="37">
+      <c r="AT96" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="AU96" s="45">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -15147,22 +15355,22 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H97" s="1">
         <v>-225000000</v>
@@ -15174,13 +15382,13 @@
         <v>-150000000</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N97" s="1">
         <v>-86000000</v>
@@ -15260,12 +15468,12 @@
       <c r="AM97" s="1">
         <v>-3615000000</v>
       </c>
-      <c r="AT97" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="AU97" s="36">
+      <c r="AT97" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU97" s="44">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>8.4068880000000012E-2</v>
+        <v>8.4509184000000015E-2</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15273,16 +15481,16 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1">
         <v>-97300000</v>
@@ -15386,26 +15594,26 @@
       <c r="AM98" s="1">
         <v>-4297000000</v>
       </c>
-      <c r="AT98" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="AU98" s="65"/>
+      <c r="AT98" s="70" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU98" s="70"/>
     </row>
     <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F99" s="1">
         <v>-32300000</v>
@@ -15509,10 +15717,10 @@
       <c r="AM99" s="1">
         <v>1453000000</v>
       </c>
-      <c r="AT99" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="AU99" s="24">
+      <c r="AT99" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU99" s="42">
         <f>AU86+AU87</f>
         <v>9079000000</v>
       </c>
@@ -15522,16 +15730,16 @@
         <v>85</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F100" s="10">
         <v>-82800000</v>
@@ -15635,12 +15843,12 @@
       <c r="AM100" s="10">
         <v>-6718000000</v>
       </c>
-      <c r="AT100" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="AU100" s="34">
+      <c r="AT100" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="AU100" s="44">
         <f>AU99/AU103</f>
-        <v>5.4769549824940443E-2</v>
+        <v>5.4450531820785242E-2</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15648,16 +15856,16 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" s="1">
         <v>-7000000</v>
@@ -15717,56 +15925,56 @@
         <v>1000000</v>
       </c>
       <c r="Y101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM101" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT101" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="AU101" s="40" cm="1">
+        <v>91</v>
+      </c>
+      <c r="AT101" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="AU101" s="48" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>156688292757</v>
+        <v>157659500000</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15774,16 +15982,16 @@
         <v>87</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F102" s="10">
         <v>-82800000</v>
@@ -15887,12 +16095,12 @@
       <c r="AM102" s="10">
         <v>-1581000000</v>
       </c>
-      <c r="AT102" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="AU102" s="34">
+      <c r="AT102" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU102" s="44">
         <f>AU101/AU103</f>
-        <v>0.94523045017505958</v>
+        <v>0.94554946817921481</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15900,16 +16108,16 @@
         <v>88</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F103" s="1">
         <v>541300000</v>
@@ -16013,12 +16221,12 @@
       <c r="AM103" s="1">
         <v>4631000000</v>
       </c>
-      <c r="AT103" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="AU103" s="41">
+      <c r="AT103" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU103" s="49">
         <f>AU99+AU101</f>
-        <v>165767292757</v>
+        <v>166738500000</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16026,28 +16234,28 @@
         <v>89</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J104" s="11">
         <v>404000000</v>
@@ -16139,502 +16347,626 @@
       <c r="AM104" s="11">
         <v>3050000000</v>
       </c>
-      <c r="AT104" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="AU104" s="65"/>
+      <c r="AT104" s="70" t="s">
+        <v>144</v>
+      </c>
+      <c r="AU104" s="70"/>
     </row>
     <row r="105" spans="1:47" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C105" s="1" t="e">
+        <f t="shared" ref="C105:AL105" si="11">(C22*(1-$AU$91))+C77+C88+C81</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D105" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E105" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="11"/>
+        <v>-65748305.422647476</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="11"/>
+        <v>-285674840.5103668</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="11"/>
+        <v>108844796.65071774</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="11"/>
+        <v>574285885.16746414</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="11"/>
+        <v>6515091606.8580542</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="11"/>
+        <v>7740312599.6810207</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="11"/>
+        <v>551142145.13556623</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="11"/>
+        <v>-1288674840.5103669</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="11"/>
+        <v>388347188.99521542</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="11"/>
+        <v>421971590.909091</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="11"/>
+        <v>897097288.67623615</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="11"/>
+        <v>-1802136463.3173842</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="11"/>
+        <v>-228567583.73205757</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="11"/>
+        <v>1018167464.1148326</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="11"/>
+        <v>1256585426.6347685</v>
+      </c>
+      <c r="U105" s="1">
+        <f t="shared" si="11"/>
+        <v>1774745115.6299839</v>
+      </c>
+      <c r="V105" s="1">
+        <f t="shared" si="11"/>
+        <v>2596056917.8628392</v>
+      </c>
+      <c r="W105" s="1">
+        <f t="shared" si="11"/>
+        <v>1633391846.092504</v>
+      </c>
+      <c r="X105" s="1">
+        <f t="shared" si="11"/>
+        <v>3795766048.6443381</v>
+      </c>
+      <c r="Y105" s="1">
+        <f t="shared" si="11"/>
+        <v>2735330243.2216907</v>
+      </c>
+      <c r="Z105" s="1">
+        <f t="shared" si="11"/>
+        <v>1796369517.5438595</v>
+      </c>
+      <c r="AA105" s="1">
+        <f t="shared" si="11"/>
+        <v>3459701156.2998409</v>
+      </c>
+      <c r="AB105" s="1">
+        <f t="shared" si="11"/>
+        <v>2714350877.1929827</v>
+      </c>
+      <c r="AC105" s="1">
+        <f t="shared" si="11"/>
+        <v>2855671551.0366826</v>
+      </c>
+      <c r="AD105" s="1">
+        <f t="shared" si="11"/>
+        <v>3139813397.1291866</v>
+      </c>
+      <c r="AE105" s="1">
+        <f t="shared" si="11"/>
+        <v>4213215211.3237638</v>
+      </c>
+      <c r="AF105" s="1">
+        <f t="shared" si="11"/>
+        <v>4527394936.2041473</v>
+      </c>
+      <c r="AG105" s="1">
+        <f t="shared" si="11"/>
+        <v>4756252292.6634769</v>
+      </c>
+      <c r="AH105" s="1">
+        <f t="shared" si="11"/>
+        <v>5960040570.1754389</v>
+      </c>
+      <c r="AI105" s="1">
+        <f t="shared" si="11"/>
+        <v>6265469397.9266348</v>
+      </c>
+      <c r="AJ105" s="1">
+        <f t="shared" si="11"/>
+        <v>5569081240.0318985</v>
+      </c>
+      <c r="AK105" s="1">
+        <f t="shared" si="11"/>
+        <v>5023211921.8500795</v>
+      </c>
+      <c r="AL105" s="1">
+        <f t="shared" si="11"/>
+        <v>6154098883.572567</v>
+      </c>
+      <c r="AM105" s="1">
+        <f>(AM22*(1-$AU$91))+AM77+AM88+AM81</f>
+        <v>6476319876.3955345</v>
+      </c>
+      <c r="AN105" s="29">
+        <f>AM105*(1+$AU$106)</f>
+        <v>6833825519.9313917</v>
+      </c>
+      <c r="AO105" s="29">
+        <f t="shared" ref="AO105:AR105" si="12">AN105*(1+$AU$106)</f>
+        <v>7211066180.8226805</v>
+      </c>
+      <c r="AP105" s="29">
+        <f t="shared" si="12"/>
+        <v>7609131270.9907532</v>
+      </c>
+      <c r="AQ105" s="29">
+        <f t="shared" si="12"/>
+        <v>8029170340.0458755</v>
+      </c>
+      <c r="AR105" s="29">
+        <f t="shared" si="12"/>
+        <v>8472396395.0063839</v>
+      </c>
+      <c r="AS105" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT105" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15" t="e">
-        <f>(C106/B106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D105" s="15" t="e">
-        <f>(D106/C106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E105" s="15" t="e">
-        <f>(E106/D106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F105" s="15" t="e">
-        <f>(F106/E106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>2.359375</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:AM105" si="8">(H106/G106)-1</f>
-        <v>-0.59534883720930232</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="8"/>
-        <v>-5.2758620689655169</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.45161290322580649</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="8"/>
-        <v>1.2352941176470589</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.5</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" si="8"/>
-        <v>-6.1710526315789478</v>
-      </c>
-      <c r="N105" s="15">
-        <f t="shared" si="8"/>
-        <v>-1.5750636132315523</v>
-      </c>
-      <c r="O105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.67551622418879054</v>
-      </c>
-      <c r="P105" s="15">
-        <f t="shared" si="8"/>
-        <v>1.9818181818181819</v>
-      </c>
-      <c r="Q105" s="15">
-        <f t="shared" si="8"/>
-        <v>-1.8795731707317072</v>
-      </c>
-      <c r="R105" s="15">
-        <f t="shared" si="8"/>
-        <v>-1.050259965337955</v>
-      </c>
-      <c r="S105" s="15">
-        <f t="shared" si="8"/>
-        <v>40.03448275862069</v>
-      </c>
-      <c r="T105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.13529411764705879</v>
-      </c>
-      <c r="U105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.36787564766839376</v>
-      </c>
-      <c r="V105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.3214285714285714</v>
-      </c>
-      <c r="W105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.51351351351351349</v>
-      </c>
-      <c r="X105" s="15">
-        <f t="shared" si="8"/>
-        <v>2.1313131313131315</v>
-      </c>
-      <c r="Y105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.30994623655913978</v>
-      </c>
-      <c r="Z105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.26373198285936894</v>
-      </c>
-      <c r="AA105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.38677248677248688</v>
-      </c>
-      <c r="AB105" s="15">
-        <f t="shared" si="8"/>
-        <v>-6.9057611598626445E-2</v>
-      </c>
-      <c r="AC105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.19631147540983607</v>
-      </c>
-      <c r="AD105" s="15">
-        <f t="shared" si="8"/>
-        <v>1.8156903048989426E-2</v>
-      </c>
-      <c r="AE105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.18001345895020182</v>
-      </c>
-      <c r="AF105" s="15">
-        <f t="shared" si="8"/>
-        <v>5.9880239520958112E-2</v>
-      </c>
-      <c r="AG105" s="15">
-        <f t="shared" si="8"/>
-        <v>9.846650524616618E-2</v>
-      </c>
-      <c r="AH105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.14327700220426154</v>
-      </c>
-      <c r="AI105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.29777206512425014</v>
-      </c>
-      <c r="AJ105" s="15">
-        <f t="shared" si="8"/>
-        <v>-4.2258171013535795E-2</v>
-      </c>
-      <c r="AK105" s="15">
-        <f t="shared" si="8"/>
-        <v>-5.3774560496380519E-2</v>
-      </c>
-      <c r="AL105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.14644808743169402</v>
-      </c>
-      <c r="AM105" s="15">
-        <f t="shared" si="8"/>
-        <v>-5.8945027009850604E-2</v>
-      </c>
-      <c r="AN105" s="15"/>
-      <c r="AO105" s="15"/>
-      <c r="AP105" s="15"/>
-      <c r="AQ105" s="15"/>
-      <c r="AR105" s="15"/>
-      <c r="AS105" s="15"/>
-      <c r="AT105" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AU105" s="26">
+      <c r="AU105" s="51">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>8.059032900031661E-2</v>
+        <v>8.1026919844147158E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F106" s="1">
-        <v>-64000000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>-215000000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>-87000000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>372000000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>204000000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>456000000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>228000000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>-1179000000</v>
-      </c>
-      <c r="N106" s="1">
-        <v>678000000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>220000000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>656000000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>-577000000</v>
-      </c>
-      <c r="R106" s="1">
-        <v>29000000</v>
-      </c>
-      <c r="S106" s="1">
-        <v>1190000000</v>
-      </c>
-      <c r="T106" s="1">
-        <v>1351000000</v>
-      </c>
-      <c r="U106" s="1">
-        <v>1848000000</v>
-      </c>
-      <c r="V106" s="1">
-        <v>2442000000</v>
-      </c>
-      <c r="W106" s="1">
-        <v>1188000000</v>
-      </c>
-      <c r="X106" s="1">
-        <v>3720000000</v>
-      </c>
-      <c r="Y106" s="1">
-        <v>2567000000</v>
-      </c>
-      <c r="Z106" s="1">
-        <v>1890000000</v>
-      </c>
-      <c r="AA106" s="1">
-        <v>2621000000</v>
-      </c>
-      <c r="AB106" s="1">
-        <v>2440000000</v>
-      </c>
-      <c r="AC106" s="1">
-        <v>2919000000</v>
-      </c>
-      <c r="AD106" s="1">
-        <v>2972000000</v>
-      </c>
-      <c r="AE106" s="1">
-        <v>3507000000</v>
-      </c>
-      <c r="AF106" s="1">
-        <v>3717000000</v>
-      </c>
-      <c r="AG106" s="1">
-        <v>4083000000</v>
-      </c>
-      <c r="AH106" s="1">
-        <v>4668000000</v>
-      </c>
-      <c r="AI106" s="1">
-        <v>6058000000</v>
-      </c>
-      <c r="AJ106" s="1">
-        <v>5802000000</v>
-      </c>
-      <c r="AK106" s="1">
-        <v>5490000000</v>
-      </c>
-      <c r="AL106" s="1">
-        <v>6294000000</v>
-      </c>
-      <c r="AM106" s="1">
-        <v>5923000000</v>
-      </c>
-      <c r="AN106" s="42">
-        <f>AM106*(1+$AU$106)</f>
-        <v>6246969265.1885939</v>
-      </c>
-      <c r="AO106" s="42">
-        <f t="shared" ref="AO106:AR106" si="9">AN106*(1+$AU$106)</f>
-        <v>6588658618.978714</v>
-      </c>
-      <c r="AP106" s="42">
-        <f t="shared" si="9"/>
-        <v>6949037293.8679647</v>
-      </c>
-      <c r="AQ106" s="42">
-        <f t="shared" si="9"/>
-        <v>7329127536.289464</v>
-      </c>
-      <c r="AR106" s="42">
-        <f t="shared" si="9"/>
-        <v>7730007506.3055344</v>
-      </c>
-      <c r="AS106" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="AT106" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="AU106" s="45">
+      <c r="A106" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15" t="e">
+        <f t="shared" ref="C106:AM106" si="13">(C107/B107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D106" s="15" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E106" s="15" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F106" s="15" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G106" s="15">
+        <f t="shared" si="13"/>
+        <v>2.359375</v>
+      </c>
+      <c r="H106" s="15">
+        <f t="shared" si="13"/>
+        <v>-0.59534883720930232</v>
+      </c>
+      <c r="I106" s="15">
+        <f t="shared" si="13"/>
+        <v>-5.2758620689655169</v>
+      </c>
+      <c r="J106" s="15">
+        <f t="shared" si="13"/>
+        <v>-0.45161290322580649</v>
+      </c>
+      <c r="K106" s="15">
+        <f t="shared" si="13"/>
+        <v>1.2352941176470589</v>
+      </c>
+      <c r="L106" s="15">
+        <f t="shared" si="13"/>
+        <v>-0.5</v>
+      </c>
+      <c r="M106" s="15">
+        <f t="shared" si="13"/>
+        <v>-6.1710526315789478</v>
+      </c>
+      <c r="N106" s="15">
+        <f t="shared" si="13"/>
+        <v>-1.5750636132315523</v>
+      </c>
+      <c r="O106" s="15">
+        <f t="shared" si="13"/>
+        <v>-0.67551622418879054</v>
+      </c>
+      <c r="P106" s="15">
+        <f t="shared" si="13"/>
+        <v>1.9818181818181819</v>
+      </c>
+      <c r="Q106" s="15">
+        <f t="shared" si="13"/>
+        <v>-1.8795731707317072</v>
+      </c>
+      <c r="R106" s="15">
+        <f t="shared" si="13"/>
+        <v>-1.050259965337955</v>
+      </c>
+      <c r="S106" s="15">
+        <f t="shared" si="13"/>
+        <v>40.03448275862069</v>
+      </c>
+      <c r="T106" s="15">
+        <f t="shared" si="13"/>
+        <v>0.13529411764705879</v>
+      </c>
+      <c r="U106" s="15">
+        <f t="shared" si="13"/>
+        <v>0.36787564766839376</v>
+      </c>
+      <c r="V106" s="15">
+        <f t="shared" si="13"/>
+        <v>0.3214285714285714</v>
+      </c>
+      <c r="W106" s="15">
+        <f t="shared" si="13"/>
+        <v>-0.51351351351351349</v>
+      </c>
+      <c r="X106" s="15">
+        <f t="shared" si="13"/>
+        <v>2.1313131313131315</v>
+      </c>
+      <c r="Y106" s="15">
+        <f t="shared" si="13"/>
+        <v>-0.30994623655913978</v>
+      </c>
+      <c r="Z106" s="15">
+        <f t="shared" si="13"/>
+        <v>-0.26373198285936894</v>
+      </c>
+      <c r="AA106" s="15">
+        <f t="shared" si="13"/>
+        <v>0.38677248677248688</v>
+      </c>
+      <c r="AB106" s="15">
+        <f t="shared" si="13"/>
+        <v>-6.9057611598626445E-2</v>
+      </c>
+      <c r="AC106" s="15">
+        <f t="shared" si="13"/>
+        <v>0.19631147540983607</v>
+      </c>
+      <c r="AD106" s="15">
+        <f t="shared" si="13"/>
+        <v>1.8156903048989426E-2</v>
+      </c>
+      <c r="AE106" s="15">
+        <f t="shared" si="13"/>
+        <v>0.18001345895020182</v>
+      </c>
+      <c r="AF106" s="15">
+        <f t="shared" si="13"/>
+        <v>5.9880239520958112E-2</v>
+      </c>
+      <c r="AG106" s="15">
+        <f t="shared" si="13"/>
+        <v>9.846650524616618E-2</v>
+      </c>
+      <c r="AH106" s="15">
+        <f t="shared" si="13"/>
+        <v>0.14327700220426154</v>
+      </c>
+      <c r="AI106" s="15">
+        <f t="shared" si="13"/>
+        <v>0.29777206512425014</v>
+      </c>
+      <c r="AJ106" s="15">
+        <f t="shared" si="13"/>
+        <v>-4.2258171013535795E-2</v>
+      </c>
+      <c r="AK106" s="15">
+        <f t="shared" si="13"/>
+        <v>-5.3774560496380519E-2</v>
+      </c>
+      <c r="AL106" s="15">
+        <f t="shared" si="13"/>
+        <v>0.14644808743169402</v>
+      </c>
+      <c r="AM106" s="15">
+        <f t="shared" si="13"/>
+        <v>-5.8945027009850604E-2</v>
+      </c>
+      <c r="AN106" s="64">
+        <v>4258000000</v>
+      </c>
+      <c r="AO106" s="64">
+        <v>3954000000</v>
+      </c>
+      <c r="AP106" s="64">
+        <v>5162000000</v>
+      </c>
+      <c r="AQ106" s="64">
+        <v>6859000000</v>
+      </c>
+      <c r="AR106" s="64">
+        <v>10335000000</v>
+      </c>
+      <c r="AS106" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="AT106" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="AU106" s="53">
         <f>(SUM(AN4:AR4)/5)</f>
-        <v>5.4696820055477671E-2</v>
+        <v>5.5201974324781376E-2</v>
       </c>
     </row>
     <row r="107" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="13"/>
-      <c r="Y107" s="13"/>
-      <c r="Z107" s="13"/>
-      <c r="AA107" s="13"/>
-      <c r="AB107" s="13"/>
-      <c r="AC107" s="13"/>
-      <c r="AD107" s="13"/>
-      <c r="AE107" s="13"/>
-      <c r="AF107" s="13"/>
-      <c r="AG107" s="13"/>
-      <c r="AH107" s="13"/>
-      <c r="AI107" s="13"/>
-      <c r="AJ107" s="13"/>
-      <c r="AK107" s="13"/>
-      <c r="AL107" s="13"/>
-      <c r="AM107" s="13"/>
-      <c r="AN107" s="43"/>
-      <c r="AO107" s="43"/>
-      <c r="AP107" s="43"/>
-      <c r="AQ107" s="43"/>
-      <c r="AR107" s="46">
+      <c r="A107" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F107" s="1">
+        <v>-64000000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>-215000000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>-87000000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>372000000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>204000000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>456000000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>228000000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>-1179000000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>678000000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>220000000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>656000000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>-577000000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>29000000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>1190000000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>1351000000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>1848000000</v>
+      </c>
+      <c r="V107" s="1">
+        <v>2442000000</v>
+      </c>
+      <c r="W107" s="1">
+        <v>1188000000</v>
+      </c>
+      <c r="X107" s="1">
+        <v>3720000000</v>
+      </c>
+      <c r="Y107" s="1">
+        <v>2567000000</v>
+      </c>
+      <c r="Z107" s="1">
+        <v>1890000000</v>
+      </c>
+      <c r="AA107" s="1">
+        <v>2621000000</v>
+      </c>
+      <c r="AB107" s="1">
+        <v>2440000000</v>
+      </c>
+      <c r="AC107" s="1">
+        <v>2919000000</v>
+      </c>
+      <c r="AD107" s="1">
+        <v>2972000000</v>
+      </c>
+      <c r="AE107" s="1">
+        <v>3507000000</v>
+      </c>
+      <c r="AF107" s="1">
+        <v>3717000000</v>
+      </c>
+      <c r="AG107" s="1">
+        <v>4083000000</v>
+      </c>
+      <c r="AH107" s="1">
+        <v>4668000000</v>
+      </c>
+      <c r="AI107" s="1">
+        <v>6058000000</v>
+      </c>
+      <c r="AJ107" s="1">
+        <v>5802000000</v>
+      </c>
+      <c r="AK107" s="1">
+        <v>5490000000</v>
+      </c>
+      <c r="AL107" s="1">
+        <v>6294000000</v>
+      </c>
+      <c r="AM107" s="1">
+        <v>5923000000</v>
+      </c>
+      <c r="AN107" s="30"/>
+      <c r="AO107" s="30"/>
+      <c r="AP107" s="30"/>
+      <c r="AQ107" s="30"/>
+      <c r="AR107" s="66">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>142529426187.02698</v>
-      </c>
-      <c r="AS107" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="AT107" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="AU107" s="49">
+        <v>189076519456.50613</v>
+      </c>
+      <c r="AS107" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT107" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU107" s="55">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN108" s="46">
-        <f t="shared" ref="AN108:AP108" si="10">AN107+AN106</f>
-        <v>6246969265.1885939</v>
-      </c>
-      <c r="AO108" s="46">
-        <f t="shared" si="10"/>
-        <v>6588658618.978714</v>
-      </c>
-      <c r="AP108" s="46">
-        <f t="shared" si="10"/>
-        <v>6949037293.8679647</v>
-      </c>
-      <c r="AQ108" s="46">
-        <f>AQ107+AQ106</f>
-        <v>7329127536.289464</v>
-      </c>
-      <c r="AR108" s="46">
+      <c r="AN108" s="66">
+        <f t="shared" ref="AN108:AQ108" si="14">AN107+AN106</f>
+        <v>4258000000</v>
+      </c>
+      <c r="AO108" s="66">
+        <f t="shared" si="14"/>
+        <v>3954000000</v>
+      </c>
+      <c r="AP108" s="66">
+        <f t="shared" si="14"/>
+        <v>5162000000</v>
+      </c>
+      <c r="AQ108" s="66">
+        <f t="shared" si="14"/>
+        <v>6859000000</v>
+      </c>
+      <c r="AR108" s="66">
         <f>AR107+AR106</f>
-        <v>150259433693.33252</v>
-      </c>
-      <c r="AS108" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="AT108" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="AU108" s="51">
+        <v>199411519456.50613</v>
+      </c>
+      <c r="AS108" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT108" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="AU108" s="53">
         <f>AU105</f>
-        <v>8.059032900031661E-2</v>
+        <v>8.1026919844147158E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="AO109" s="61"/>
+      <c r="AN109" s="67" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO109" s="67"/>
     </row>
     <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN110" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="AO110" s="40">
+      <c r="AN110" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO110" s="48">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>124291328069.90004</v>
+        <v>151503599185.2225</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN111" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="AO111" s="40">
+      <c r="AN111" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO111" s="48">
         <f>AM40</f>
         <v>9067000000</v>
       </c>
     </row>
     <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN112" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="AO112" s="40">
+      <c r="AN112" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="AO112" s="48">
         <f>AU99</f>
         <v>9079000000</v>
       </c>
     </row>
     <row r="113" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN113" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="AO113" s="40">
+      <c r="AN113" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO113" s="48">
         <f>AO110+AO111-AO112</f>
-        <v>124279328069.90004</v>
+        <v>151491599185.2225</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN114" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="AO114" s="53">
+      <c r="AN114" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO114" s="57">
         <f>AM34*(1+(5*AS16))</f>
         <v>864053875.21911407</v>
       </c>
     </row>
     <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN115" s="54" t="s">
-        <v>156</v>
-      </c>
-      <c r="AO115" s="55">
+      <c r="AN115" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO115" s="59">
         <f>AO113/AO114</f>
-        <v>143.832846115509</v>
+        <v>175.32656646763604</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN116" s="52" t="s">
-        <v>157</v>
-      </c>
-      <c r="AO116" s="56" cm="1">
+      <c r="AN116" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO116" s="60" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>172.63</v>
+        <v>173.7</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN117" s="57" t="s">
-        <v>158</v>
-      </c>
-      <c r="AO117" s="58">
+      <c r="AN117" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="AO117" s="61">
         <f>AO115/AO116-1</f>
-        <v>-0.16681430738858249</v>
+        <v>9.3642283686590222E-3</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN118" s="57" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO118" s="59" t="str">
+      <c r="AN118" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO118" s="62" t="str">
         <f>IF(AO115&gt;AO116,"BUY","SELL")</f>
-        <v>SELL</v>
+        <v>BUY</v>
       </c>
     </row>
   </sheetData>
@@ -16725,8 +17057,9 @@
     <hyperlink ref="AM36" r:id="rId76" tooltip="https://www.sec.gov/Archives/edgar/data/97476/000009747623000007/0000097476-23-000007-index.htm" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
     <hyperlink ref="AM74" r:id="rId77" tooltip="https://www.sec.gov/Archives/edgar/data/97476/000009747623000007/0000097476-23-000007-index.htm" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
     <hyperlink ref="AN1" r:id="rId78" display="https://finbox.com/NASDAQGS:TXN/explorer/revenue_proj" xr:uid="{840878A7-6EAF-7A42-9AE5-819C4A3AE305}"/>
+    <hyperlink ref="AS106" r:id="rId79" xr:uid="{DBDB8F88-6134-A343-93FB-F7CA808E97DA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId79"/>
+  <drawing r:id="rId80"/>
 </worksheet>
 </file>
--- a/Technology/Hardware/Texas Instruments.xlsx
+++ b/Technology/Hardware/Texas Instruments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7BE433-21C6-8C41-8CA5-BDAE1A90007F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80454093-F88E-2F44-A00C-619C80BFF3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2569,8 +2569,8 @@
     <v>186.3</v>
     <v>145.97</v>
     <v>1.0117</v>
-    <v>-1.1200000000000001</v>
-    <v>-6.4070000000000004E-3</v>
+    <v>5.74</v>
+    <v>3.3044999999999998E-2</v>
     <v>USD</v>
     <v>Texas Instruments Incorporated designs, makes and sells semiconductors to electronics designers and manufacturers across the world. The Company operates through two segments: Analog and Embedded Processing. The Company's Analog segment product lines include Power and Signal Chain. Power includes products that help customers manage power in electronic systems. Its broad portfolio is designed to manage power requirements across different voltage levels, including battery-management solutions, direct current (DC)/DC switching regulators, alternating current (AC)/DC and isolated controllers and converters, power switches, linear regulators, voltage references and lighting products. Signal Chain includes products that sense, condition, and measure signals to allow information to be transferred or converted for further processing and control. The Embedded Processing segment includes microcontrollers, digital signal processors (DSPs), and applications processors.</v>
     <v>33000</v>
@@ -2578,24 +2578,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>12500 T I Blvd, DALLAS, TX, 75243-0592 US</v>
-    <v>177.07</v>
+    <v>179.73</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45114.999581724216</v>
+    <v>45117.996218321096</v>
     <v>0</v>
-    <v>173.58</v>
-    <v>157659500000</v>
+    <v>174.56</v>
+    <v>162869415816</v>
     <v>TEXAS INSTRUMENTS INCORPORATED</v>
     <v>TEXAS INSTRUMENTS INCORPORATED</v>
-    <v>174.11</v>
-    <v>19.491</v>
-    <v>174.82</v>
+    <v>174.58</v>
+    <v>20.135100000000001</v>
     <v>173.7</v>
+    <v>179.44</v>
     <v>907653900</v>
     <v>TXN</v>
     <v>TEXAS INSTRUMENTS INCORPORATED (XNAS:TXN)</v>
-    <v>477</v>
-    <v>4901046</v>
+    <v>34</v>
+    <v>4743103</v>
     <v>1938</v>
   </rv>
   <rv s="2">
@@ -2748,10 +2748,10 @@
       <v>4</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
     </spb>
   </spbData>
@@ -3165,10 +3165,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AR8" sqref="AR8"/>
+      <selection pane="bottomRight" activeCell="AO94" sqref="AO94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5383,15 +5383,15 @@
       </c>
       <c r="AT16" s="26">
         <f>AU101/AM3</f>
-        <v>7.8719542640303573</v>
+        <v>8.1320858705811858</v>
       </c>
       <c r="AU16" s="26">
         <f>AU101/AM28</f>
-        <v>18.020288032918049</v>
+        <v>18.615775038975883</v>
       </c>
       <c r="AV16" s="27">
         <f>AU101/AM107</f>
-        <v>26.61818335303056</v>
+        <v>27.49779095323316</v>
       </c>
     </row>
     <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -5783,15 +5783,15 @@
       </c>
       <c r="AT19" s="32">
         <f>AU101/AN3</f>
-        <v>8.8053337056688079</v>
+        <v>9.096309177101368</v>
       </c>
       <c r="AU19" s="32">
         <f>AU101/AN28</f>
-        <v>23.049634502923976</v>
+        <v>23.811318101754384</v>
       </c>
       <c r="AV19" s="33">
         <f>AU101/AN105</f>
-        <v>23.070460248095831</v>
+        <v>23.832832041289098</v>
       </c>
     </row>
     <row r="20" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6233,11 +6233,11 @@
       </c>
       <c r="AU22" s="34">
         <f>(-1*AM98)/AU101</f>
-        <v>2.725493864943121E-2</v>
+        <v>2.6383099481700666E-2</v>
       </c>
       <c r="AV22" s="35">
         <f>AM107/AU101</f>
-        <v>3.7568303844677929E-2</v>
+        <v>3.6366557651876436E-2</v>
       </c>
     </row>
     <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -15848,7 +15848,7 @@
       </c>
       <c r="AU100" s="44">
         <f>AU99/AU103</f>
-        <v>5.4450531820785242E-2</v>
+        <v>5.2800719081444361E-2</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15974,7 +15974,7 @@
       </c>
       <c r="AU101" s="48" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>157659500000</v>
+        <v>162869415816</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16100,7 +16100,7 @@
       </c>
       <c r="AU102" s="44">
         <f>AU101/AU103</f>
-        <v>0.94554946817921481</v>
+        <v>0.94719928091855565</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16226,7 +16226,7 @@
       </c>
       <c r="AU103" s="49">
         <f>AU99+AU101</f>
-        <v>166738500000</v>
+        <v>171948415816</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16532,7 +16532,7 @@
       </c>
       <c r="AU105" s="51">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>8.1026919844147158E-2</v>
+        <v>8.11324299938916E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16838,7 +16838,7 @@
       <c r="AQ107" s="30"/>
       <c r="AR107" s="66">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>189076519456.50613</v>
+        <v>188721118988.66278</v>
       </c>
       <c r="AS107" s="31" t="s">
         <v>146</v>
@@ -16869,7 +16869,7 @@
       </c>
       <c r="AR108" s="66">
         <f>AR107+AR106</f>
-        <v>199411519456.50613</v>
+        <v>199056118988.66278</v>
       </c>
       <c r="AS108" s="31" t="s">
         <v>143</v>
@@ -16879,7 +16879,7 @@
       </c>
       <c r="AU108" s="53">
         <f>AU105</f>
-        <v>8.1026919844147158E-2</v>
+        <v>8.11324299938916E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16894,7 +16894,7 @@
       </c>
       <c r="AO110" s="48">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>151503599185.2225</v>
+        <v>151192885042.44992</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16921,7 +16921,7 @@
       </c>
       <c r="AO113" s="48">
         <f>AO110+AO111-AO112</f>
-        <v>151491599185.2225</v>
+        <v>151180885042.44992</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16939,7 +16939,7 @@
       </c>
       <c r="AO115" s="59">
         <f>AO113/AO114</f>
-        <v>175.32656646763604</v>
+        <v>174.96696604029719</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16948,7 +16948,7 @@
       </c>
       <c r="AO116" s="60" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>173.7</v>
+        <v>179.44</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16957,7 +16957,7 @@
       </c>
       <c r="AO117" s="61">
         <f>AO115/AO116-1</f>
-        <v>9.3642283686590222E-3</v>
+        <v>-2.4927741639003576E-2</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16966,7 +16966,7 @@
       </c>
       <c r="AO118" s="62" t="str">
         <f>IF(AO115&gt;AO116,"BUY","SELL")</f>
-        <v>BUY</v>
+        <v>SELL</v>
       </c>
     </row>
   </sheetData>

--- a/Technology/Hardware/Texas Instruments.xlsx
+++ b/Technology/Hardware/Texas Instruments.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80454093-F88E-2F44-A00C-619C80BFF3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04AC81F-BF6B-2D44-8035-A0A9F21995AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -880,7 +880,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -925,12 +925,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2411,6 +2405,7 @@
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
       <sheetName val="Compounders"/>
       <sheetName val="GARP"/>
       <sheetName val="Value"/>
@@ -2422,7 +2417,7 @@
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>4.0480000000000002E-2</v>
+            <v>3.857E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2441,6 +2436,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2566,11 +2562,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>186.3</v>
+    <v>188.12</v>
     <v>145.97</v>
-    <v>1.0117</v>
-    <v>5.74</v>
-    <v>3.3044999999999998E-2</v>
+    <v>1.0087999999999999</v>
+    <v>2.19</v>
+    <v>1.1909000000000001E-2</v>
+    <v>-6.14</v>
+    <v>-3.2996999999999999E-2</v>
     <v>USD</v>
     <v>Texas Instruments Incorporated designs, makes and sells semiconductors to electronics designers and manufacturers across the world. The Company operates through two segments: Analog and Embedded Processing. The Company's Analog segment product lines include Power and Signal Chain. Power includes products that help customers manage power in electronic systems. Its broad portfolio is designed to manage power requirements across different voltage levels, including battery-management solutions, direct current (DC)/DC switching regulators, alternating current (AC)/DC and isolated controllers and converters, power switches, linear regulators, voltage references and lighting products. Signal Chain includes products that sense, condition, and measure signals to allow information to be transferred or converted for further processing and control. The Embedded Processing segment includes microcontrollers, digital signal processors (DSPs), and applications processors.</v>
     <v>33000</v>
@@ -2578,24 +2576,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>12500 T I Blvd, DALLAS, TX, 75243-0592 US</v>
-    <v>179.73</v>
+    <v>188.12</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45117.996218321096</v>
+    <v>45132.999832210153</v>
     <v>0</v>
-    <v>174.56</v>
-    <v>162869415816</v>
+    <v>184.8</v>
+    <v>168896237712</v>
     <v>TEXAS INSTRUMENTS INCORPORATED</v>
     <v>TEXAS INSTRUMENTS INCORPORATED</v>
-    <v>174.58</v>
-    <v>20.135100000000001</v>
-    <v>173.7</v>
-    <v>179.44</v>
+    <v>185</v>
+    <v>20.637</v>
+    <v>183.89</v>
+    <v>186.08</v>
+    <v>179.94</v>
     <v>907653900</v>
     <v>TXN</v>
     <v>TEXAS INSTRUMENTS INCORPORATED (XNAS:TXN)</v>
-    <v>34</v>
-    <v>4743103</v>
+    <v>6267820</v>
+    <v>5231419</v>
     <v>1938</v>
   </rv>
   <rv s="2">
@@ -2627,6 +2626,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2647,6 +2648,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2663,7 +2665,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2674,13 +2676,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2746,13 +2751,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2797,6 +2808,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2804,6 +2818,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3165,10 +3182,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AO94" sqref="AO94"/>
+      <selection pane="bottomRight" activeCell="AV92" sqref="AV92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5381,17 +5398,17 @@
         <f>(AM35+AL35+AK35+AJ35+AI35)/5</f>
         <v>-1.5373103585659404E-2</v>
       </c>
-      <c r="AT16" s="26">
+      <c r="AT16" s="30">
         <f>AU101/AM3</f>
-        <v>8.1320858705811858</v>
-      </c>
-      <c r="AU16" s="26">
+        <v>8.4330056776512876</v>
+      </c>
+      <c r="AU16" s="30">
         <f>AU101/AM28</f>
-        <v>18.615775038975883</v>
-      </c>
-      <c r="AV16" s="27">
+        <v>19.304633410904103</v>
+      </c>
+      <c r="AV16" s="31">
         <f>AU101/AM107</f>
-        <v>27.49779095323316</v>
+        <v>28.51531955292926</v>
       </c>
     </row>
     <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -5762,36 +5779,36 @@
       <c r="AM19" s="10">
         <v>11225000000</v>
       </c>
-      <c r="AN19" s="36">
+      <c r="AN19" s="34">
         <v>9119000000</v>
       </c>
-      <c r="AO19" s="36">
+      <c r="AO19" s="34">
         <v>10130000000</v>
       </c>
-      <c r="AP19" s="36">
+      <c r="AP19" s="34">
         <v>11460000000</v>
       </c>
-      <c r="AQ19" s="36">
+      <c r="AQ19" s="34">
         <v>13976000000</v>
       </c>
-      <c r="AR19" s="36">
+      <c r="AR19" s="34">
         <v>15198000000</v>
       </c>
-      <c r="AS19" s="28">
+      <c r="AS19" s="26">
         <f>AM40-AM56-AM61</f>
         <v>-12000000</v>
       </c>
-      <c r="AT19" s="32">
+      <c r="AT19" s="30">
         <f>AU101/AN3</f>
-        <v>9.096309177101368</v>
-      </c>
-      <c r="AU19" s="32">
+        <v>9.4329091154426141</v>
+      </c>
+      <c r="AU19" s="30">
         <f>AU101/AN28</f>
-        <v>23.811318101754384</v>
-      </c>
-      <c r="AV19" s="33">
+        <v>24.692432414035089</v>
+      </c>
+      <c r="AV19" s="31">
         <f>AU101/AN105</f>
-        <v>23.832832041289098</v>
+        <v>24.714742455656907</v>
       </c>
     </row>
     <row r="20" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6086,23 +6103,23 @@
       <c r="AM21" s="2">
         <v>0.5605</v>
       </c>
-      <c r="AN21" s="37">
+      <c r="AN21" s="35">
         <f>AN19/AN3</f>
         <v>0.50929907846970124</v>
       </c>
-      <c r="AO21" s="37">
+      <c r="AO21" s="35">
         <f t="shared" ref="AO21:AR21" si="5">AO19/AO3</f>
         <v>0.5278515971028086</v>
       </c>
-      <c r="AP21" s="37">
+      <c r="AP21" s="35">
         <f t="shared" si="5"/>
         <v>0.55407822849683319</v>
       </c>
-      <c r="AQ21" s="37">
+      <c r="AQ21" s="35">
         <f t="shared" si="5"/>
         <v>0.59627117197832669</v>
       </c>
-      <c r="AR21" s="37">
+      <c r="AR21" s="35">
         <f t="shared" si="5"/>
         <v>0.58989287377736377</v>
       </c>
@@ -6231,13 +6248,13 @@
       <c r="AM22" s="10">
         <v>10397000000</v>
       </c>
-      <c r="AU22" s="34">
+      <c r="AU22" s="32">
         <f>(-1*AM98)/AU101</f>
-        <v>2.6383099481700666E-2</v>
-      </c>
-      <c r="AV22" s="35">
+        <v>2.5441656121003697E-2</v>
+      </c>
+      <c r="AV22" s="33">
         <f>AM107/AU101</f>
-        <v>3.6366557651876436E-2</v>
+        <v>3.5068868793275518E-2</v>
       </c>
     </row>
     <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -6953,19 +6970,19 @@
       <c r="AM28" s="11">
         <v>8749000000</v>
       </c>
-      <c r="AN28" s="38">
+      <c r="AN28" s="36">
         <v>6840000000</v>
       </c>
-      <c r="AO28" s="38">
+      <c r="AO28" s="36">
         <v>7397000000</v>
       </c>
-      <c r="AP28" s="38">
+      <c r="AP28" s="36">
         <v>8059000000</v>
       </c>
-      <c r="AQ28" s="38">
+      <c r="AQ28" s="36">
         <v>9597000000</v>
       </c>
-      <c r="AR28" s="38">
+      <c r="AR28" s="36">
         <v>10629000000</v>
       </c>
     </row>
@@ -7261,23 +7278,23 @@
       <c r="AM30" s="2">
         <v>0.43680000000000002</v>
       </c>
-      <c r="AN30" s="39">
+      <c r="AN30" s="37">
         <f>AN28/AN3</f>
         <v>0.38201619659313041</v>
       </c>
-      <c r="AO30" s="39">
+      <c r="AO30" s="37">
         <f t="shared" ref="AO30:AR30" si="7">AO28/AO3</f>
         <v>0.38544109217862538</v>
       </c>
-      <c r="AP30" s="39">
+      <c r="AP30" s="37">
         <f t="shared" si="7"/>
         <v>0.38964366871343614</v>
       </c>
-      <c r="AQ30" s="39">
+      <c r="AQ30" s="37">
         <f t="shared" si="7"/>
         <v>0.40944579546908999</v>
       </c>
-      <c r="AR30" s="39">
+      <c r="AR30" s="37">
         <f t="shared" si="7"/>
         <v>0.41255239869585469</v>
       </c>
@@ -7400,19 +7417,19 @@
       <c r="AM31" s="12">
         <v>9.48</v>
       </c>
-      <c r="AN31" s="40">
+      <c r="AN31" s="38">
         <v>7.54</v>
       </c>
-      <c r="AO31" s="40">
+      <c r="AO31" s="38">
         <v>8.15</v>
       </c>
-      <c r="AP31" s="40">
+      <c r="AP31" s="38">
         <v>8.8800000000000008</v>
       </c>
-      <c r="AQ31" s="40">
+      <c r="AQ31" s="38">
         <v>10.57</v>
       </c>
-      <c r="AR31" s="40">
+      <c r="AR31" s="38">
         <v>11.71</v>
       </c>
     </row>
@@ -13676,10 +13693,10 @@
       <c r="AM83" s="1">
         <v>-847000000</v>
       </c>
-      <c r="AT83" s="68" t="s">
+      <c r="AT83" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="AU83" s="69"/>
+      <c r="AU83" s="67"/>
     </row>
     <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -13799,10 +13816,10 @@
       <c r="AM84" s="1">
         <v>106000000</v>
       </c>
-      <c r="AT84" s="70" t="s">
+      <c r="AT84" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="AU84" s="70"/>
+      <c r="AU84" s="68"/>
     </row>
     <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -13922,10 +13939,10 @@
       <c r="AM85" s="1">
         <v>22000000</v>
       </c>
-      <c r="AT85" s="41" t="s">
+      <c r="AT85" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="AU85" s="42">
+      <c r="AU85" s="40">
         <f>AM17</f>
         <v>214000000</v>
       </c>
@@ -14048,10 +14065,10 @@
       <c r="AM86" s="1">
         <v>-293000000</v>
       </c>
-      <c r="AT86" s="41" t="s">
+      <c r="AT86" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="AU86" s="42">
+      <c r="AU86" s="40">
         <f>AM56</f>
         <v>500000000</v>
       </c>
@@ -14174,10 +14191,10 @@
       <c r="AM87" s="10">
         <v>8720000000</v>
       </c>
-      <c r="AT87" s="41" t="s">
+      <c r="AT87" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="AU87" s="42">
+      <c r="AU87" s="40">
         <f>AM61</f>
         <v>8579000000</v>
       </c>
@@ -14300,10 +14317,10 @@
       <c r="AM88" s="1">
         <v>-2757000000</v>
       </c>
-      <c r="AT88" s="43" t="s">
+      <c r="AT88" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="AU88" s="44">
+      <c r="AU88" s="42">
         <f>AU85/(AU86+AU87)</f>
         <v>2.357087784998348E-2</v>
       </c>
@@ -14464,10 +14481,10 @@
         <f t="shared" si="10"/>
         <v>0.13765727980826842</v>
       </c>
-      <c r="AT89" s="41" t="s">
+      <c r="AT89" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="AU89" s="42">
+      <c r="AU89" s="40">
         <f>AM27</f>
         <v>1283000000</v>
       </c>
@@ -14590,10 +14607,10 @@
       <c r="AM90" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT90" s="41" t="s">
+      <c r="AT90" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="AU90" s="42">
+      <c r="AU90" s="40">
         <f>AM25</f>
         <v>10032000000</v>
       </c>
@@ -14716,10 +14733,10 @@
       <c r="AM91" s="1">
         <v>-14483000000</v>
       </c>
-      <c r="AT91" s="43" t="s">
+      <c r="AT91" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="AU91" s="44">
+      <c r="AU91" s="42">
         <f>AU89/AU90</f>
         <v>0.12789074960127592</v>
       </c>
@@ -14842,10 +14859,10 @@
       <c r="AM92" s="1">
         <v>13657000000</v>
       </c>
-      <c r="AT92" s="43" t="s">
+      <c r="AT92" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="AU92" s="44">
+      <c r="AU92" s="42">
         <f>AU88*(1-AU91)</f>
         <v>2.0556380612988982E-2</v>
       </c>
@@ -14968,10 +14985,10 @@
       <c r="AM93" s="1">
         <v>-2757000000</v>
       </c>
-      <c r="AT93" s="70" t="s">
+      <c r="AT93" s="68" t="s">
         <v>133</v>
       </c>
-      <c r="AU93" s="70"/>
+      <c r="AU93" s="68"/>
     </row>
     <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -15091,12 +15108,12 @@
       <c r="AM94" s="10">
         <v>-3583000000</v>
       </c>
-      <c r="AT94" s="41" t="s">
+      <c r="AT94" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="AU94" s="65">
+      <c r="AU94" s="63">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0480000000000002E-2</v>
+        <v>3.857E-2</v>
       </c>
     </row>
     <row r="95" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15217,12 +15234,12 @@
       <c r="AM95" s="1">
         <v>-500000000</v>
       </c>
-      <c r="AT95" s="46" t="s">
+      <c r="AT95" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="AU95" s="47" cm="1">
+      <c r="AU95" s="45" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>1.0117</v>
+        <v>1.0087999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15343,10 +15360,10 @@
       <c r="AM96" s="1">
         <v>241000000</v>
       </c>
-      <c r="AT96" s="41" t="s">
+      <c r="AT96" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="AU96" s="45">
+      <c r="AU96" s="43">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -15468,12 +15485,12 @@
       <c r="AM97" s="1">
         <v>-3615000000</v>
       </c>
-      <c r="AT97" s="43" t="s">
+      <c r="AT97" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="AU97" s="44">
+      <c r="AU97" s="42">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>8.4509184000000015E-2</v>
+        <v>8.4399784000000005E-2</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15594,10 +15611,10 @@
       <c r="AM98" s="1">
         <v>-4297000000</v>
       </c>
-      <c r="AT98" s="70" t="s">
+      <c r="AT98" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="AU98" s="70"/>
+      <c r="AU98" s="68"/>
     </row>
     <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -15717,10 +15734,10 @@
       <c r="AM99" s="1">
         <v>1453000000</v>
       </c>
-      <c r="AT99" s="41" t="s">
+      <c r="AT99" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="AU99" s="42">
+      <c r="AU99" s="40">
         <f>AU86+AU87</f>
         <v>9079000000</v>
       </c>
@@ -15843,12 +15860,12 @@
       <c r="AM100" s="10">
         <v>-6718000000</v>
       </c>
-      <c r="AT100" s="43" t="s">
+      <c r="AT100" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="AU100" s="44">
+      <c r="AU100" s="42">
         <f>AU99/AU103</f>
-        <v>5.2800719081444361E-2</v>
+        <v>5.1012714559154917E-2</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15969,12 +15986,12 @@
       <c r="AM101" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT101" s="46" t="s">
+      <c r="AT101" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="AU101" s="48" cm="1">
+      <c r="AU101" s="46" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>162869415816</v>
+        <v>168896237712</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16095,12 +16112,12 @@
       <c r="AM102" s="10">
         <v>-1581000000</v>
       </c>
-      <c r="AT102" s="43" t="s">
+      <c r="AT102" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="AU102" s="44">
+      <c r="AU102" s="42">
         <f>AU101/AU103</f>
-        <v>0.94719928091855565</v>
+        <v>0.9489872854408451</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16221,12 +16238,12 @@
       <c r="AM103" s="1">
         <v>4631000000</v>
       </c>
-      <c r="AT103" s="43" t="s">
+      <c r="AT103" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="AU103" s="49">
+      <c r="AU103" s="47">
         <f>AU99+AU101</f>
-        <v>171948415816</v>
+        <v>177975237712</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16347,10 +16364,10 @@
       <c r="AM104" s="11">
         <v>3050000000</v>
       </c>
-      <c r="AT104" s="70" t="s">
+      <c r="AT104" s="68" t="s">
         <v>144</v>
       </c>
-      <c r="AU104" s="70"/>
+      <c r="AU104" s="68"/>
     </row>
     <row r="105" spans="1:47" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -16504,35 +16521,35 @@
         <f>(AM22*(1-$AU$91))+AM77+AM88+AM81</f>
         <v>6476319876.3955345</v>
       </c>
-      <c r="AN105" s="29">
+      <c r="AN105" s="27">
         <f>AM105*(1+$AU$106)</f>
         <v>6833825519.9313917</v>
       </c>
-      <c r="AO105" s="29">
+      <c r="AO105" s="27">
         <f t="shared" ref="AO105:AR105" si="12">AN105*(1+$AU$106)</f>
         <v>7211066180.8226805</v>
       </c>
-      <c r="AP105" s="29">
+      <c r="AP105" s="27">
         <f t="shared" si="12"/>
         <v>7609131270.9907532</v>
       </c>
-      <c r="AQ105" s="29">
+      <c r="AQ105" s="27">
         <f t="shared" si="12"/>
         <v>8029170340.0458755</v>
       </c>
-      <c r="AR105" s="29">
+      <c r="AR105" s="27">
         <f t="shared" si="12"/>
         <v>8472396395.0063839</v>
       </c>
-      <c r="AS105" s="30" t="s">
+      <c r="AS105" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="AT105" s="50" t="s">
+      <c r="AT105" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="AU105" s="51">
+      <c r="AU105" s="49">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>8.11324299938916E-2</v>
+        <v>8.1142958686533428E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16688,34 +16705,34 @@
         <f t="shared" si="13"/>
         <v>-5.8945027009850604E-2</v>
       </c>
-      <c r="AN106" s="64">
+      <c r="AN106" s="62">
         <v>4258000000</v>
       </c>
-      <c r="AO106" s="64">
+      <c r="AO106" s="62">
         <v>3954000000</v>
       </c>
-      <c r="AP106" s="64">
+      <c r="AP106" s="62">
         <v>5162000000</v>
       </c>
-      <c r="AQ106" s="64">
+      <c r="AQ106" s="62">
         <v>6859000000</v>
       </c>
-      <c r="AR106" s="64">
+      <c r="AR106" s="62">
         <v>10335000000</v>
       </c>
-      <c r="AS106" s="30" t="s">
+      <c r="AS106" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="AT106" s="52" t="s">
+      <c r="AT106" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="AU106" s="53">
+      <c r="AU106" s="51">
         <f>(SUM(AN4:AR4)/5)</f>
         <v>5.5201974324781376E-2</v>
       </c>
     </row>
     <row r="107" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="63" t="s">
+      <c r="A107" s="61" t="s">
         <v>164</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -16832,139 +16849,139 @@
       <c r="AM107" s="1">
         <v>5923000000</v>
       </c>
-      <c r="AN107" s="30"/>
-      <c r="AO107" s="30"/>
-      <c r="AP107" s="30"/>
-      <c r="AQ107" s="30"/>
-      <c r="AR107" s="66">
+      <c r="AN107" s="28"/>
+      <c r="AO107" s="28"/>
+      <c r="AP107" s="28"/>
+      <c r="AQ107" s="28"/>
+      <c r="AR107" s="64">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>188721118988.66278</v>
-      </c>
-      <c r="AS107" s="31" t="s">
+        <v>188685727432.83212</v>
+      </c>
+      <c r="AS107" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="AT107" s="54" t="s">
+      <c r="AT107" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="AU107" s="55">
+      <c r="AU107" s="53">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN108" s="66">
+      <c r="AN108" s="64">
         <f t="shared" ref="AN108:AQ108" si="14">AN107+AN106</f>
         <v>4258000000</v>
       </c>
-      <c r="AO108" s="66">
+      <c r="AO108" s="64">
         <f t="shared" si="14"/>
         <v>3954000000</v>
       </c>
-      <c r="AP108" s="66">
+      <c r="AP108" s="64">
         <f t="shared" si="14"/>
         <v>5162000000</v>
       </c>
-      <c r="AQ108" s="66">
+      <c r="AQ108" s="64">
         <f t="shared" si="14"/>
         <v>6859000000</v>
       </c>
-      <c r="AR108" s="66">
+      <c r="AR108" s="64">
         <f>AR107+AR106</f>
-        <v>199056118988.66278</v>
-      </c>
-      <c r="AS108" s="31" t="s">
+        <v>199020727432.83212</v>
+      </c>
+      <c r="AS108" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="AT108" s="56" t="s">
+      <c r="AT108" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="AU108" s="53">
+      <c r="AU108" s="51">
         <f>AU105</f>
-        <v>8.11324299938916E-2</v>
+        <v>8.1142958686533428E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="67" t="s">
+      <c r="AN109" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="AO109" s="67"/>
+      <c r="AO109" s="65"/>
     </row>
     <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN110" s="57" t="s">
+      <c r="AN110" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="AO110" s="48">
+      <c r="AO110" s="46">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>151192885042.44992</v>
+        <v>151161944083.55319</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN111" s="57" t="s">
+      <c r="AN111" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="AO111" s="48">
+      <c r="AO111" s="46">
         <f>AM40</f>
         <v>9067000000</v>
       </c>
     </row>
     <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN112" s="57" t="s">
+      <c r="AN112" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="AO112" s="48">
+      <c r="AO112" s="46">
         <f>AU99</f>
         <v>9079000000</v>
       </c>
     </row>
     <row r="113" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN113" s="57" t="s">
+      <c r="AN113" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="AO113" s="48">
+      <c r="AO113" s="46">
         <f>AO110+AO111-AO112</f>
-        <v>151180885042.44992</v>
+        <v>151149944083.55319</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN114" s="57" t="s">
+      <c r="AN114" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="AO114" s="57">
+      <c r="AO114" s="55">
         <f>AM34*(1+(5*AS16))</f>
         <v>864053875.21911407</v>
       </c>
     </row>
     <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN115" s="58" t="s">
+      <c r="AN115" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="AO115" s="59">
+      <c r="AO115" s="57">
         <f>AO113/AO114</f>
-        <v>174.96696604029719</v>
+        <v>174.9311569781726</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN116" s="57" t="s">
+      <c r="AN116" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="AO116" s="60" cm="1">
+      <c r="AO116" s="58" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>179.44</v>
+        <v>186.08</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN117" s="58" t="s">
+      <c r="AN117" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="AO117" s="61">
+      <c r="AO117" s="59">
         <f>AO115/AO116-1</f>
-        <v>-2.4927741639003576E-2</v>
+        <v>-5.9914246677920335E-2</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN118" s="58" t="s">
+      <c r="AN118" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="AO118" s="62" t="str">
+      <c r="AO118" s="60" t="str">
         <f>IF(AO115&gt;AO116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Technology/Hardware/Texas Instruments.xlsx
+++ b/Technology/Hardware/Texas Instruments.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04AC81F-BF6B-2D44-8035-A0A9F21995AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39558EEE-2841-4340-866F-F4B55469C298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="169">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -561,9 +561,6 @@
     <t>Dividend Yield</t>
   </si>
   <si>
-    <t>FCF Yield</t>
-  </si>
-  <si>
     <t>Unlevered FCF</t>
   </si>
   <si>
@@ -574,6 +571,15 @@
   </si>
   <si>
     <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>5Y Fwd Income CAGR</t>
+  </si>
+  <si>
+    <t>Forward FCF Yield</t>
+  </si>
+  <si>
+    <t>5Y Fwd FCF CAGR</t>
   </si>
 </sst>
 </file>
@@ -588,7 +594,7 @@
     <numFmt numFmtId="168" formatCode="0.0"/>
     <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -700,6 +706,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -880,7 +893,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -939,9 +952,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1012,6 +1022,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1102,15 +1136,15 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.3917081260364826E-2"/>
-          <c:y val="0.14293597679588083"/>
-          <c:w val="0.84107462686567169"/>
-          <c:h val="0.68056458668575992"/>
+          <c:x val="0.10377483443708609"/>
+          <c:y val="0.15115380120856017"/>
+          <c:w val="0.82602649006622508"/>
+          <c:h val="0.6134717744393553"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1159,12 +1193,150 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AR$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$3:$AM$3</c:f>
+              <c:f>'Sheet 1'!$B$3:$AR$3</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>4924500000</c:v>
                 </c:pt>
@@ -1278,13 +1450,28 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>20028000000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>17995000000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>19082000000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20898000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>23400000000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>25166000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3165-E049-AE3C-A840CC63ACE6}"/>
+              <c16:uniqueId val="{00000000-4799-0A41-93D7-6E81247BD158}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1335,12 +1522,150 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AR$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$28:$AM$28</c:f>
+              <c:f>'Sheet 1'!$B$28:$AR$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>-118700000</c:v>
                 </c:pt>
@@ -1454,13 +1779,28 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>8749000000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6733000000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7295000000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8615000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9858000000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10957000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3165-E049-AE3C-A840CC63ACE6}"/>
+              <c16:uniqueId val="{00000001-4799-0A41-93D7-6E81247BD158}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1511,12 +1851,150 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AR$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$107:$AM$107</c:f>
+              <c:f>'Sheet 1'!$B$107:$AR$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1630,13 +2108,28 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>5923000000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4258000000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3954000000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5162000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6859000000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10335000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3165-E049-AE3C-A840CC63ACE6}"/>
+              <c16:uniqueId val="{00000002-4799-0A41-93D7-6E81247BD158}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1648,13 +2141,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="1726291391"/>
-        <c:axId val="1726429999"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="203344016"/>
+        <c:axId val="201941744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1726291391"/>
+        <c:axId val="203344016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1682,7 +2175,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1694,7 +2187,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1726429999"/>
+        <c:crossAx val="201941744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1702,7 +2195,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1726429999"/>
+        <c:axId val="201941744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1751,7 +2244,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1726291391"/>
+        <c:crossAx val="203344016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1769,10 +2262,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.3465695146315666"/>
-          <c:y val="0.90866688645799287"/>
-          <c:w val="0.31482106527728809"/>
-          <c:h val="5.9437495547855754E-2"/>
+          <c:x val="0.35344610731605569"/>
+          <c:y val="0.89421684859950412"/>
+          <c:w val="0.31429983834802105"/>
+          <c:h val="5.9437481977381745E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1879,7 +2372,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="302">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2117,7 +2610,6 @@
         <a:solidFill>
           <a:schemeClr val="tx2">
             <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2352,22 +2844,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>15874</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>17463</xdr:rowOff>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>17461</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>1571624</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:colOff>1587500</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>15874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2D42E42-3409-5EB8-E3D6-CF3233A1C465}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F4F72D1-47AC-FAC9-146A-B3EBF8ABF190}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2395,32 +2887,25 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Treasuries"/>
-      <sheetName val="Hardware"/>
-      <sheetName val="Software"/>
-      <sheetName val="Consumer"/>
-      <sheetName val="Financial Services"/>
+      <sheetName val="Technology - Software"/>
+      <sheetName val="Technology - Hardware"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Real Estate"/>
-      <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="GARP"/>
-      <sheetName val="Value"/>
-      <sheetName val="Aggressive Growth"/>
-      <sheetName val="Other"/>
-      <sheetName val="Short List"/>
+      <sheetName val="Commodity Stocks"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Growth"/>
+      <sheetName val="ROIC"/>
+      <sheetName val="Watchlist"/>
+      <sheetName val="US Treasury Bonds"/>
+      <sheetName val="Wide Moats"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="C8">
-            <v>3.857E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -2429,14 +2914,19 @@
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="9">
+        <row r="8">
+          <cell r="C8">
+            <v>4.7160000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2564,11 +3054,11 @@
     <v>Powered by Refinitiv</v>
     <v>188.12</v>
     <v>145.97</v>
-    <v>1.0087999999999999</v>
-    <v>2.19</v>
-    <v>1.1909000000000001E-2</v>
-    <v>-6.14</v>
-    <v>-3.2996999999999999E-2</v>
+    <v>0.98580000000000001</v>
+    <v>1.89</v>
+    <v>1.2185E-2</v>
+    <v>0.7</v>
+    <v>4.4590000000000003E-3</v>
     <v>USD</v>
     <v>Texas Instruments Incorporated designs, makes and sells semiconductors to electronics designers and manufacturers across the world. The Company operates through two segments: Analog and Embedded Processing. The Company's Analog segment product lines include Power and Signal Chain. Power includes products that help customers manage power in electronic systems. Its broad portfolio is designed to manage power requirements across different voltage levels, including battery-management solutions, direct current (DC)/DC switching regulators, alternating current (AC)/DC and isolated controllers and converters, power switches, linear regulators, voltage references and lighting products. Signal Chain includes products that sense, condition, and measure signals to allow information to be transferred or converted for further processing and control. The Embedded Processing segment includes microcontrollers, digital signal processors (DSPs), and applications processors.</v>
     <v>33000</v>
@@ -2576,25 +3066,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>12500 T I Blvd, DALLAS, TX, 75243-0592 US</v>
-    <v>188.12</v>
+    <v>158.1</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45132.999832210153</v>
+    <v>45205.999653622654</v>
     <v>0</v>
-    <v>184.8</v>
-    <v>168896237712</v>
+    <v>153.56</v>
+    <v>142550700000</v>
     <v>TEXAS INSTRUMENTS INCORPORATED</v>
     <v>TEXAS INSTRUMENTS INCORPORATED</v>
-    <v>185</v>
-    <v>20.637</v>
-    <v>183.89</v>
-    <v>186.08</v>
-    <v>179.94</v>
-    <v>907653900</v>
+    <v>154.27000000000001</v>
+    <v>18.8444</v>
+    <v>155.11000000000001</v>
+    <v>157</v>
+    <v>157.69999999999999</v>
+    <v>907966300</v>
     <v>TXN</v>
     <v>TEXAS INSTRUMENTS INCORPORATED (XNAS:TXN)</v>
-    <v>6267820</v>
-    <v>5231419</v>
+    <v>5016308</v>
+    <v>4126448</v>
     <v>1938</v>
   </rv>
   <rv s="2">
@@ -2759,9 +3249,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3179,13 +3669,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV118"/>
+  <dimension ref="A1:AV119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK100" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AV92" sqref="AV92"/>
+      <selection pane="bottomRight" activeCell="AT133" sqref="AT133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3578,19 +4068,19 @@
         <v>20028000000</v>
       </c>
       <c r="AN3" s="24">
-        <v>17905000000</v>
+        <v>17995000000</v>
       </c>
       <c r="AO3" s="24">
-        <v>19191000000</v>
+        <v>19082000000</v>
       </c>
       <c r="AP3" s="24">
-        <v>20683000000</v>
+        <v>20898000000</v>
       </c>
       <c r="AQ3" s="24">
-        <v>23439000000</v>
+        <v>23400000000</v>
       </c>
       <c r="AR3" s="24">
-        <v>25764000000</v>
+        <v>25166000000</v>
       </c>
       <c r="AS3" s="18" t="s">
         <v>108</v>
@@ -3760,23 +4250,23 @@
       </c>
       <c r="AN4" s="16">
         <f t="shared" ref="AN4:AR4" si="1">(AN3/AM3)-1</f>
-        <v>-0.10600159776313156</v>
+        <v>-0.10150788895546237</v>
       </c>
       <c r="AO4" s="16">
         <f t="shared" si="1"/>
-        <v>7.1823512985199622E-2</v>
+        <v>6.0405668241178212E-2</v>
       </c>
       <c r="AP4" s="16">
         <f t="shared" si="1"/>
-        <v>7.774477619717568E-2</v>
+        <v>9.5168221360444338E-2</v>
       </c>
       <c r="AQ4" s="16">
         <f t="shared" si="1"/>
-        <v>0.13324952859836592</v>
+        <v>0.11972437553832904</v>
       </c>
       <c r="AR4" s="16">
         <f t="shared" si="1"/>
-        <v>9.9193651606297228E-2</v>
+        <v>7.547008547008538E-2</v>
       </c>
       <c r="AS4" s="17">
         <f>(AM4+AL4+AK4)/3</f>
@@ -4032,16 +4522,20 @@
       <c r="AM6" s="10">
         <v>13771000000</v>
       </c>
-      <c r="AS6" s="18" t="s">
+      <c r="AN6" s="33">
+        <f>AN3*AN7</f>
+        <v>11556389000</v>
+      </c>
+      <c r="AS6" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="AT6" s="19" t="s">
+      <c r="AT6" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="AU6" s="19" t="s">
+      <c r="AU6" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="AV6" s="19" t="s">
+      <c r="AV6" s="75" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4163,21 +4657,24 @@
       <c r="AM7" s="2">
         <v>0.68759999999999999</v>
       </c>
+      <c r="AN7" s="2">
+        <v>0.64219999999999999</v>
+      </c>
       <c r="AS7" s="17">
-        <f>AM7</f>
-        <v>0.68759999999999999</v>
+        <f>AN7</f>
+        <v>0.64219999999999999</v>
       </c>
       <c r="AT7" s="20">
-        <f>AM21</f>
-        <v>0.5605</v>
+        <f>AN21</f>
+        <v>0.50019449847179775</v>
       </c>
       <c r="AU7" s="20">
-        <f>AM30</f>
-        <v>0.43680000000000002</v>
+        <f>AN30</f>
+        <v>0.37415948874687416</v>
       </c>
       <c r="AV7" s="20">
-        <f>AM107/AM3</f>
-        <v>0.29573596964250048</v>
+        <f>AN107/AN3</f>
+        <v>0.23662128368991386</v>
       </c>
     </row>
     <row r="8" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -5399,16 +5896,16 @@
         <v>-1.5373103585659404E-2</v>
       </c>
       <c r="AT16" s="30">
-        <f>AU101/AM3</f>
-        <v>8.4330056776512876</v>
+        <f>AU102/AM3</f>
+        <v>7.1175704014379866</v>
       </c>
       <c r="AU16" s="30">
-        <f>AU101/AM28</f>
-        <v>19.304633410904103</v>
+        <f>AU102/AM28</f>
+        <v>16.293370670933822</v>
       </c>
       <c r="AV16" s="31">
-        <f>AU101/AM107</f>
-        <v>28.51531955292926</v>
+        <f>AU102/AM107</f>
+        <v>24.067313861218977</v>
       </c>
     </row>
     <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -5779,36 +6276,36 @@
       <c r="AM19" s="10">
         <v>11225000000</v>
       </c>
-      <c r="AN19" s="34">
-        <v>9119000000</v>
-      </c>
-      <c r="AO19" s="34">
-        <v>10130000000</v>
-      </c>
-      <c r="AP19" s="34">
-        <v>11460000000</v>
-      </c>
-      <c r="AQ19" s="34">
-        <v>13976000000</v>
-      </c>
-      <c r="AR19" s="34">
-        <v>15198000000</v>
+      <c r="AN19" s="33">
+        <v>9001000000</v>
+      </c>
+      <c r="AO19" s="33">
+        <v>9898000000</v>
+      </c>
+      <c r="AP19" s="33">
+        <v>11281000000</v>
+      </c>
+      <c r="AQ19" s="33">
+        <v>13628000000</v>
+      </c>
+      <c r="AR19" s="33">
+        <v>15078000000</v>
       </c>
       <c r="AS19" s="26">
         <f>AM40-AM56-AM61</f>
         <v>-12000000</v>
       </c>
       <c r="AT19" s="30">
-        <f>AU101/AN3</f>
-        <v>9.4329091154426141</v>
+        <f>AU102/AN3</f>
+        <v>7.921683801055849</v>
       </c>
       <c r="AU19" s="30">
-        <f>AU101/AN28</f>
-        <v>24.692432414035089</v>
+        <f>AU102/AN28</f>
+        <v>21.171944155651271</v>
       </c>
       <c r="AV19" s="31">
-        <f>AU101/AN105</f>
-        <v>24.714742455656907</v>
+        <f>AU102/AN107</f>
+        <v>33.478323156411463</v>
       </c>
     </row>
     <row r="20" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -5966,23 +6463,23 @@
       </c>
       <c r="AN20" s="16">
         <f t="shared" si="4"/>
-        <v>-0.18761692650334072</v>
+        <v>-0.19812917594654789</v>
       </c>
       <c r="AO20" s="16">
         <f t="shared" si="4"/>
-        <v>0.11086741967320979</v>
+        <v>9.9655593822908672E-2</v>
       </c>
       <c r="AP20" s="16">
         <f t="shared" si="4"/>
-        <v>0.13129318854886485</v>
+        <v>0.13972519700949682</v>
       </c>
       <c r="AQ20" s="16">
         <f t="shared" si="4"/>
-        <v>0.21954624781849907</v>
+        <v>0.20804893183228446</v>
       </c>
       <c r="AR20" s="16">
         <f t="shared" si="4"/>
-        <v>8.7435603892386915E-2</v>
+        <v>0.10639859113589667</v>
       </c>
     </row>
     <row r="21" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -6103,31 +6600,34 @@
       <c r="AM21" s="2">
         <v>0.5605</v>
       </c>
-      <c r="AN21" s="35">
+      <c r="AN21" s="34">
         <f>AN19/AN3</f>
-        <v>0.50929907846970124</v>
-      </c>
-      <c r="AO21" s="35">
+        <v>0.50019449847179775</v>
+      </c>
+      <c r="AO21" s="34">
         <f t="shared" ref="AO21:AR21" si="5">AO19/AO3</f>
-        <v>0.5278515971028086</v>
-      </c>
-      <c r="AP21" s="35">
+        <v>0.51870873074101242</v>
+      </c>
+      <c r="AP21" s="34">
         <f t="shared" si="5"/>
-        <v>0.55407822849683319</v>
-      </c>
-      <c r="AQ21" s="35">
+        <v>0.53981242224136283</v>
+      </c>
+      <c r="AQ21" s="34">
         <f t="shared" si="5"/>
-        <v>0.59627117197832669</v>
-      </c>
-      <c r="AR21" s="35">
+        <v>0.58239316239316241</v>
+      </c>
+      <c r="AR21" s="34">
         <f t="shared" si="5"/>
-        <v>0.58989287377736377</v>
+        <v>0.59914169911785742</v>
+      </c>
+      <c r="AT21" s="68" t="s">
+        <v>166</v>
       </c>
       <c r="AU21" s="18" t="s">
         <v>161</v>
       </c>
       <c r="AV21" s="19" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -6248,13 +6748,17 @@
       <c r="AM22" s="10">
         <v>10397000000</v>
       </c>
-      <c r="AU22" s="32">
-        <f>(-1*AM98)/AU101</f>
-        <v>2.5441656121003697E-2</v>
-      </c>
-      <c r="AV22" s="33">
-        <f>AM107/AU101</f>
-        <v>3.5068868793275518E-2</v>
+      <c r="AT22" s="17">
+        <f>SUM(AN29:AR29)/5</f>
+        <v>5.7951056789383351E-2</v>
+      </c>
+      <c r="AU22" s="69">
+        <f>(-1*AM98)/AU102</f>
+        <v>3.0143661167570557E-2</v>
+      </c>
+      <c r="AV22" s="32">
+        <f>AN107/AU102</f>
+        <v>2.9870074296373152E-2</v>
       </c>
     </row>
     <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -6970,20 +7474,20 @@
       <c r="AM28" s="11">
         <v>8749000000</v>
       </c>
-      <c r="AN28" s="36">
-        <v>6840000000</v>
-      </c>
-      <c r="AO28" s="36">
-        <v>7397000000</v>
-      </c>
-      <c r="AP28" s="36">
-        <v>8059000000</v>
-      </c>
-      <c r="AQ28" s="36">
-        <v>9597000000</v>
-      </c>
-      <c r="AR28" s="36">
-        <v>10629000000</v>
+      <c r="AN28" s="35">
+        <v>6733000000</v>
+      </c>
+      <c r="AO28" s="35">
+        <v>7295000000</v>
+      </c>
+      <c r="AP28" s="35">
+        <v>8615000000</v>
+      </c>
+      <c r="AQ28" s="35">
+        <v>9858000000</v>
+      </c>
+      <c r="AR28" s="35">
+        <v>10957000000</v>
       </c>
     </row>
     <row r="29" spans="1:48" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -7141,23 +7645,23 @@
       </c>
       <c r="AN29" s="16">
         <f t="shared" si="6"/>
-        <v>-0.2181963652988913</v>
+        <v>-0.23042633443822147</v>
       </c>
       <c r="AO29" s="16">
         <f t="shared" si="6"/>
-        <v>8.1432748538011746E-2</v>
+        <v>8.3469478687063781E-2</v>
       </c>
       <c r="AP29" s="16">
         <f t="shared" si="6"/>
-        <v>8.9495741516831151E-2</v>
+        <v>0.18094585332419455</v>
       </c>
       <c r="AQ29" s="16">
         <f t="shared" si="6"/>
-        <v>0.19084253629482562</v>
+        <v>0.14428322692977358</v>
       </c>
       <c r="AR29" s="16">
         <f t="shared" si="6"/>
-        <v>0.10753360425132863</v>
+        <v>0.1114830594441063</v>
       </c>
     </row>
     <row r="30" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -7278,25 +7782,25 @@
       <c r="AM30" s="2">
         <v>0.43680000000000002</v>
       </c>
-      <c r="AN30" s="37">
+      <c r="AN30" s="36">
         <f>AN28/AN3</f>
-        <v>0.38201619659313041</v>
-      </c>
-      <c r="AO30" s="37">
+        <v>0.37415948874687416</v>
+      </c>
+      <c r="AO30" s="36">
         <f t="shared" ref="AO30:AR30" si="7">AO28/AO3</f>
-        <v>0.38544109217862538</v>
-      </c>
-      <c r="AP30" s="37">
+        <v>0.38229745309715962</v>
+      </c>
+      <c r="AP30" s="36">
         <f t="shared" si="7"/>
-        <v>0.38964366871343614</v>
-      </c>
-      <c r="AQ30" s="37">
+        <v>0.41224040578045745</v>
+      </c>
+      <c r="AQ30" s="36">
         <f t="shared" si="7"/>
-        <v>0.40944579546908999</v>
-      </c>
-      <c r="AR30" s="37">
+        <v>0.42128205128205126</v>
+      </c>
+      <c r="AR30" s="36">
         <f t="shared" si="7"/>
-        <v>0.41255239869585469</v>
+        <v>0.43538901692760074</v>
       </c>
     </row>
     <row r="31" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -7417,20 +7921,20 @@
       <c r="AM31" s="12">
         <v>9.48</v>
       </c>
-      <c r="AN31" s="38">
-        <v>7.54</v>
-      </c>
-      <c r="AO31" s="38">
-        <v>8.15</v>
-      </c>
-      <c r="AP31" s="38">
-        <v>8.8800000000000008</v>
-      </c>
-      <c r="AQ31" s="38">
-        <v>10.57</v>
-      </c>
-      <c r="AR31" s="38">
-        <v>11.71</v>
+      <c r="AN31" s="37">
+        <v>7.42</v>
+      </c>
+      <c r="AO31" s="37">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="AP31" s="37">
+        <v>9.49</v>
+      </c>
+      <c r="AQ31" s="37">
+        <v>10.86</v>
+      </c>
+      <c r="AR31" s="37">
+        <v>12.07</v>
       </c>
     </row>
     <row r="32" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -13575,7 +14079,7 @@
         <v>-194000000</v>
       </c>
     </row>
-    <row r="83" spans="1:47" ht="21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>34</v>
       </c>
@@ -13693,12 +14197,8 @@
       <c r="AM83" s="1">
         <v>-847000000</v>
       </c>
-      <c r="AT83" s="66" t="s">
-        <v>125</v>
-      </c>
-      <c r="AU83" s="67"/>
     </row>
-    <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
@@ -13816,12 +14316,12 @@
       <c r="AM84" s="1">
         <v>106000000</v>
       </c>
-      <c r="AT84" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="AU84" s="68"/>
+      <c r="AT84" s="65" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU84" s="66"/>
     </row>
-    <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
@@ -13939,13 +14439,10 @@
       <c r="AM85" s="1">
         <v>22000000</v>
       </c>
-      <c r="AT85" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU85" s="40">
-        <f>AM17</f>
-        <v>214000000</v>
-      </c>
+      <c r="AT85" s="67" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU85" s="67"/>
     </row>
     <row r="86" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -14065,12 +14562,12 @@
       <c r="AM86" s="1">
         <v>-293000000</v>
       </c>
-      <c r="AT86" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="AU86" s="40">
-        <f>AM56</f>
-        <v>500000000</v>
+      <c r="AT86" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU86" s="39">
+        <f>AM17</f>
+        <v>214000000</v>
       </c>
     </row>
     <row r="87" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -14191,12 +14688,12 @@
       <c r="AM87" s="10">
         <v>8720000000</v>
       </c>
-      <c r="AT87" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU87" s="40">
-        <f>AM61</f>
-        <v>8579000000</v>
+      <c r="AT87" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU87" s="39">
+        <f>AM56</f>
+        <v>500000000</v>
       </c>
     </row>
     <row r="88" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -14317,12 +14814,12 @@
       <c r="AM88" s="1">
         <v>-2757000000</v>
       </c>
-      <c r="AT88" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU88" s="42">
-        <f>AU85/(AU86+AU87)</f>
-        <v>2.357087784998348E-2</v>
+      <c r="AT88" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="AU88" s="39">
+        <f>AM61</f>
+        <v>8579000000</v>
       </c>
     </row>
     <row r="89" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -14481,12 +14978,12 @@
         <f t="shared" si="10"/>
         <v>0.13765727980826842</v>
       </c>
-      <c r="AT89" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="AU89" s="40">
-        <f>AM27</f>
-        <v>1283000000</v>
+      <c r="AT89" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU89" s="41">
+        <f>AU86/(AU87+AU88)</f>
+        <v>2.357087784998348E-2</v>
       </c>
     </row>
     <row r="90" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -14607,12 +15104,12 @@
       <c r="AM90" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT90" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="AU90" s="40">
-        <f>AM25</f>
-        <v>10032000000</v>
+      <c r="AT90" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU90" s="39">
+        <f>AM27</f>
+        <v>1283000000</v>
       </c>
     </row>
     <row r="91" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -14733,12 +15230,12 @@
       <c r="AM91" s="1">
         <v>-14483000000</v>
       </c>
-      <c r="AT91" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="AU91" s="42">
-        <f>AU89/AU90</f>
-        <v>0.12789074960127592</v>
+      <c r="AT91" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="AU91" s="39">
+        <f>AM25</f>
+        <v>10032000000</v>
       </c>
     </row>
     <row r="92" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -14859,15 +15356,15 @@
       <c r="AM92" s="1">
         <v>13657000000</v>
       </c>
-      <c r="AT92" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="AU92" s="42">
-        <f>AU88*(1-AU91)</f>
-        <v>2.0556380612988982E-2</v>
+      <c r="AT92" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU92" s="41">
+        <f>AU90/AU91</f>
+        <v>0.12789074960127592</v>
       </c>
     </row>
-    <row r="93" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
@@ -14985,12 +15482,15 @@
       <c r="AM93" s="1">
         <v>-2757000000</v>
       </c>
-      <c r="AT93" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="AU93" s="68"/>
+      <c r="AT93" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU93" s="41">
+        <f>AU89*(1-AU92)</f>
+        <v>2.0556380612988982E-2</v>
+      </c>
     </row>
-    <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
@@ -15108,13 +15608,10 @@
       <c r="AM94" s="10">
         <v>-3583000000</v>
       </c>
-      <c r="AT94" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="AU94" s="63">
-        <f>[1]Treasuries!$C$8</f>
-        <v>3.857E-2</v>
-      </c>
+      <c r="AT94" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="AU94" s="67"/>
     </row>
     <row r="95" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -15234,12 +15731,12 @@
       <c r="AM95" s="1">
         <v>-500000000</v>
       </c>
-      <c r="AT95" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="AU95" s="45" cm="1">
-        <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>1.0087999999999999</v>
+      <c r="AT95" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU95" s="62">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.7160000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15360,11 +15857,12 @@
       <c r="AM96" s="1">
         <v>241000000</v>
       </c>
-      <c r="AT96" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="AU96" s="43">
-        <v>8.4000000000000005E-2</v>
+      <c r="AT96" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU96" s="44" cm="1">
+        <f t="array" ref="AU96">_FV(A1,"Beta")</f>
+        <v>0.98580000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15485,15 +15983,14 @@
       <c r="AM97" s="1">
         <v>-3615000000</v>
       </c>
-      <c r="AT97" s="41" t="s">
-        <v>137</v>
+      <c r="AT97" s="38" t="s">
+        <v>136</v>
       </c>
       <c r="AU97" s="42">
-        <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>8.4399784000000005E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
@@ -15611,12 +16108,15 @@
       <c r="AM98" s="1">
         <v>-4297000000</v>
       </c>
-      <c r="AT98" s="68" t="s">
-        <v>138</v>
-      </c>
-      <c r="AU98" s="68"/>
+      <c r="AT98" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU98" s="41">
+        <f>(AU95)+((AU96)*(AU97-AU95))</f>
+        <v>8.3476872000000008E-2</v>
+      </c>
     </row>
-    <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
@@ -15734,13 +16234,10 @@
       <c r="AM99" s="1">
         <v>1453000000</v>
       </c>
-      <c r="AT99" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="AU99" s="40">
-        <f>AU86+AU87</f>
-        <v>9079000000</v>
-      </c>
+      <c r="AT99" s="67" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU99" s="67"/>
     </row>
     <row r="100" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
@@ -15860,12 +16357,12 @@
       <c r="AM100" s="10">
         <v>-6718000000</v>
       </c>
-      <c r="AT100" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="AU100" s="42">
-        <f>AU99/AU103</f>
-        <v>5.1012714559154917E-2</v>
+      <c r="AT100" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU100" s="39">
+        <f>AU87+AU88</f>
+        <v>9079000000</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15986,12 +16483,12 @@
       <c r="AM101" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT101" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="AU101" s="46" cm="1">
-        <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>168896237712</v>
+      <c r="AT101" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="AU101" s="41">
+        <f>AU100/AU104</f>
+        <v>5.9876132446347909E-2</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16112,12 +16609,12 @@
       <c r="AM102" s="10">
         <v>-1581000000</v>
       </c>
-      <c r="AT102" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="AU102" s="42">
-        <f>AU101/AU103</f>
-        <v>0.9489872854408451</v>
+      <c r="AT102" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="AU102" s="45" cm="1">
+        <f t="array" ref="AU102">_FV(A1,"Market cap",TRUE)</f>
+        <v>142550700000</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16238,15 +16735,15 @@
       <c r="AM103" s="1">
         <v>4631000000</v>
       </c>
-      <c r="AT103" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="AU103" s="47">
-        <f>AU99+AU101</f>
-        <v>177975237712</v>
+      <c r="AT103" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU103" s="41">
+        <f>AU102/AU104</f>
+        <v>0.94012386755365207</v>
       </c>
     </row>
-    <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:47" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -16364,376 +16861,389 @@
       <c r="AM104" s="11">
         <v>3050000000</v>
       </c>
-      <c r="AT104" s="68" t="s">
+      <c r="AN104" s="73" t="s">
+        <v>164</v>
+      </c>
+      <c r="AO104" s="73"/>
+      <c r="AP104" s="73"/>
+      <c r="AQ104" s="73"/>
+      <c r="AR104" s="73"/>
+      <c r="AT104" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU104" s="46">
+        <f>AU100+AU102</f>
+        <v>151629700000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:47" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C105" s="1" t="e">
+        <f>(C22*(1-$AU$92))+C77+C88+C81</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D105" s="1" t="e">
+        <f>(D22*(1-$AU$92))+D77+D88+D81</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E105" s="1" t="e">
+        <f>(E22*(1-$AU$92))+E77+E88+E81</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F105" s="1">
+        <f>(F22*(1-$AU$92))+F77+F88+F81</f>
+        <v>-65748305.422647476</v>
+      </c>
+      <c r="G105" s="1">
+        <f>(G22*(1-$AU$92))+G77+G88+G81</f>
+        <v>-285674840.5103668</v>
+      </c>
+      <c r="H105" s="1">
+        <f>(H22*(1-$AU$92))+H77+H88+H81</f>
+        <v>108844796.65071774</v>
+      </c>
+      <c r="I105" s="1">
+        <f>(I22*(1-$AU$92))+I77+I88+I81</f>
+        <v>574285885.16746414</v>
+      </c>
+      <c r="J105" s="1">
+        <f>(J22*(1-$AU$92))+J77+J88+J81</f>
+        <v>6515091606.8580542</v>
+      </c>
+      <c r="K105" s="1">
+        <f>(K22*(1-$AU$92))+K77+K88+K81</f>
+        <v>7740312599.6810207</v>
+      </c>
+      <c r="L105" s="1">
+        <f>(L22*(1-$AU$92))+L77+L88+L81</f>
+        <v>551142145.13556623</v>
+      </c>
+      <c r="M105" s="1">
+        <f>(M22*(1-$AU$92))+M77+M88+M81</f>
+        <v>-1288674840.5103669</v>
+      </c>
+      <c r="N105" s="1">
+        <f>(N22*(1-$AU$92))+N77+N88+N81</f>
+        <v>388347188.99521542</v>
+      </c>
+      <c r="O105" s="1">
+        <f>(O22*(1-$AU$92))+O77+O88+O81</f>
+        <v>421971590.909091</v>
+      </c>
+      <c r="P105" s="1">
+        <f>(P22*(1-$AU$92))+P77+P88+P81</f>
+        <v>897097288.67623615</v>
+      </c>
+      <c r="Q105" s="1">
+        <f>(Q22*(1-$AU$92))+Q77+Q88+Q81</f>
+        <v>-1802136463.3173842</v>
+      </c>
+      <c r="R105" s="1">
+        <f>(R22*(1-$AU$92))+R77+R88+R81</f>
+        <v>-228567583.73205757</v>
+      </c>
+      <c r="S105" s="1">
+        <f>(S22*(1-$AU$92))+S77+S88+S81</f>
+        <v>1018167464.1148326</v>
+      </c>
+      <c r="T105" s="1">
+        <f>(T22*(1-$AU$92))+T77+T88+T81</f>
+        <v>1256585426.6347685</v>
+      </c>
+      <c r="U105" s="1">
+        <f>(U22*(1-$AU$92))+U77+U88+U81</f>
+        <v>1774745115.6299839</v>
+      </c>
+      <c r="V105" s="1">
+        <f>(V22*(1-$AU$92))+V77+V88+V81</f>
+        <v>2596056917.8628392</v>
+      </c>
+      <c r="W105" s="1">
+        <f>(W22*(1-$AU$92))+W77+W88+W81</f>
+        <v>1633391846.092504</v>
+      </c>
+      <c r="X105" s="1">
+        <f>(X22*(1-$AU$92))+X77+X88+X81</f>
+        <v>3795766048.6443381</v>
+      </c>
+      <c r="Y105" s="1">
+        <f>(Y22*(1-$AU$92))+Y77+Y88+Y81</f>
+        <v>2735330243.2216907</v>
+      </c>
+      <c r="Z105" s="1">
+        <f>(Z22*(1-$AU$92))+Z77+Z88+Z81</f>
+        <v>1796369517.5438595</v>
+      </c>
+      <c r="AA105" s="1">
+        <f>(AA22*(1-$AU$92))+AA77+AA88+AA81</f>
+        <v>3459701156.2998409</v>
+      </c>
+      <c r="AB105" s="1">
+        <f>(AB22*(1-$AU$92))+AB77+AB88+AB81</f>
+        <v>2714350877.1929827</v>
+      </c>
+      <c r="AC105" s="1">
+        <f>(AC22*(1-$AU$92))+AC77+AC88+AC81</f>
+        <v>2855671551.0366826</v>
+      </c>
+      <c r="AD105" s="1">
+        <f>(AD22*(1-$AU$92))+AD77+AD88+AD81</f>
+        <v>3139813397.1291866</v>
+      </c>
+      <c r="AE105" s="1">
+        <f>(AE22*(1-$AU$92))+AE77+AE88+AE81</f>
+        <v>4213215211.3237638</v>
+      </c>
+      <c r="AF105" s="1">
+        <f>(AF22*(1-$AU$92))+AF77+AF88+AF81</f>
+        <v>4527394936.2041473</v>
+      </c>
+      <c r="AG105" s="1">
+        <f>(AG22*(1-$AU$92))+AG77+AG88+AG81</f>
+        <v>4756252292.6634769</v>
+      </c>
+      <c r="AH105" s="1">
+        <f>(AH22*(1-$AU$92))+AH77+AH88+AH81</f>
+        <v>5960040570.1754389</v>
+      </c>
+      <c r="AI105" s="1">
+        <f>(AI22*(1-$AU$92))+AI77+AI88+AI81</f>
+        <v>6265469397.9266348</v>
+      </c>
+      <c r="AJ105" s="1">
+        <f>(AJ22*(1-$AU$92))+AJ77+AJ88+AJ81</f>
+        <v>5569081240.0318985</v>
+      </c>
+      <c r="AK105" s="1">
+        <f>(AK22*(1-$AU$92))+AK77+AK88+AK81</f>
+        <v>5023211921.8500795</v>
+      </c>
+      <c r="AL105" s="1">
+        <f>(AL22*(1-$AU$92))+AL77+AL88+AL81</f>
+        <v>6154098883.572567</v>
+      </c>
+      <c r="AM105" s="1">
+        <f>(AM22*(1-$AU$92))+AM77+AM88+AM81</f>
+        <v>6476319876.3955345</v>
+      </c>
+      <c r="AN105" s="27">
+        <f>AM105*(1+$AU$107)</f>
+        <v>6799177972.8381443</v>
+      </c>
+      <c r="AO105" s="27">
+        <f>AN105*(1+$AU$107)</f>
+        <v>7138131220.9143944</v>
+      </c>
+      <c r="AP105" s="27">
+        <f>AO105*(1+$AU$107)</f>
+        <v>7493981997.6096048</v>
+      </c>
+      <c r="AQ105" s="27">
+        <f>AP105*(1+$AU$107)</f>
+        <v>7867572680.0806532</v>
+      </c>
+      <c r="AR105" s="27">
+        <f>AQ105*(1+$AU$107)</f>
+        <v>8259787639.7482176</v>
+      </c>
+      <c r="AS105" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="AT105" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="AU104" s="68"/>
+      <c r="AU105" s="67"/>
     </row>
-    <row r="105" spans="1:47" ht="21" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="C105" s="1" t="e">
-        <f t="shared" ref="C105:AL105" si="11">(C22*(1-$AU$91))+C77+C88+C81</f>
+    <row r="106" spans="1:47" ht="20" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15" t="e">
+        <f t="shared" ref="C106:AM106" si="11">(C107/B107)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D105" s="1" t="e">
+      <c r="D106" s="15" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E105" s="1" t="e">
+      <c r="E106" s="15" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F105" s="1">
+      <c r="F106" s="15" t="e">
         <f t="shared" si="11"/>
-        <v>-65748305.422647476</v>
-      </c>
-      <c r="G105" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G106" s="15">
         <f t="shared" si="11"/>
-        <v>-285674840.5103668</v>
-      </c>
-      <c r="H105" s="1">
+        <v>2.359375</v>
+      </c>
+      <c r="H106" s="15">
         <f t="shared" si="11"/>
-        <v>108844796.65071774</v>
-      </c>
-      <c r="I105" s="1">
+        <v>-0.59534883720930232</v>
+      </c>
+      <c r="I106" s="15">
         <f t="shared" si="11"/>
-        <v>574285885.16746414</v>
-      </c>
-      <c r="J105" s="1">
+        <v>-5.2758620689655169</v>
+      </c>
+      <c r="J106" s="15">
         <f t="shared" si="11"/>
-        <v>6515091606.8580542</v>
-      </c>
-      <c r="K105" s="1">
+        <v>-0.45161290322580649</v>
+      </c>
+      <c r="K106" s="15">
         <f t="shared" si="11"/>
-        <v>7740312599.6810207</v>
-      </c>
-      <c r="L105" s="1">
+        <v>1.2352941176470589</v>
+      </c>
+      <c r="L106" s="15">
         <f t="shared" si="11"/>
-        <v>551142145.13556623</v>
-      </c>
-      <c r="M105" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="M106" s="15">
         <f t="shared" si="11"/>
-        <v>-1288674840.5103669</v>
-      </c>
-      <c r="N105" s="1">
+        <v>-6.1710526315789478</v>
+      </c>
+      <c r="N106" s="15">
         <f t="shared" si="11"/>
-        <v>388347188.99521542</v>
-      </c>
-      <c r="O105" s="1">
+        <v>-1.5750636132315523</v>
+      </c>
+      <c r="O106" s="15">
         <f t="shared" si="11"/>
-        <v>421971590.909091</v>
-      </c>
-      <c r="P105" s="1">
+        <v>-0.67551622418879054</v>
+      </c>
+      <c r="P106" s="15">
         <f t="shared" si="11"/>
-        <v>897097288.67623615</v>
-      </c>
-      <c r="Q105" s="1">
+        <v>1.9818181818181819</v>
+      </c>
+      <c r="Q106" s="15">
         <f t="shared" si="11"/>
-        <v>-1802136463.3173842</v>
-      </c>
-      <c r="R105" s="1">
+        <v>-1.8795731707317072</v>
+      </c>
+      <c r="R106" s="15">
         <f t="shared" si="11"/>
-        <v>-228567583.73205757</v>
-      </c>
-      <c r="S105" s="1">
+        <v>-1.050259965337955</v>
+      </c>
+      <c r="S106" s="15">
         <f t="shared" si="11"/>
-        <v>1018167464.1148326</v>
-      </c>
-      <c r="T105" s="1">
+        <v>40.03448275862069</v>
+      </c>
+      <c r="T106" s="15">
         <f t="shared" si="11"/>
-        <v>1256585426.6347685</v>
-      </c>
-      <c r="U105" s="1">
+        <v>0.13529411764705879</v>
+      </c>
+      <c r="U106" s="15">
         <f t="shared" si="11"/>
-        <v>1774745115.6299839</v>
-      </c>
-      <c r="V105" s="1">
+        <v>0.36787564766839376</v>
+      </c>
+      <c r="V106" s="15">
         <f t="shared" si="11"/>
-        <v>2596056917.8628392</v>
-      </c>
-      <c r="W105" s="1">
+        <v>0.3214285714285714</v>
+      </c>
+      <c r="W106" s="15">
         <f t="shared" si="11"/>
-        <v>1633391846.092504</v>
-      </c>
-      <c r="X105" s="1">
+        <v>-0.51351351351351349</v>
+      </c>
+      <c r="X106" s="15">
         <f t="shared" si="11"/>
-        <v>3795766048.6443381</v>
-      </c>
-      <c r="Y105" s="1">
+        <v>2.1313131313131315</v>
+      </c>
+      <c r="Y106" s="15">
         <f t="shared" si="11"/>
-        <v>2735330243.2216907</v>
-      </c>
-      <c r="Z105" s="1">
+        <v>-0.30994623655913978</v>
+      </c>
+      <c r="Z106" s="15">
         <f t="shared" si="11"/>
-        <v>1796369517.5438595</v>
-      </c>
-      <c r="AA105" s="1">
+        <v>-0.26373198285936894</v>
+      </c>
+      <c r="AA106" s="15">
         <f t="shared" si="11"/>
-        <v>3459701156.2998409</v>
-      </c>
-      <c r="AB105" s="1">
+        <v>0.38677248677248688</v>
+      </c>
+      <c r="AB106" s="15">
         <f t="shared" si="11"/>
-        <v>2714350877.1929827</v>
-      </c>
-      <c r="AC105" s="1">
+        <v>-6.9057611598626445E-2</v>
+      </c>
+      <c r="AC106" s="15">
         <f t="shared" si="11"/>
-        <v>2855671551.0366826</v>
-      </c>
-      <c r="AD105" s="1">
+        <v>0.19631147540983607</v>
+      </c>
+      <c r="AD106" s="15">
         <f t="shared" si="11"/>
-        <v>3139813397.1291866</v>
-      </c>
-      <c r="AE105" s="1">
+        <v>1.8156903048989426E-2</v>
+      </c>
+      <c r="AE106" s="15">
         <f t="shared" si="11"/>
-        <v>4213215211.3237638</v>
-      </c>
-      <c r="AF105" s="1">
+        <v>0.18001345895020182</v>
+      </c>
+      <c r="AF106" s="15">
         <f t="shared" si="11"/>
-        <v>4527394936.2041473</v>
-      </c>
-      <c r="AG105" s="1">
+        <v>5.9880239520958112E-2</v>
+      </c>
+      <c r="AG106" s="15">
         <f t="shared" si="11"/>
-        <v>4756252292.6634769</v>
-      </c>
-      <c r="AH105" s="1">
+        <v>9.846650524616618E-2</v>
+      </c>
+      <c r="AH106" s="15">
         <f t="shared" si="11"/>
-        <v>5960040570.1754389</v>
-      </c>
-      <c r="AI105" s="1">
+        <v>0.14327700220426154</v>
+      </c>
+      <c r="AI106" s="15">
         <f t="shared" si="11"/>
-        <v>6265469397.9266348</v>
-      </c>
-      <c r="AJ105" s="1">
+        <v>0.29777206512425014</v>
+      </c>
+      <c r="AJ106" s="15">
         <f t="shared" si="11"/>
-        <v>5569081240.0318985</v>
-      </c>
-      <c r="AK105" s="1">
+        <v>-4.2258171013535795E-2</v>
+      </c>
+      <c r="AK106" s="15">
         <f t="shared" si="11"/>
-        <v>5023211921.8500795</v>
-      </c>
-      <c r="AL105" s="1">
+        <v>-5.3774560496380519E-2</v>
+      </c>
+      <c r="AL106" s="15">
         <f t="shared" si="11"/>
-        <v>6154098883.572567</v>
-      </c>
-      <c r="AM105" s="1">
-        <f>(AM22*(1-$AU$91))+AM77+AM88+AM81</f>
-        <v>6476319876.3955345</v>
-      </c>
-      <c r="AN105" s="27">
-        <f>AM105*(1+$AU$106)</f>
-        <v>6833825519.9313917</v>
-      </c>
-      <c r="AO105" s="27">
-        <f t="shared" ref="AO105:AR105" si="12">AN105*(1+$AU$106)</f>
-        <v>7211066180.8226805</v>
-      </c>
-      <c r="AP105" s="27">
-        <f t="shared" si="12"/>
-        <v>7609131270.9907532</v>
-      </c>
-      <c r="AQ105" s="27">
-        <f t="shared" si="12"/>
-        <v>8029170340.0458755</v>
-      </c>
-      <c r="AR105" s="27">
-        <f t="shared" si="12"/>
-        <v>8472396395.0063839</v>
-      </c>
-      <c r="AS105" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="AT105" s="48" t="s">
+        <v>0.14644808743169402</v>
+      </c>
+      <c r="AM106" s="15">
+        <f t="shared" si="11"/>
+        <v>-5.8945027009850604E-2</v>
+      </c>
+      <c r="AN106" s="70">
+        <f>(AN107/AM107)-1</f>
+        <v>-0.28110754685125783</v>
+      </c>
+      <c r="AO106" s="70">
+        <f>(AO107/AN107)-1</f>
+        <v>-7.1395021136683834E-2</v>
+      </c>
+      <c r="AP106" s="70">
+        <f>(AP107/AO107)-1</f>
+        <v>0.30551340414769856</v>
+      </c>
+      <c r="AQ106" s="70">
+        <f>(AQ107/AP107)-1</f>
+        <v>0.3287485470747773</v>
+      </c>
+      <c r="AR106" s="70">
+        <f>(AR107/AQ107)-1</f>
+        <v>0.50677941390873316</v>
+      </c>
+      <c r="AS106" s="71">
+        <f>SUM(AN106:AR106)/5</f>
+        <v>0.15770775942865348</v>
+      </c>
+      <c r="AT106" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="AU105" s="49">
-        <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>8.1142958686533428E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="B106" s="1"/>
-      <c r="C106" s="15" t="e">
-        <f t="shared" ref="C106:AM106" si="13">(C107/B107)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D106" s="15" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E106" s="15" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F106" s="15" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G106" s="15">
-        <f t="shared" si="13"/>
-        <v>2.359375</v>
-      </c>
-      <c r="H106" s="15">
-        <f t="shared" si="13"/>
-        <v>-0.59534883720930232</v>
-      </c>
-      <c r="I106" s="15">
-        <f t="shared" si="13"/>
-        <v>-5.2758620689655169</v>
-      </c>
-      <c r="J106" s="15">
-        <f t="shared" si="13"/>
-        <v>-0.45161290322580649</v>
-      </c>
-      <c r="K106" s="15">
-        <f t="shared" si="13"/>
-        <v>1.2352941176470589</v>
-      </c>
-      <c r="L106" s="15">
-        <f t="shared" si="13"/>
-        <v>-0.5</v>
-      </c>
-      <c r="M106" s="15">
-        <f t="shared" si="13"/>
-        <v>-6.1710526315789478</v>
-      </c>
-      <c r="N106" s="15">
-        <f t="shared" si="13"/>
-        <v>-1.5750636132315523</v>
-      </c>
-      <c r="O106" s="15">
-        <f t="shared" si="13"/>
-        <v>-0.67551622418879054</v>
-      </c>
-      <c r="P106" s="15">
-        <f t="shared" si="13"/>
-        <v>1.9818181818181819</v>
-      </c>
-      <c r="Q106" s="15">
-        <f t="shared" si="13"/>
-        <v>-1.8795731707317072</v>
-      </c>
-      <c r="R106" s="15">
-        <f t="shared" si="13"/>
-        <v>-1.050259965337955</v>
-      </c>
-      <c r="S106" s="15">
-        <f t="shared" si="13"/>
-        <v>40.03448275862069</v>
-      </c>
-      <c r="T106" s="15">
-        <f t="shared" si="13"/>
-        <v>0.13529411764705879</v>
-      </c>
-      <c r="U106" s="15">
-        <f t="shared" si="13"/>
-        <v>0.36787564766839376</v>
-      </c>
-      <c r="V106" s="15">
-        <f t="shared" si="13"/>
-        <v>0.3214285714285714</v>
-      </c>
-      <c r="W106" s="15">
-        <f t="shared" si="13"/>
-        <v>-0.51351351351351349</v>
-      </c>
-      <c r="X106" s="15">
-        <f t="shared" si="13"/>
-        <v>2.1313131313131315</v>
-      </c>
-      <c r="Y106" s="15">
-        <f t="shared" si="13"/>
-        <v>-0.30994623655913978</v>
-      </c>
-      <c r="Z106" s="15">
-        <f t="shared" si="13"/>
-        <v>-0.26373198285936894</v>
-      </c>
-      <c r="AA106" s="15">
-        <f t="shared" si="13"/>
-        <v>0.38677248677248688</v>
-      </c>
-      <c r="AB106" s="15">
-        <f t="shared" si="13"/>
-        <v>-6.9057611598626445E-2</v>
-      </c>
-      <c r="AC106" s="15">
-        <f t="shared" si="13"/>
-        <v>0.19631147540983607</v>
-      </c>
-      <c r="AD106" s="15">
-        <f t="shared" si="13"/>
-        <v>1.8156903048989426E-2</v>
-      </c>
-      <c r="AE106" s="15">
-        <f t="shared" si="13"/>
-        <v>0.18001345895020182</v>
-      </c>
-      <c r="AF106" s="15">
-        <f t="shared" si="13"/>
-        <v>5.9880239520958112E-2</v>
-      </c>
-      <c r="AG106" s="15">
-        <f t="shared" si="13"/>
-        <v>9.846650524616618E-2</v>
-      </c>
-      <c r="AH106" s="15">
-        <f t="shared" si="13"/>
-        <v>0.14327700220426154</v>
-      </c>
-      <c r="AI106" s="15">
-        <f t="shared" si="13"/>
-        <v>0.29777206512425014</v>
-      </c>
-      <c r="AJ106" s="15">
-        <f t="shared" si="13"/>
-        <v>-4.2258171013535795E-2</v>
-      </c>
-      <c r="AK106" s="15">
-        <f t="shared" si="13"/>
-        <v>-5.3774560496380519E-2</v>
-      </c>
-      <c r="AL106" s="15">
-        <f t="shared" si="13"/>
-        <v>0.14644808743169402</v>
-      </c>
-      <c r="AM106" s="15">
-        <f t="shared" si="13"/>
-        <v>-5.8945027009850604E-2</v>
-      </c>
-      <c r="AN106" s="62">
-        <v>4258000000</v>
-      </c>
-      <c r="AO106" s="62">
-        <v>3954000000</v>
-      </c>
-      <c r="AP106" s="62">
-        <v>5162000000</v>
-      </c>
-      <c r="AQ106" s="62">
-        <v>6859000000</v>
-      </c>
-      <c r="AR106" s="62">
-        <v>10335000000</v>
-      </c>
-      <c r="AS106" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="AT106" s="50" t="s">
-        <v>145</v>
-      </c>
-      <c r="AU106" s="51">
-        <f>(SUM(AN4:AR4)/5)</f>
-        <v>5.5201974324781376E-2</v>
+      <c r="AU106" s="48">
+        <f>(AU101*AU93)+(AU103*AU98)</f>
+        <v>7.9709436324122029E-2</v>
       </c>
     </row>
     <row r="107" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="61" t="s">
-        <v>164</v>
+      <c r="A107" s="60" t="s">
+        <v>163</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>91</v>
@@ -16849,151 +17359,179 @@
       <c r="AM107" s="1">
         <v>5923000000</v>
       </c>
-      <c r="AN107" s="28"/>
-      <c r="AO107" s="28"/>
-      <c r="AP107" s="28"/>
-      <c r="AQ107" s="28"/>
-      <c r="AR107" s="64">
-        <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>188685727432.83212</v>
-      </c>
-      <c r="AS107" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="AT107" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="AU107" s="53">
-        <v>2.5000000000000001E-2</v>
+      <c r="AN107" s="61">
+        <v>4258000000</v>
+      </c>
+      <c r="AO107" s="61">
+        <v>3954000000</v>
+      </c>
+      <c r="AP107" s="61">
+        <v>5162000000</v>
+      </c>
+      <c r="AQ107" s="61">
+        <v>6859000000</v>
+      </c>
+      <c r="AR107" s="61">
+        <v>10335000000</v>
+      </c>
+      <c r="AS107" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT107" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="AU107" s="50">
+        <f>(SUM(AN4:AR4)/5)</f>
+        <v>4.9852092330914921E-2</v>
       </c>
     </row>
     <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN108" s="64">
-        <f t="shared" ref="AN108:AQ108" si="14">AN107+AN106</f>
-        <v>4258000000</v>
-      </c>
-      <c r="AO108" s="64">
-        <f t="shared" si="14"/>
-        <v>3954000000</v>
-      </c>
-      <c r="AP108" s="64">
-        <f t="shared" si="14"/>
-        <v>5162000000</v>
-      </c>
-      <c r="AQ108" s="64">
-        <f t="shared" si="14"/>
-        <v>6859000000</v>
-      </c>
-      <c r="AR108" s="64">
-        <f>AR107+AR106</f>
-        <v>199020727432.83212</v>
+      <c r="AN108" s="28"/>
+      <c r="AO108" s="28"/>
+      <c r="AP108" s="28"/>
+      <c r="AQ108" s="28"/>
+      <c r="AR108" s="63">
+        <f>AR107*(1+AU108)/(AU109-AU108)</f>
+        <v>176549983536.54291</v>
       </c>
       <c r="AS108" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="AT108" s="54" t="s">
-        <v>148</v>
-      </c>
-      <c r="AU108" s="51">
-        <f>AU105</f>
-        <v>8.1142958686533428E-2</v>
+        <v>146</v>
+      </c>
+      <c r="AT108" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU108" s="52">
+        <v>0.02</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="65" t="s">
+      <c r="AN109" s="63">
+        <f t="shared" ref="AN109:AQ109" si="12">AN108+AN107</f>
+        <v>4258000000</v>
+      </c>
+      <c r="AO109" s="63">
+        <f t="shared" si="12"/>
+        <v>3954000000</v>
+      </c>
+      <c r="AP109" s="63">
+        <f t="shared" si="12"/>
+        <v>5162000000</v>
+      </c>
+      <c r="AQ109" s="63">
+        <f t="shared" si="12"/>
+        <v>6859000000</v>
+      </c>
+      <c r="AR109" s="63">
+        <f>AR108+AR107</f>
+        <v>186884983536.54291</v>
+      </c>
+      <c r="AS109" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT109" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="AU109" s="50">
+        <f>AU106</f>
+        <v>7.9709436324122029E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+      <c r="AN110" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="AO109" s="65"/>
-    </row>
-    <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN110" s="55" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO110" s="46">
-        <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>151161944083.55319</v>
-      </c>
+      <c r="AO110" s="64"/>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN111" s="55" t="s">
+      <c r="AN111" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO111" s="45">
+        <f>NPV(AU109,AN109,AO109,AP109,AQ109,AR109)</f>
+        <v>143845481305.29346</v>
+      </c>
+    </row>
+    <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.25">
+      <c r="AN112" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="AO111" s="46">
+      <c r="AO112" s="45">
         <f>AM40</f>
         <v>9067000000</v>
       </c>
     </row>
-    <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN112" s="55" t="s">
+    <row r="113" spans="40:41" ht="20" x14ac:dyDescent="0.25">
+      <c r="AN113" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="AO112" s="46">
-        <f>AU99</f>
+      <c r="AO113" s="45">
+        <f>AU100</f>
         <v>9079000000</v>
-      </c>
-    </row>
-    <row r="113" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN113" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="AO113" s="46">
-        <f>AO110+AO111-AO112</f>
-        <v>151149944083.55319</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN114" s="55" t="s">
+      <c r="AN114" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO114" s="45">
+        <f>AO111+AO112-AO113</f>
+        <v>143833481305.29346</v>
+      </c>
+    </row>
+    <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
+      <c r="AN115" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="AO114" s="55">
+      <c r="AO115" s="54">
         <f>AM34*(1+(5*AS16))</f>
         <v>864053875.21911407</v>
-      </c>
-    </row>
-    <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN115" s="56" t="s">
-        <v>154</v>
-      </c>
-      <c r="AO115" s="57">
-        <f>AO113/AO114</f>
-        <v>174.9311569781726</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
       <c r="AN116" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="AO116" s="58" cm="1">
-        <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>186.08</v>
+        <v>154</v>
+      </c>
+      <c r="AO116" s="56">
+        <f>AO114/AO115</f>
+        <v>166.46355676469705</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN117" s="56" t="s">
-        <v>156</v>
-      </c>
-      <c r="AO117" s="59">
-        <f>AO115/AO116-1</f>
-        <v>-5.9914246677920335E-2</v>
+      <c r="AN117" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO117" s="57" cm="1">
+        <f t="array" ref="AO117">_FV(A1,"Price")</f>
+        <v>157</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN118" s="56" t="s">
+      <c r="AN118" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="AO118" s="58">
+        <f>AO116/AO117-1</f>
+        <v>6.027743162227428E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="40:41" ht="20" x14ac:dyDescent="0.25">
+      <c r="AN119" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="AO118" s="60" t="str">
-        <f>IF(AO115&gt;AO116,"BUY","SELL")</f>
-        <v>SELL</v>
+      <c r="AO119" s="59" t="str">
+        <f>IF(AO116&gt;AO117,"BUY","SELL")</f>
+        <v>BUY</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="AN109:AO109"/>
-    <mergeCell ref="AT83:AU83"/>
+  <mergeCells count="7">
+    <mergeCell ref="AN110:AO110"/>
+    <mergeCell ref="AN104:AR104"/>
+    <mergeCell ref="AT105:AU105"/>
+    <mergeCell ref="AT99:AU99"/>
+    <mergeCell ref="AT94:AU94"/>
     <mergeCell ref="AT84:AU84"/>
-    <mergeCell ref="AT93:AU93"/>
-    <mergeCell ref="AT98:AU98"/>
-    <mergeCell ref="AT104:AU104"/>
+    <mergeCell ref="AT85:AU85"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/TXN" display="ROIC.AI | TXN" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -17074,7 +17612,7 @@
     <hyperlink ref="AM36" r:id="rId76" tooltip="https://www.sec.gov/Archives/edgar/data/97476/000009747623000007/0000097476-23-000007-index.htm" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
     <hyperlink ref="AM74" r:id="rId77" tooltip="https://www.sec.gov/Archives/edgar/data/97476/000009747623000007/0000097476-23-000007-index.htm" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
     <hyperlink ref="AN1" r:id="rId78" display="https://finbox.com/NASDAQGS:TXN/explorer/revenue_proj" xr:uid="{840878A7-6EAF-7A42-9AE5-819C4A3AE305}"/>
-    <hyperlink ref="AS106" r:id="rId79" xr:uid="{DBDB8F88-6134-A343-93FB-F7CA808E97DA}"/>
+    <hyperlink ref="AS107" r:id="rId79" xr:uid="{DBDB8F88-6134-A343-93FB-F7CA808E97DA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId80"/>

--- a/Technology/Hardware/Texas Instruments.xlsx
+++ b/Technology/Hardware/Texas Instruments.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39558EEE-2841-4340-866F-F4B55469C298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA44440A-CB29-F242-A818-D4FC3E0D83FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="168">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -567,9 +567,6 @@
     <t>Levered FCF</t>
   </si>
   <si>
-    <t>Unlevered FCF Proj</t>
-  </si>
-  <si>
     <t>Unlevered FCF Forecast</t>
   </si>
   <si>
@@ -943,7 +940,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1012,18 +1008,6 @@
     <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1039,14 +1023,29 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2887,18 +2886,18 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Technology - Software"/>
-      <sheetName val="Technology - Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Commodity Stocks"/>
-      <sheetName val="Full Portfolio"/>
+      <sheetName val="Commodities"/>
+      <sheetName val="US Treasury Bonds"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="Growth"/>
-      <sheetName val="ROIC"/>
+      <sheetName val="Value"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -2912,15 +2911,15 @@
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9">
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.7160000000000001E-2</v>
+            <v>4.845E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
@@ -3053,12 +3052,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>188.12</v>
-    <v>145.97</v>
-    <v>0.98580000000000001</v>
-    <v>1.89</v>
-    <v>1.2185E-2</v>
-    <v>0.7</v>
-    <v>4.4590000000000003E-3</v>
+    <v>140.13</v>
+    <v>1.0028999999999999</v>
+    <v>-0.89</v>
+    <v>-6.1799999999999997E-3</v>
+    <v>-0.06</v>
+    <v>-4.192E-4</v>
     <v>USD</v>
     <v>Texas Instruments Incorporated designs, makes and sells semiconductors to electronics designers and manufacturers across the world. The Company operates through two segments: Analog and Embedded Processing. The Company's Analog segment product lines include Power and Signal Chain. Power includes products that help customers manage power in electronic systems. Its broad portfolio is designed to manage power requirements across different voltage levels, including battery-management solutions, direct current (DC)/DC switching regulators, alternating current (AC)/DC and isolated controllers and converters, power switches, linear regulators, voltage references and lighting products. Signal Chain includes products that sense, condition, and measure signals to allow information to be transferred or converted for further processing and control. The Embedded Processing segment includes microcontrollers, digital signal processors (DSPs), and applications processors.</v>
     <v>33000</v>
@@ -3066,25 +3065,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>12500 T I Blvd, DALLAS, TX, 75243-0592 US</v>
-    <v>158.1</v>
+    <v>145.09059999999999</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45205.999653622654</v>
+    <v>45226.996108356252</v>
     <v>0</v>
-    <v>153.56</v>
-    <v>142550700000</v>
+    <v>142.35</v>
+    <v>129982200000</v>
     <v>TEXAS INSTRUMENTS INCORPORATED</v>
     <v>TEXAS INSTRUMENTS INCORPORATED</v>
-    <v>154.27000000000001</v>
-    <v>18.8444</v>
-    <v>155.11000000000001</v>
-    <v>157</v>
-    <v>157.69999999999999</v>
-    <v>907966300</v>
+    <v>144.88</v>
+    <v>18.3904</v>
+    <v>144.01</v>
+    <v>143.12</v>
+    <v>143.06</v>
+    <v>908204100</v>
     <v>TXN</v>
     <v>TEXAS INSTRUMENTS INCORPORATED (XNAS:TXN)</v>
-    <v>5016308</v>
-    <v>4126448</v>
+    <v>5327541</v>
+    <v>4913778</v>
     <v>1938</v>
   </rv>
   <rv s="2">
@@ -3672,10 +3671,10 @@
   <dimension ref="A1:AV119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK100" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AT133" sqref="AT133"/>
+      <selection pane="bottomRight" activeCell="AO101" sqref="AO101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4522,20 +4521,20 @@
       <c r="AM6" s="10">
         <v>13771000000</v>
       </c>
-      <c r="AN6" s="33">
+      <c r="AN6" s="32">
         <f>AN3*AN7</f>
         <v>11556389000</v>
       </c>
-      <c r="AS6" s="74" t="s">
+      <c r="AS6" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="AT6" s="75" t="s">
+      <c r="AT6" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="AU6" s="75" t="s">
+      <c r="AU6" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="AV6" s="75" t="s">
+      <c r="AV6" s="69" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5895,17 +5894,17 @@
         <f>(AM35+AL35+AK35+AJ35+AI35)/5</f>
         <v>-1.5373103585659404E-2</v>
       </c>
-      <c r="AT16" s="30">
+      <c r="AT16" s="29">
         <f>AU102/AM3</f>
-        <v>7.1175704014379866</v>
-      </c>
-      <c r="AU16" s="30">
+        <v>6.4900239664469739</v>
+      </c>
+      <c r="AU16" s="29">
         <f>AU102/AM28</f>
-        <v>16.293370670933822</v>
-      </c>
-      <c r="AV16" s="31">
+        <v>14.856806492170534</v>
+      </c>
+      <c r="AV16" s="30">
         <f>AU102/AM107</f>
-        <v>24.067313861218977</v>
+        <v>21.945331757555294</v>
       </c>
     </row>
     <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -6276,36 +6275,36 @@
       <c r="AM19" s="10">
         <v>11225000000</v>
       </c>
-      <c r="AN19" s="33">
+      <c r="AN19" s="32">
         <v>9001000000</v>
       </c>
-      <c r="AO19" s="33">
+      <c r="AO19" s="32">
         <v>9898000000</v>
       </c>
-      <c r="AP19" s="33">
+      <c r="AP19" s="32">
         <v>11281000000</v>
       </c>
-      <c r="AQ19" s="33">
+      <c r="AQ19" s="32">
         <v>13628000000</v>
       </c>
-      <c r="AR19" s="33">
+      <c r="AR19" s="32">
         <v>15078000000</v>
       </c>
       <c r="AS19" s="26">
         <f>AM40-AM56-AM61</f>
         <v>-12000000</v>
       </c>
-      <c r="AT19" s="30">
+      <c r="AT19" s="29">
         <f>AU102/AN3</f>
-        <v>7.921683801055849</v>
-      </c>
-      <c r="AU19" s="30">
+        <v>7.2232397888302309</v>
+      </c>
+      <c r="AU19" s="29">
         <f>AU102/AN28</f>
-        <v>21.171944155651271</v>
-      </c>
-      <c r="AV19" s="31">
+        <v>19.305242833803653</v>
+      </c>
+      <c r="AV19" s="30">
         <f>AU102/AN107</f>
-        <v>33.478323156411463</v>
+        <v>30.526585251291685</v>
       </c>
     </row>
     <row r="20" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6600,34 +6599,34 @@
       <c r="AM21" s="2">
         <v>0.5605</v>
       </c>
-      <c r="AN21" s="34">
+      <c r="AN21" s="33">
         <f>AN19/AN3</f>
         <v>0.50019449847179775</v>
       </c>
-      <c r="AO21" s="34">
+      <c r="AO21" s="33">
         <f t="shared" ref="AO21:AR21" si="5">AO19/AO3</f>
         <v>0.51870873074101242</v>
       </c>
-      <c r="AP21" s="34">
+      <c r="AP21" s="33">
         <f t="shared" si="5"/>
         <v>0.53981242224136283</v>
       </c>
-      <c r="AQ21" s="34">
+      <c r="AQ21" s="33">
         <f t="shared" si="5"/>
         <v>0.58239316239316241</v>
       </c>
-      <c r="AR21" s="34">
+      <c r="AR21" s="33">
         <f t="shared" si="5"/>
         <v>0.59914169911785742</v>
       </c>
-      <c r="AT21" s="68" t="s">
-        <v>166</v>
+      <c r="AT21" s="63" t="s">
+        <v>165</v>
       </c>
       <c r="AU21" s="18" t="s">
         <v>161</v>
       </c>
       <c r="AV21" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -6752,13 +6751,13 @@
         <f>SUM(AN29:AR29)/5</f>
         <v>5.7951056789383351E-2</v>
       </c>
-      <c r="AU22" s="69">
+      <c r="AU22" s="64">
         <f>(-1*AM98)/AU102</f>
-        <v>3.0143661167570557E-2</v>
-      </c>
-      <c r="AV22" s="32">
+        <v>3.30583726079417E-2</v>
+      </c>
+      <c r="AV22" s="31">
         <f>AN107/AU102</f>
-        <v>2.9870074296373152E-2</v>
+        <v>3.275833152539348E-2</v>
       </c>
     </row>
     <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -7474,19 +7473,19 @@
       <c r="AM28" s="11">
         <v>8749000000</v>
       </c>
-      <c r="AN28" s="35">
+      <c r="AN28" s="34">
         <v>6733000000</v>
       </c>
-      <c r="AO28" s="35">
+      <c r="AO28" s="34">
         <v>7295000000</v>
       </c>
-      <c r="AP28" s="35">
+      <c r="AP28" s="34">
         <v>8615000000</v>
       </c>
-      <c r="AQ28" s="35">
+      <c r="AQ28" s="34">
         <v>9858000000</v>
       </c>
-      <c r="AR28" s="35">
+      <c r="AR28" s="34">
         <v>10957000000</v>
       </c>
     </row>
@@ -7782,23 +7781,23 @@
       <c r="AM30" s="2">
         <v>0.43680000000000002</v>
       </c>
-      <c r="AN30" s="36">
+      <c r="AN30" s="35">
         <f>AN28/AN3</f>
         <v>0.37415948874687416</v>
       </c>
-      <c r="AO30" s="36">
+      <c r="AO30" s="35">
         <f t="shared" ref="AO30:AR30" si="7">AO28/AO3</f>
         <v>0.38229745309715962</v>
       </c>
-      <c r="AP30" s="36">
+      <c r="AP30" s="35">
         <f t="shared" si="7"/>
         <v>0.41224040578045745</v>
       </c>
-      <c r="AQ30" s="36">
+      <c r="AQ30" s="35">
         <f t="shared" si="7"/>
         <v>0.42128205128205126</v>
       </c>
-      <c r="AR30" s="36">
+      <c r="AR30" s="35">
         <f t="shared" si="7"/>
         <v>0.43538901692760074</v>
       </c>
@@ -7921,19 +7920,19 @@
       <c r="AM31" s="12">
         <v>9.48</v>
       </c>
-      <c r="AN31" s="37">
+      <c r="AN31" s="36">
         <v>7.42</v>
       </c>
-      <c r="AO31" s="37">
+      <c r="AO31" s="36">
         <v>8.0299999999999994</v>
       </c>
-      <c r="AP31" s="37">
+      <c r="AP31" s="36">
         <v>9.49</v>
       </c>
-      <c r="AQ31" s="37">
+      <c r="AQ31" s="36">
         <v>10.86</v>
       </c>
-      <c r="AR31" s="37">
+      <c r="AR31" s="36">
         <v>12.07</v>
       </c>
     </row>
@@ -14316,10 +14315,10 @@
       <c r="AM84" s="1">
         <v>106000000</v>
       </c>
-      <c r="AT84" s="65" t="s">
+      <c r="AT84" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="AU84" s="66"/>
+      <c r="AU84" s="72"/>
     </row>
     <row r="85" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -14439,10 +14438,10 @@
       <c r="AM85" s="1">
         <v>22000000</v>
       </c>
-      <c r="AT85" s="67" t="s">
+      <c r="AT85" s="73" t="s">
         <v>126</v>
       </c>
-      <c r="AU85" s="67"/>
+      <c r="AU85" s="73"/>
     </row>
     <row r="86" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -14562,10 +14561,10 @@
       <c r="AM86" s="1">
         <v>-293000000</v>
       </c>
-      <c r="AT86" s="38" t="s">
+      <c r="AT86" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="AU86" s="39">
+      <c r="AU86" s="38">
         <f>AM17</f>
         <v>214000000</v>
       </c>
@@ -14688,10 +14687,10 @@
       <c r="AM87" s="10">
         <v>8720000000</v>
       </c>
-      <c r="AT87" s="38" t="s">
+      <c r="AT87" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="AU87" s="39">
+      <c r="AU87" s="38">
         <f>AM56</f>
         <v>500000000</v>
       </c>
@@ -14814,10 +14813,10 @@
       <c r="AM88" s="1">
         <v>-2757000000</v>
       </c>
-      <c r="AT88" s="38" t="s">
+      <c r="AT88" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="AU88" s="39">
+      <c r="AU88" s="38">
         <f>AM61</f>
         <v>8579000000</v>
       </c>
@@ -14978,10 +14977,10 @@
         <f t="shared" si="10"/>
         <v>0.13765727980826842</v>
       </c>
-      <c r="AT89" s="40" t="s">
+      <c r="AT89" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="AU89" s="41">
+      <c r="AU89" s="40">
         <f>AU86/(AU87+AU88)</f>
         <v>2.357087784998348E-2</v>
       </c>
@@ -15104,10 +15103,10 @@
       <c r="AM90" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT90" s="38" t="s">
+      <c r="AT90" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="AU90" s="39">
+      <c r="AU90" s="38">
         <f>AM27</f>
         <v>1283000000</v>
       </c>
@@ -15230,10 +15229,10 @@
       <c r="AM91" s="1">
         <v>-14483000000</v>
       </c>
-      <c r="AT91" s="38" t="s">
+      <c r="AT91" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="AU91" s="39">
+      <c r="AU91" s="38">
         <f>AM25</f>
         <v>10032000000</v>
       </c>
@@ -15356,10 +15355,10 @@
       <c r="AM92" s="1">
         <v>13657000000</v>
       </c>
-      <c r="AT92" s="40" t="s">
+      <c r="AT92" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="AU92" s="41">
+      <c r="AU92" s="40">
         <f>AU90/AU91</f>
         <v>0.12789074960127592</v>
       </c>
@@ -15482,10 +15481,10 @@
       <c r="AM93" s="1">
         <v>-2757000000</v>
       </c>
-      <c r="AT93" s="40" t="s">
+      <c r="AT93" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="AU93" s="41">
+      <c r="AU93" s="40">
         <f>AU89*(1-AU92)</f>
         <v>2.0556380612988982E-2</v>
       </c>
@@ -15608,10 +15607,10 @@
       <c r="AM94" s="10">
         <v>-3583000000</v>
       </c>
-      <c r="AT94" s="67" t="s">
+      <c r="AT94" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="AU94" s="67"/>
+      <c r="AU94" s="73"/>
     </row>
     <row r="95" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -15731,12 +15730,12 @@
       <c r="AM95" s="1">
         <v>-500000000</v>
       </c>
-      <c r="AT95" s="38" t="s">
+      <c r="AT95" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="AU95" s="62">
+      <c r="AU95" s="61">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.7160000000000001E-2</v>
+        <v>4.845E-2</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15857,12 +15856,12 @@
       <c r="AM96" s="1">
         <v>241000000</v>
       </c>
-      <c r="AT96" s="43" t="s">
+      <c r="AT96" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="AU96" s="44" cm="1">
+      <c r="AU96" s="43" cm="1">
         <f t="array" ref="AU96">_FV(A1,"Beta")</f>
-        <v>0.98580000000000001</v>
+        <v>1.0028999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15983,10 +15982,10 @@
       <c r="AM97" s="1">
         <v>-3615000000</v>
       </c>
-      <c r="AT97" s="38" t="s">
+      <c r="AT97" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="AU97" s="42">
+      <c r="AU97" s="41">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -16108,12 +16107,12 @@
       <c r="AM98" s="1">
         <v>-4297000000</v>
       </c>
-      <c r="AT98" s="40" t="s">
+      <c r="AT98" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="AU98" s="41">
+      <c r="AU98" s="40">
         <f>(AU95)+((AU96)*(AU97-AU95))</f>
-        <v>8.3476872000000008E-2</v>
+        <v>8.4103095000000003E-2</v>
       </c>
     </row>
     <row r="99" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -16234,10 +16233,10 @@
       <c r="AM99" s="1">
         <v>1453000000</v>
       </c>
-      <c r="AT99" s="67" t="s">
+      <c r="AT99" s="73" t="s">
         <v>138</v>
       </c>
-      <c r="AU99" s="67"/>
+      <c r="AU99" s="73"/>
     </row>
     <row r="100" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
@@ -16357,10 +16356,10 @@
       <c r="AM100" s="10">
         <v>-6718000000</v>
       </c>
-      <c r="AT100" s="38" t="s">
+      <c r="AT100" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="AU100" s="39">
+      <c r="AU100" s="38">
         <f>AU87+AU88</f>
         <v>9079000000</v>
       </c>
@@ -16483,12 +16482,12 @@
       <c r="AM101" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT101" s="40" t="s">
+      <c r="AT101" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="AU101" s="41">
+      <c r="AU101" s="40">
         <f>AU100/AU104</f>
-        <v>5.9876132446347909E-2</v>
+        <v>6.528780134214289E-2</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16609,12 +16608,12 @@
       <c r="AM102" s="10">
         <v>-1581000000</v>
       </c>
-      <c r="AT102" s="43" t="s">
+      <c r="AT102" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="AU102" s="45" cm="1">
+      <c r="AU102" s="44" cm="1">
         <f t="array" ref="AU102">_FV(A1,"Market cap",TRUE)</f>
-        <v>142550700000</v>
+        <v>129982200000</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16735,12 +16734,12 @@
       <c r="AM103" s="1">
         <v>4631000000</v>
       </c>
-      <c r="AT103" s="40" t="s">
+      <c r="AT103" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="AU103" s="41">
+      <c r="AU103" s="40">
         <f>AU102/AU104</f>
-        <v>0.94012386755365207</v>
+        <v>0.93471219865785715</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16861,19 +16860,19 @@
       <c r="AM104" s="11">
         <v>3050000000</v>
       </c>
-      <c r="AN104" s="73" t="s">
-        <v>164</v>
-      </c>
-      <c r="AO104" s="73"/>
-      <c r="AP104" s="73"/>
-      <c r="AQ104" s="73"/>
-      <c r="AR104" s="73"/>
-      <c r="AT104" s="40" t="s">
+      <c r="AN104" s="75" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO104" s="75"/>
+      <c r="AP104" s="75"/>
+      <c r="AQ104" s="75"/>
+      <c r="AR104" s="75"/>
+      <c r="AT104" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="AU104" s="46">
+      <c r="AU104" s="45">
         <f>AU100+AU102</f>
-        <v>151629700000</v>
+        <v>139061200000</v>
       </c>
     </row>
     <row r="105" spans="1:47" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -16881,180 +16880,180 @@
         <v>162</v>
       </c>
       <c r="C105" s="1" t="e">
-        <f>(C22*(1-$AU$92))+C77+C88+C81</f>
+        <f t="shared" ref="C105:AM105" si="11">(C22*(1-$AU$92))+C77+C88+C81</f>
         <v>#VALUE!</v>
       </c>
       <c r="D105" s="1" t="e">
-        <f>(D22*(1-$AU$92))+D77+D88+D81</f>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="E105" s="1" t="e">
-        <f>(E22*(1-$AU$92))+E77+E88+E81</f>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="F105" s="1">
-        <f>(F22*(1-$AU$92))+F77+F88+F81</f>
+        <f t="shared" si="11"/>
         <v>-65748305.422647476</v>
       </c>
       <c r="G105" s="1">
-        <f>(G22*(1-$AU$92))+G77+G88+G81</f>
+        <f t="shared" si="11"/>
         <v>-285674840.5103668</v>
       </c>
       <c r="H105" s="1">
-        <f>(H22*(1-$AU$92))+H77+H88+H81</f>
+        <f t="shared" si="11"/>
         <v>108844796.65071774</v>
       </c>
       <c r="I105" s="1">
-        <f>(I22*(1-$AU$92))+I77+I88+I81</f>
+        <f t="shared" si="11"/>
         <v>574285885.16746414</v>
       </c>
       <c r="J105" s="1">
-        <f>(J22*(1-$AU$92))+J77+J88+J81</f>
+        <f t="shared" si="11"/>
         <v>6515091606.8580542</v>
       </c>
       <c r="K105" s="1">
-        <f>(K22*(1-$AU$92))+K77+K88+K81</f>
+        <f t="shared" si="11"/>
         <v>7740312599.6810207</v>
       </c>
       <c r="L105" s="1">
-        <f>(L22*(1-$AU$92))+L77+L88+L81</f>
+        <f t="shared" si="11"/>
         <v>551142145.13556623</v>
       </c>
       <c r="M105" s="1">
-        <f>(M22*(1-$AU$92))+M77+M88+M81</f>
+        <f t="shared" si="11"/>
         <v>-1288674840.5103669</v>
       </c>
       <c r="N105" s="1">
-        <f>(N22*(1-$AU$92))+N77+N88+N81</f>
+        <f t="shared" si="11"/>
         <v>388347188.99521542</v>
       </c>
       <c r="O105" s="1">
-        <f>(O22*(1-$AU$92))+O77+O88+O81</f>
+        <f t="shared" si="11"/>
         <v>421971590.909091</v>
       </c>
       <c r="P105" s="1">
-        <f>(P22*(1-$AU$92))+P77+P88+P81</f>
+        <f t="shared" si="11"/>
         <v>897097288.67623615</v>
       </c>
       <c r="Q105" s="1">
-        <f>(Q22*(1-$AU$92))+Q77+Q88+Q81</f>
+        <f t="shared" si="11"/>
         <v>-1802136463.3173842</v>
       </c>
       <c r="R105" s="1">
-        <f>(R22*(1-$AU$92))+R77+R88+R81</f>
+        <f t="shared" si="11"/>
         <v>-228567583.73205757</v>
       </c>
       <c r="S105" s="1">
-        <f>(S22*(1-$AU$92))+S77+S88+S81</f>
+        <f t="shared" si="11"/>
         <v>1018167464.1148326</v>
       </c>
       <c r="T105" s="1">
-        <f>(T22*(1-$AU$92))+T77+T88+T81</f>
+        <f t="shared" si="11"/>
         <v>1256585426.6347685</v>
       </c>
       <c r="U105" s="1">
-        <f>(U22*(1-$AU$92))+U77+U88+U81</f>
+        <f t="shared" si="11"/>
         <v>1774745115.6299839</v>
       </c>
       <c r="V105" s="1">
-        <f>(V22*(1-$AU$92))+V77+V88+V81</f>
+        <f t="shared" si="11"/>
         <v>2596056917.8628392</v>
       </c>
       <c r="W105" s="1">
-        <f>(W22*(1-$AU$92))+W77+W88+W81</f>
+        <f t="shared" si="11"/>
         <v>1633391846.092504</v>
       </c>
       <c r="X105" s="1">
-        <f>(X22*(1-$AU$92))+X77+X88+X81</f>
+        <f t="shared" si="11"/>
         <v>3795766048.6443381</v>
       </c>
       <c r="Y105" s="1">
-        <f>(Y22*(1-$AU$92))+Y77+Y88+Y81</f>
+        <f t="shared" si="11"/>
         <v>2735330243.2216907</v>
       </c>
       <c r="Z105" s="1">
-        <f>(Z22*(1-$AU$92))+Z77+Z88+Z81</f>
+        <f t="shared" si="11"/>
         <v>1796369517.5438595</v>
       </c>
       <c r="AA105" s="1">
-        <f>(AA22*(1-$AU$92))+AA77+AA88+AA81</f>
+        <f t="shared" si="11"/>
         <v>3459701156.2998409</v>
       </c>
       <c r="AB105" s="1">
-        <f>(AB22*(1-$AU$92))+AB77+AB88+AB81</f>
+        <f t="shared" si="11"/>
         <v>2714350877.1929827</v>
       </c>
       <c r="AC105" s="1">
-        <f>(AC22*(1-$AU$92))+AC77+AC88+AC81</f>
+        <f t="shared" si="11"/>
         <v>2855671551.0366826</v>
       </c>
       <c r="AD105" s="1">
-        <f>(AD22*(1-$AU$92))+AD77+AD88+AD81</f>
+        <f t="shared" si="11"/>
         <v>3139813397.1291866</v>
       </c>
       <c r="AE105" s="1">
-        <f>(AE22*(1-$AU$92))+AE77+AE88+AE81</f>
+        <f t="shared" si="11"/>
         <v>4213215211.3237638</v>
       </c>
       <c r="AF105" s="1">
-        <f>(AF22*(1-$AU$92))+AF77+AF88+AF81</f>
+        <f t="shared" si="11"/>
         <v>4527394936.2041473</v>
       </c>
       <c r="AG105" s="1">
-        <f>(AG22*(1-$AU$92))+AG77+AG88+AG81</f>
+        <f t="shared" si="11"/>
         <v>4756252292.6634769</v>
       </c>
       <c r="AH105" s="1">
-        <f>(AH22*(1-$AU$92))+AH77+AH88+AH81</f>
+        <f t="shared" si="11"/>
         <v>5960040570.1754389</v>
       </c>
       <c r="AI105" s="1">
-        <f>(AI22*(1-$AU$92))+AI77+AI88+AI81</f>
+        <f t="shared" si="11"/>
         <v>6265469397.9266348</v>
       </c>
       <c r="AJ105" s="1">
-        <f>(AJ22*(1-$AU$92))+AJ77+AJ88+AJ81</f>
+        <f t="shared" si="11"/>
         <v>5569081240.0318985</v>
       </c>
       <c r="AK105" s="1">
-        <f>(AK22*(1-$AU$92))+AK77+AK88+AK81</f>
+        <f t="shared" si="11"/>
         <v>5023211921.8500795</v>
       </c>
       <c r="AL105" s="1">
-        <f>(AL22*(1-$AU$92))+AL77+AL88+AL81</f>
+        <f t="shared" si="11"/>
         <v>6154098883.572567</v>
       </c>
       <c r="AM105" s="1">
-        <f>(AM22*(1-$AU$92))+AM77+AM88+AM81</f>
+        <f t="shared" si="11"/>
         <v>6476319876.3955345</v>
       </c>
-      <c r="AN105" s="27">
-        <f>AM105*(1+$AU$107)</f>
-        <v>6799177972.8381443</v>
-      </c>
-      <c r="AO105" s="27">
-        <f>AN105*(1+$AU$107)</f>
-        <v>7138131220.9143944</v>
-      </c>
-      <c r="AP105" s="27">
-        <f>AO105*(1+$AU$107)</f>
-        <v>7493981997.6096048</v>
-      </c>
-      <c r="AQ105" s="27">
-        <f>AP105*(1+$AU$107)</f>
-        <v>7867572680.0806532</v>
-      </c>
-      <c r="AR105" s="27">
-        <f>AQ105*(1+$AU$107)</f>
-        <v>8259787639.7482176</v>
-      </c>
-      <c r="AS105" s="72" t="s">
-        <v>168</v>
-      </c>
-      <c r="AT105" s="67" t="s">
+      <c r="AN105" s="70">
+        <f>AN107/AN3</f>
+        <v>0.23662128368991386</v>
+      </c>
+      <c r="AO105" s="70">
+        <f>AO107/AO3</f>
+        <v>0.2072109841735667</v>
+      </c>
+      <c r="AP105" s="70">
+        <f>AP107/AP3</f>
+        <v>0.24700928318499377</v>
+      </c>
+      <c r="AQ105" s="70">
+        <f>AQ107/AQ3</f>
+        <v>0.29311965811965812</v>
+      </c>
+      <c r="AR105" s="70">
+        <f>AR107/AR3</f>
+        <v>0.41067313041405068</v>
+      </c>
+      <c r="AS105" s="67" t="s">
+        <v>167</v>
+      </c>
+      <c r="AT105" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="AU105" s="67"/>
+      <c r="AU105" s="73"/>
     </row>
     <row r="106" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
@@ -17062,187 +17061,187 @@
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15" t="e">
-        <f t="shared" ref="C106:AM106" si="11">(C107/B107)-1</f>
+        <f t="shared" ref="C106:AM106" si="12">(C107/B107)-1</f>
         <v>#VALUE!</v>
       </c>
       <c r="D106" s="15" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="E106" s="15" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="F106" s="15" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="G106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.359375</v>
       </c>
       <c r="H106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.59534883720930232</v>
       </c>
       <c r="I106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-5.2758620689655169</v>
       </c>
       <c r="J106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.45161290322580649</v>
       </c>
       <c r="K106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.2352941176470589</v>
       </c>
       <c r="L106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.5</v>
       </c>
       <c r="M106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-6.1710526315789478</v>
       </c>
       <c r="N106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-1.5750636132315523</v>
       </c>
       <c r="O106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.67551622418879054</v>
       </c>
       <c r="P106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.9818181818181819</v>
       </c>
       <c r="Q106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-1.8795731707317072</v>
       </c>
       <c r="R106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-1.050259965337955</v>
       </c>
       <c r="S106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>40.03448275862069</v>
       </c>
       <c r="T106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.13529411764705879</v>
       </c>
       <c r="U106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.36787564766839376</v>
       </c>
       <c r="V106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.3214285714285714</v>
       </c>
       <c r="W106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.51351351351351349</v>
       </c>
       <c r="X106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.1313131313131315</v>
       </c>
       <c r="Y106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.30994623655913978</v>
       </c>
       <c r="Z106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.26373198285936894</v>
       </c>
       <c r="AA106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.38677248677248688</v>
       </c>
       <c r="AB106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-6.9057611598626445E-2</v>
       </c>
       <c r="AC106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.19631147540983607</v>
       </c>
       <c r="AD106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.8156903048989426E-2</v>
       </c>
       <c r="AE106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.18001345895020182</v>
       </c>
       <c r="AF106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.9880239520958112E-2</v>
       </c>
       <c r="AG106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.846650524616618E-2</v>
       </c>
       <c r="AH106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.14327700220426154</v>
       </c>
       <c r="AI106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.29777206512425014</v>
       </c>
       <c r="AJ106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-4.2258171013535795E-2</v>
       </c>
       <c r="AK106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-5.3774560496380519E-2</v>
       </c>
       <c r="AL106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.14644808743169402</v>
       </c>
       <c r="AM106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-5.8945027009850604E-2</v>
       </c>
-      <c r="AN106" s="70">
+      <c r="AN106" s="65">
         <f>(AN107/AM107)-1</f>
         <v>-0.28110754685125783</v>
       </c>
-      <c r="AO106" s="70">
+      <c r="AO106" s="65">
         <f>(AO107/AN107)-1</f>
         <v>-7.1395021136683834E-2</v>
       </c>
-      <c r="AP106" s="70">
+      <c r="AP106" s="65">
         <f>(AP107/AO107)-1</f>
         <v>0.30551340414769856</v>
       </c>
-      <c r="AQ106" s="70">
+      <c r="AQ106" s="65">
         <f>(AQ107/AP107)-1</f>
         <v>0.3287485470747773</v>
       </c>
-      <c r="AR106" s="70">
+      <c r="AR106" s="65">
         <f>(AR107/AQ107)-1</f>
         <v>0.50677941390873316</v>
       </c>
-      <c r="AS106" s="71">
+      <c r="AS106" s="66">
         <f>SUM(AN106:AR106)/5</f>
         <v>0.15770775942865348</v>
       </c>
-      <c r="AT106" s="47" t="s">
+      <c r="AT106" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="AU106" s="48">
+      <c r="AU106" s="47">
         <f>(AU101*AU93)+(AU103*AU98)</f>
-        <v>7.9709436324122029E-2</v>
+        <v>7.9954269735154931E-2</v>
       </c>
     </row>
     <row r="107" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="60" t="s">
+      <c r="A107" s="59" t="s">
         <v>163</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -17359,179 +17358,179 @@
       <c r="AM107" s="1">
         <v>5923000000</v>
       </c>
-      <c r="AN107" s="61">
+      <c r="AN107" s="60">
         <v>4258000000</v>
       </c>
-      <c r="AO107" s="61">
+      <c r="AO107" s="60">
         <v>3954000000</v>
       </c>
-      <c r="AP107" s="61">
+      <c r="AP107" s="60">
         <v>5162000000</v>
       </c>
-      <c r="AQ107" s="61">
+      <c r="AQ107" s="60">
         <v>6859000000</v>
       </c>
-      <c r="AR107" s="61">
+      <c r="AR107" s="60">
         <v>10335000000</v>
       </c>
-      <c r="AS107" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="AT107" s="49" t="s">
+      <c r="AS107" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT107" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="AU107" s="50">
+      <c r="AU107" s="49">
         <f>(SUM(AN4:AR4)/5)</f>
         <v>4.9852092330914921E-2</v>
       </c>
     </row>
     <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN108" s="28"/>
-      <c r="AO108" s="28"/>
-      <c r="AP108" s="28"/>
-      <c r="AQ108" s="28"/>
-      <c r="AR108" s="63">
+      <c r="AN108" s="27"/>
+      <c r="AO108" s="27"/>
+      <c r="AP108" s="27"/>
+      <c r="AQ108" s="27"/>
+      <c r="AR108" s="62">
         <f>AR107*(1+AU108)/(AU109-AU108)</f>
-        <v>176549983536.54291</v>
-      </c>
-      <c r="AS108" s="29" t="s">
+        <v>175829011787.94183</v>
+      </c>
+      <c r="AS108" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="AT108" s="51" t="s">
+      <c r="AT108" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="AU108" s="52">
+      <c r="AU108" s="51">
         <v>0.02</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="63">
-        <f t="shared" ref="AN109:AQ109" si="12">AN108+AN107</f>
+      <c r="AN109" s="62">
+        <f t="shared" ref="AN109:AQ109" si="13">AN108+AN107</f>
         <v>4258000000</v>
       </c>
-      <c r="AO109" s="63">
-        <f t="shared" si="12"/>
+      <c r="AO109" s="62">
+        <f t="shared" si="13"/>
         <v>3954000000</v>
       </c>
-      <c r="AP109" s="63">
-        <f t="shared" si="12"/>
+      <c r="AP109" s="62">
+        <f t="shared" si="13"/>
         <v>5162000000</v>
       </c>
-      <c r="AQ109" s="63">
-        <f t="shared" si="12"/>
+      <c r="AQ109" s="62">
+        <f t="shared" si="13"/>
         <v>6859000000</v>
       </c>
-      <c r="AR109" s="63">
+      <c r="AR109" s="62">
         <f>AR108+AR107</f>
-        <v>186884983536.54291</v>
-      </c>
-      <c r="AS109" s="29" t="s">
+        <v>186164011787.94183</v>
+      </c>
+      <c r="AS109" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="AT109" s="53" t="s">
+      <c r="AT109" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="AU109" s="50">
+      <c r="AU109" s="49">
         <f>AU106</f>
-        <v>7.9709436324122029E-2</v>
+        <v>7.9954269735154931E-2</v>
       </c>
     </row>
     <row r="110" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN110" s="64" t="s">
+      <c r="AN110" s="74" t="s">
         <v>149</v>
       </c>
-      <c r="AO110" s="64"/>
+      <c r="AO110" s="74"/>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN111" s="54" t="s">
+      <c r="AN111" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="AO111" s="45">
+      <c r="AO111" s="44">
         <f>NPV(AU109,AN109,AO109,AP109,AQ109,AR109)</f>
-        <v>143845481305.29346</v>
+        <v>143200596616.07706</v>
       </c>
     </row>
     <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN112" s="54" t="s">
+      <c r="AN112" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="AO112" s="45">
+      <c r="AO112" s="44">
         <f>AM40</f>
         <v>9067000000</v>
       </c>
     </row>
     <row r="113" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN113" s="54" t="s">
+      <c r="AN113" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="AO113" s="45">
+      <c r="AO113" s="44">
         <f>AU100</f>
         <v>9079000000</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN114" s="54" t="s">
+      <c r="AN114" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="AO114" s="45">
+      <c r="AO114" s="44">
         <f>AO111+AO112-AO113</f>
-        <v>143833481305.29346</v>
+        <v>143188596616.07706</v>
       </c>
     </row>
     <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN115" s="54" t="s">
+      <c r="AN115" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="AO115" s="54">
+      <c r="AO115" s="53">
         <f>AM34*(1+(5*AS16))</f>
         <v>864053875.21911407</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN116" s="55" t="s">
+      <c r="AN116" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="AO116" s="56">
+      <c r="AO116" s="55">
         <f>AO114/AO115</f>
-        <v>166.46355676469705</v>
+        <v>165.71720898742117</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN117" s="54" t="s">
+      <c r="AN117" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="AO117" s="57" cm="1">
+      <c r="AO117" s="56" cm="1">
         <f t="array" ref="AO117">_FV(A1,"Price")</f>
-        <v>157</v>
+        <v>143.12</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN118" s="55" t="s">
+      <c r="AN118" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="AO118" s="58">
+      <c r="AO118" s="57">
         <f>AO116/AO117-1</f>
-        <v>6.027743162227428E-2</v>
+        <v>0.15788994541238943</v>
       </c>
     </row>
     <row r="119" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN119" s="55" t="s">
+      <c r="AN119" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="AO119" s="59" t="str">
+      <c r="AO119" s="58" t="str">
         <f>IF(AO116&gt;AO117,"BUY","SELL")</f>
         <v>BUY</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="AT84:AU84"/>
+    <mergeCell ref="AT85:AU85"/>
     <mergeCell ref="AN110:AO110"/>
     <mergeCell ref="AN104:AR104"/>
     <mergeCell ref="AT105:AU105"/>
     <mergeCell ref="AT99:AU99"/>
     <mergeCell ref="AT94:AU94"/>
-    <mergeCell ref="AT84:AU84"/>
-    <mergeCell ref="AT85:AU85"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/TXN" display="ROIC.AI | TXN" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Technology/Hardware/Texas Instruments.xlsx
+++ b/Technology/Hardware/Texas Instruments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA44440A-CB29-F242-A818-D4FC3E0D83FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712DE795-09C9-CA4C-9EA3-5956D668D66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2894,10 +2894,10 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Watchlist"/>
       <sheetName val="Highest Quality"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Value"/>
-      <sheetName val="Watchlist"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -2914,7 +2914,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.845E-2</v>
+            <v>4.5080000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -3052,12 +3052,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>188.12</v>
-    <v>140.13</v>
-    <v>1.0028999999999999</v>
-    <v>-0.89</v>
-    <v>-6.1799999999999997E-3</v>
-    <v>-0.06</v>
-    <v>-4.192E-4</v>
+    <v>139.47999999999999</v>
+    <v>0.99329999999999996</v>
+    <v>-1.95</v>
+    <v>-1.3428000000000001E-2</v>
+    <v>-0.02</v>
+    <v>-1.3960000000000001E-4</v>
     <v>USD</v>
     <v>Texas Instruments Incorporated designs, makes and sells semiconductors to electronics designers and manufacturers across the world. The Company operates through two segments: Analog and Embedded Processing. The Company's Analog segment product lines include Power and Signal Chain. Power includes products that help customers manage power in electronic systems. Its broad portfolio is designed to manage power requirements across different voltage levels, including battery-management solutions, direct current (DC)/DC switching regulators, alternating current (AC)/DC and isolated controllers and converters, power switches, linear regulators, voltage references and lighting products. Signal Chain includes products that sense, condition, and measure signals to allow information to be transferred or converted for further processing and control. The Embedded Processing segment includes microcontrollers, digital signal processors (DSPs), and applications processors.</v>
     <v>33000</v>
@@ -3065,25 +3065,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>12500 T I Blvd, DALLAS, TX, 75243-0592 US</v>
-    <v>145.09059999999999</v>
+    <v>146.5</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45226.996108356252</v>
+    <v>45240.033518020311</v>
     <v>0</v>
-    <v>142.35</v>
-    <v>129982200000</v>
+    <v>143.16999999999999</v>
+    <v>130118401407</v>
     <v>TEXAS INSTRUMENTS INCORPORATED</v>
     <v>TEXAS INSTRUMENTS INCORPORATED</v>
-    <v>144.88</v>
-    <v>18.3904</v>
-    <v>144.01</v>
-    <v>143.12</v>
-    <v>143.06</v>
+    <v>145.93</v>
+    <v>18.578399999999998</v>
+    <v>145.22</v>
+    <v>143.27000000000001</v>
+    <v>143.25</v>
     <v>908204100</v>
     <v>TXN</v>
     <v>TEXAS INSTRUMENTS INCORPORATED (XNAS:TXN)</v>
-    <v>5327541</v>
-    <v>4913778</v>
+    <v>7061219</v>
+    <v>5839263</v>
     <v>1938</v>
   </rv>
   <rv s="2">
@@ -3248,9 +3248,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3671,10 +3671,10 @@
   <dimension ref="A1:AV119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AO101" sqref="AO101"/>
+      <selection pane="bottomRight" activeCell="AR97" sqref="AR97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5896,15 +5896,15 @@
       </c>
       <c r="AT16" s="29">
         <f>AU102/AM3</f>
-        <v>6.4900239664469739</v>
+        <v>6.4968245160275613</v>
       </c>
       <c r="AU16" s="29">
         <f>AU102/AM28</f>
-        <v>14.856806492170534</v>
+        <v>14.872374146416734</v>
       </c>
       <c r="AV16" s="30">
         <f>AU102/AM107</f>
-        <v>21.945331757555294</v>
+        <v>21.968327098936349</v>
       </c>
     </row>
     <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -6296,15 +6296,15 @@
       </c>
       <c r="AT19" s="29">
         <f>AU102/AN3</f>
-        <v>7.2232397888302309</v>
+        <v>7.2308086361211448</v>
       </c>
       <c r="AU19" s="29">
         <f>AU102/AN28</f>
-        <v>19.305242833803653</v>
+        <v>19.325471766968661</v>
       </c>
       <c r="AV19" s="30">
         <f>AU102/AN107</f>
-        <v>30.526585251291685</v>
+        <v>30.558572430014092</v>
       </c>
     </row>
     <row r="20" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6753,11 +6753,11 @@
       </c>
       <c r="AU22" s="64">
         <f>(-1*AM98)/AU102</f>
-        <v>3.30583726079417E-2</v>
+        <v>3.3023768763953118E-2</v>
       </c>
       <c r="AV22" s="31">
         <f>AN107/AU102</f>
-        <v>3.275833152539348E-2</v>
+        <v>3.2724041749339627E-2</v>
       </c>
     </row>
     <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -15735,7 +15735,7 @@
       </c>
       <c r="AU95" s="61">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.845E-2</v>
+        <v>4.5080000000000002E-2</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15861,7 +15861,7 @@
       </c>
       <c r="AU96" s="43" cm="1">
         <f t="array" ref="AU96">_FV(A1,"Beta")</f>
-        <v>1.0028999999999999</v>
+        <v>0.99329999999999996</v>
       </c>
     </row>
     <row r="97" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16112,7 +16112,7 @@
       </c>
       <c r="AU98" s="40">
         <f>(AU95)+((AU96)*(AU97-AU95))</f>
-        <v>8.4103095000000003E-2</v>
+        <v>8.3739235999999995E-2</v>
       </c>
     </row>
     <row r="99" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -16487,7 +16487,7 @@
       </c>
       <c r="AU101" s="40">
         <f>AU100/AU104</f>
-        <v>6.528780134214289E-2</v>
+        <v>6.5223918753007926E-2</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16613,7 +16613,7 @@
       </c>
       <c r="AU102" s="44" cm="1">
         <f t="array" ref="AU102">_FV(A1,"Market cap",TRUE)</f>
-        <v>129982200000</v>
+        <v>130118401407</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16739,7 +16739,7 @@
       </c>
       <c r="AU103" s="40">
         <f>AU102/AU104</f>
-        <v>0.93471219865785715</v>
+        <v>0.93477608124699207</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16872,7 +16872,7 @@
       </c>
       <c r="AU104" s="45">
         <f>AU100+AU102</f>
-        <v>139061200000</v>
+        <v>139197401407</v>
       </c>
     </row>
     <row r="105" spans="1:47" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -17237,7 +17237,7 @@
       </c>
       <c r="AU106" s="47">
         <f>(AU101*AU93)+(AU103*AU98)</f>
-        <v>7.9954269735154931E-2</v>
+        <v>7.961820257365454E-2</v>
       </c>
     </row>
     <row r="107" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -17391,7 +17391,7 @@
       <c r="AQ108" s="27"/>
       <c r="AR108" s="62">
         <f>AR107*(1+AU108)/(AU109-AU108)</f>
-        <v>175829011787.94183</v>
+        <v>176820158020.97342</v>
       </c>
       <c r="AS108" s="28" t="s">
         <v>146</v>
@@ -17422,7 +17422,7 @@
       </c>
       <c r="AR109" s="62">
         <f>AR108+AR107</f>
-        <v>186164011787.94183</v>
+        <v>187155158020.97342</v>
       </c>
       <c r="AS109" s="28" t="s">
         <v>143</v>
@@ -17432,7 +17432,7 @@
       </c>
       <c r="AU109" s="49">
         <f>AU106</f>
-        <v>7.9954269735154931E-2</v>
+        <v>7.961820257365454E-2</v>
       </c>
     </row>
     <row r="110" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -17447,7 +17447,7 @@
       </c>
       <c r="AO111" s="44">
         <f>NPV(AU109,AN109,AO109,AP109,AQ109,AR109)</f>
-        <v>143200596616.07706</v>
+        <v>144087158493.78943</v>
       </c>
     </row>
     <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -17474,7 +17474,7 @@
       </c>
       <c r="AO114" s="44">
         <f>AO111+AO112-AO113</f>
-        <v>143188596616.07706</v>
+        <v>144075158493.78943</v>
       </c>
     </row>
     <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -17492,7 +17492,7 @@
       </c>
       <c r="AO116" s="55">
         <f>AO114/AO115</f>
-        <v>165.71720898742117</v>
+        <v>166.74325829191338</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -17501,7 +17501,7 @@
       </c>
       <c r="AO117" s="56" cm="1">
         <f t="array" ref="AO117">_FV(A1,"Price")</f>
-        <v>143.12</v>
+        <v>143.27000000000001</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -17510,7 +17510,7 @@
       </c>
       <c r="AO118" s="57">
         <f>AO116/AO117-1</f>
-        <v>0.15788994541238943</v>
+        <v>0.16383931243046956</v>
       </c>
     </row>
     <row r="119" spans="40:41" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Texas Instruments.xlsx
+++ b/Technology/Hardware/Texas Instruments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625301CF-641A-BD4A-85BF-811C8D2C2B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B476744-093C-E64F-B0DB-DC883D8C6876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1747,6 +1747,8 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1766,7 +1768,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1779,6 +1781,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1906,11 +1910,11 @@
     <v>Powered by Refinitiv</v>
     <v>188.12</v>
     <v>139.47999999999999</v>
-    <v>1.0146999999999999</v>
-    <v>2.5</v>
-    <v>1.6371E-2</v>
-    <v>0.28999999999999998</v>
-    <v>1.8679999999999999E-3</v>
+    <v>1.0137</v>
+    <v>-0.65</v>
+    <v>-4.1219999999999998E-3</v>
+    <v>0.46</v>
+    <v>2.9289999999999997E-3</v>
     <v>USD</v>
     <v>Texas Instruments Incorporated designs, makes and sells semiconductors to electronics designers and manufacturers across the world. The Company operates through two segments: Analog and Embedded Processing. The Company's Analog segment product lines include Power and Signal Chain. Power includes products that help customers manage power in electronic systems. Its broad portfolio is designed to manage power requirements across different voltage levels, including battery-management solutions, direct current (DC)/DC switching regulators, alternating current (AC)/DC and isolated controllers and converters, power switches, linear regulators, voltage references and lighting products. Signal Chain includes products that sense, condition, and measure signals to allow information to be transferred or converted for further processing and control. The Embedded Processing segment includes microcontrollers, digital signal processors (DSPs), and applications processors.</v>
     <v>33000</v>
@@ -1918,25 +1922,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>12500 T I Blvd, DALLAS, TX, 75243-0592 US</v>
-    <v>155.31</v>
+    <v>158.32</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45262.040082500003</v>
+    <v>45269.040091839845</v>
     <v>0</v>
-    <v>151.91</v>
-    <v>140962400000</v>
+    <v>156.285</v>
+    <v>142615289823</v>
     <v>TEXAS INSTRUMENTS INCORPORATED</v>
     <v>TEXAS INSTRUMENTS INCORPORATED</v>
-    <v>153.11000000000001</v>
-    <v>19.805299999999999</v>
-    <v>152.71</v>
-    <v>155.21</v>
-    <v>155.5</v>
+    <v>157.29</v>
+    <v>20.4499</v>
+    <v>157.68</v>
+    <v>157.03</v>
+    <v>157.49</v>
     <v>908204100</v>
     <v>TXN</v>
     <v>TEXAS INSTRUMENTS INCORPORATED (XNAS:TXN)</v>
-    <v>4095482</v>
-    <v>5691183</v>
+    <v>4732348</v>
+    <v>5415986</v>
     <v>1938</v>
   </rv>
   <rv s="2">
@@ -15222,7 +15226,7 @@
   <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15275,7 +15279,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>140962400000</v>
+        <v>142615289823</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>203</v>
@@ -15303,14 +15307,14 @@
       </c>
       <c r="I3" s="40">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>140257032021.57434</v>
+        <v>139187931911.34665</v>
       </c>
       <c r="J3" s="41" t="s">
         <v>207</v>
       </c>
       <c r="K3" s="42">
         <f>Financials!Q172*-1/Model!A3</f>
-        <v>3.1916312435089071E-2</v>
+        <v>3.1546407160015694E-2</v>
       </c>
       <c r="L3" s="43" t="s">
         <v>208</v>
@@ -15355,14 +15359,14 @@
       </c>
       <c r="I4" s="50">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>108876056683.00967</v>
+        <v>107946647595.03125</v>
       </c>
       <c r="J4" s="48" t="s">
         <v>214</v>
       </c>
       <c r="K4" s="51" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>1.6371E-2</v>
+        <v>-4.1219999999999998E-3</v>
       </c>
       <c r="L4" s="52" t="s">
         <v>215</v>
@@ -15407,14 +15411,14 @@
       </c>
       <c r="I5" s="50">
         <f>I4+G5-G6</f>
-        <v>106602056683.00967</v>
+        <v>105672647595.03125</v>
       </c>
       <c r="J5" s="48" t="s">
         <v>221</v>
       </c>
       <c r="K5" s="54" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>155.21</v>
+        <v>157.03</v>
       </c>
       <c r="L5" s="55" t="s">
         <v>222</v>
@@ -15434,7 +15438,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="58">
         <f>O20/F10</f>
-        <v>8.0366248574686434</v>
+        <v>8.1308603091790186</v>
       </c>
       <c r="B6" s="46" t="s">
         <v>224</v>
@@ -15462,14 +15466,14 @@
       </c>
       <c r="I6" s="51">
         <f>N25</f>
-        <v>9.2255629639653322E-2</v>
+        <v>9.2772218973755816E-2</v>
       </c>
       <c r="J6" s="48" t="s">
         <v>227</v>
       </c>
       <c r="K6" s="59">
         <f>I5/G4</f>
-        <v>122.2294270594263</v>
+        <v>121.16377088109168</v>
       </c>
       <c r="L6" s="60" t="s">
         <v>228</v>
@@ -15489,14 +15493,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="61">
         <f>O20/F12</f>
-        <v>21.746744831842022</v>
+        <v>22.001741719068189</v>
       </c>
       <c r="B7" s="62" t="s">
         <v>230</v>
       </c>
       <c r="C7" s="63">
         <f>F15/A3</f>
-        <v>2.2055526863901297E-2</v>
+        <v>2.1799906614911931E-2</v>
       </c>
       <c r="D7" s="62" t="s">
         <v>231</v>
@@ -15523,7 +15527,7 @@
       </c>
       <c r="K7" s="69">
         <f>K6/K5-1</f>
-        <v>-0.21249000026141163</v>
+        <v>-0.22840367521434324</v>
       </c>
       <c r="L7" s="70" t="s">
         <v>234</v>
@@ -15850,7 +15854,7 @@
       </c>
       <c r="O14" s="89">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="44"/>
       <c r="Q14" s="44"/>
@@ -16002,7 +16006,7 @@
       </c>
       <c r="O17" s="99">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.762570000000001E-2</v>
+        <v>9.8120700000000005E-2</v>
       </c>
       <c r="P17" s="44"/>
       <c r="Q17" s="44"/>
@@ -16085,7 +16089,7 @@
       </c>
       <c r="O20" s="105">
         <f>A3</f>
-        <v>140962400000</v>
+        <v>142615289823</v>
       </c>
       <c r="P20" s="44"/>
       <c r="Q20" s="44"/>
@@ -16115,7 +16119,7 @@
       </c>
       <c r="O21" s="105">
         <f>O19+O20</f>
-        <v>152184400000</v>
+        <v>153837289823</v>
       </c>
       <c r="P21" s="44"/>
       <c r="Q21" s="44"/>
@@ -16143,7 +16147,7 @@
       </c>
       <c r="O22" s="107">
         <f>(O19/O21)</f>
-        <v>7.3739489724308147E-2</v>
+        <v>7.2947202937022976E-2</v>
       </c>
       <c r="P22" s="44"/>
       <c r="Q22" s="44"/>
@@ -16168,7 +16172,7 @@
       </c>
       <c r="O23" s="108">
         <f>O20/O21</f>
-        <v>0.9262605102756919</v>
+        <v>0.92705279706297705</v>
       </c>
       <c r="P23" s="44"/>
       <c r="Q23" s="44"/>
@@ -16212,7 +16216,7 @@
       <c r="M25" s="72"/>
       <c r="N25" s="112">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.2255629639653322E-2</v>
+        <v>9.2772218973755816E-2</v>
       </c>
       <c r="O25" s="113"/>
       <c r="P25" s="44"/>
